--- a/news_data/2020_01.xlsx
+++ b/news_data/2020_01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,21 +22,123 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>[우한폐렴] 제주도, 중국 관광객 노비자 입국 일시 제한 건의</t>
+  </si>
+  <si>
+    <t>신종 코로나바이러스 확산에 제주도 초긴장…관광시장 위축</t>
+  </si>
+  <si>
+    <t>제주도, 외국인 관광객에 마스크 제공 등 '관광관련 대책' 마련</t>
+  </si>
+  <si>
+    <t>‘우한 폐렴’에 제주도 불안감 커져…관광시장 타격 우려도</t>
+  </si>
+  <si>
+    <t>우한폐렴 “제2사드 되나”…제주도, 청정 제주관광 '배수진'</t>
+  </si>
+  <si>
+    <t>설날에는 갈치조림 먹으러 제주도 중문 관광단지 맛집 '이조은식당'</t>
+  </si>
+  <si>
+    <t>제주도 찾는 국내 관광객 늘었지만…지갑은 닫았다</t>
+  </si>
+  <si>
+    <t>춘제 中관광객 3만명 제주도行… 설 앞두고 우한폐렴 확산 `비상`</t>
+  </si>
+  <si>
+    <t>여기어때, '제주·렌트' 카테고리 신설...제주도 관광객 상품 강화</t>
+  </si>
+  <si>
+    <t>롯데관광개발, 제주도 소상공인 지원…상생협력 프로젝트 가동</t>
+  </si>
+  <si>
+    <t>남해, 제주도 관광을 벤치마킹 나서다</t>
+  </si>
+  <si>
+    <t>제주도, 관광진흥기금 부과 위한 카지노 매출액 조사 나선다</t>
+  </si>
+  <si>
+    <t>2월 제주도 관광 10선...놓치면 후회할 여행코스는?</t>
+  </si>
+  <si>
+    <t>[fn포토] 롯데관광개발 “제주도 여성 일자리 경력이음으로”</t>
+  </si>
+  <si>
+    <t>신선하고 푸짐한 갈치조림으로 고객만족실현 '색달식당 중문 본점' 제주도 중...</t>
+  </si>
+  <si>
+    <t>제주도, 관광정책 '모바일 주도 관광형태'에 선제적 대응</t>
+  </si>
+  <si>
+    <t>제주도, 빅데이터 기반 관광지 자동추천 플랫폼 개발추진</t>
+  </si>
+  <si>
+    <t>김영진 전 제주도관광협회장, 총선 예비후보 등록</t>
+  </si>
+  <si>
+    <t>설 연휴 제주도 입도 관광객 21만명 예상...전년비 9.6%↑</t>
+  </si>
+  <si>
+    <t>설 연휴, 국내·외 관광객 '제주도' 쏟아진다</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 '이조은식당' 여행객들이 호평하는 효리의단골집</t>
+  </si>
+  <si>
+    <t>[신년사] 부동석 제주도관광협회장 “관광객 만족도 향상 최우선"</t>
+  </si>
+  <si>
+    <t>제주도, 관광생태계 개선에 513억원 투입</t>
+  </si>
+  <si>
+    <t>제주도관광협회, '12월 베스트 관광인'에 양혜숙 선정</t>
+  </si>
+  <si>
+    <t>제주도문화관광해설사협회, 정기총회 개최</t>
+  </si>
+  <si>
+    <t>제주교육청, ‘관광기금 교육비 전출’ 위한 제주도 설득에 나선다</t>
+  </si>
+  <si>
+    <t>제주도 2박 3일 코스, 겨울 실내체험관광 '제주이야기' 천연꽃으로 만드는 향...</t>
+  </si>
+  <si>
+    <t>김영진 전 제주도관광협회장 "관광 현장 전문가 중앙 가서 역할해야"</t>
+  </si>
+  <si>
+    <t>제주도 내국인 관광객 분석, 신용카드 사용액 제자리</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 갓성비로 알려진 효리의단골집 '이조은식당'</t>
+  </si>
+  <si>
+    <t>설 연휴기간 제주도 입도 관광객 21만명 예상...전년비 9.6%↑</t>
+  </si>
+  <si>
+    <t>제주도, 빅데이터 기반 관광지 자동추천 플랫폼 개발</t>
+  </si>
+  <si>
+    <t>중문관광단지 맛집 '색달식당 중문 본점' 제주도의 특색있는 맛을 살린 갈치 ...</t>
+  </si>
+  <si>
+    <t>[2020년 신년설계] 박홍배 제주도관광공사 사장</t>
+  </si>
+  <si>
     <t>제주도 여행코스 실내체험관광 '제주이야기' 천연 꽃 향수와 립글로스 만들기</t>
   </si>
   <si>
+    <t>제주도관광협회, 제주 첫 입도 관광객 대상 행사</t>
+  </si>
+  <si>
+    <t>경자년 새해 첫 제주도 입도 관광객에 '깜짝 환대' 이벤트</t>
+  </si>
+  <si>
+    <t>신용카드 빅데이터를 통해 본 제주관광산업 동향..카드소비 제주도 읍 면 동으...</t>
+  </si>
+  <si>
     <t>[2020년 신년설계] 부동석 제주도관광협회장</t>
   </si>
   <si>
-    <t>제주도관광협회, 제주 첫 입도 관광객 대상 행사</t>
-  </si>
-  <si>
-    <t>경자년 새해 첫 제주도 입도 관광객에 '깜짝 환대' 이벤트</t>
-  </si>
-  <si>
-    <t>신용카드 빅데이터를 통해 본 제주관광산업 동향..카드소비 제주도 읍 면 동으...</t>
-  </si>
-  <si>
     <t>제주도 빅데이터 기반 플랫폼 구축 등으로 관광 활성화 도모</t>
   </si>
   <si>
@@ -49,31 +151,133 @@
     <t>김영진 전 제주도관광협회장 출판 기념회 열고 총선 행보</t>
   </si>
   <si>
-    <t>제주도 여행코스 실내체험관광 '제주이야기' 천연 꽃 향수와 립글로스 만들기 - 데일리시큐 × 전체기사 산업 이슈 정책 해외 IT&amp;생활 전체 핫이슈 라이프 뉴스 경제일반 이슈 산업 정책 해외 IT&amp;생활 핫이슈 자료실 전체기사 기사검색 기사제보 뉴스레터신청 2022-10-04 10:35 (화) 처음으로 로그인 회원가입 이전 다음 제주도 여행코스 실내체험관광 '제주이야기' 천연 꽃 향수와 립글로스 만들기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME IT&amp;생활 제주도 여행코스 실내체험관광 '제주이야기' 천연 꽃 향수와 립글로스 만들기 우진영 기자 승인 2020.01.10 09:00 페이스북 트위터 카카오스토리 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주도는 국내 최대 섬으로 차로 이동시 동쪽에서 서쪽으로 1시간 30분이 소요되며 북쪽에서 남쪽으로 이동해도 1시간이 걸린다. 때문에 제주도 여행코스는 미리 권역을 정하고 최대한 동선을 짧게 잡아 이동시간을 줄이는 영리한 계획을 세워야 알차게 제주도를 즐길 수 있다. 제주도는 사계절 다른 풍경과 다양한 볼거리와 놀거리, 먹을거리로 몇 번을 와도 질리지 않아 재방문율이 높고 한 달 살기 붐이 일기도 했다. 실내체험관광지 ‘제주이야기’는 제주도의 자연을 담은 천연향수와 천연 화장품을 만들어 볼 수 있는 제주도 체험형 관광지로, 실내에 자리하고 있어 가능날씨에 구애 받지 않고 언제나 쾌적한 체험이 가능하다. 특히 대부분의 실내 만들기 체험은 연령대 제한이 있는 반면 ‘제주이야기’는 5세 이상 미취학아동부터 체험이 가능해 어린 자녀를 둔 가족단위의 여행객들에게 선호되고 있다. 체험상품으로는 ‘천연꽃 롤향수’와 천연오일 베이스와 천연왁스를 첨가한 ‘천연꽃 립글로즈’를 선생님의 친절한 설명으로 쉽게 만들 수 있으며, 화산송이 현무암 속에 향기로운 꽃을 담아 은은한 향기를 내뿜는 ‘천연꽃 방향제’와 청정 제주산 화상송이와 감귤 추출물을 함유한 ‘화산송이 모공팩’도 체험할 수 있다. ‘제주이야기’의 천연꽃 롤향수는 자신이 좋아하는 향을 고르고 냉동 건조된 천연꽃을 자신만의 스타일대로 골라 넣어 데코 할 수 있는 세상에 단 하나뿐인 나만의 향수로, 특별한 제주도 기념품이자 정성을 담은 선물로 좋은 반응을 얻고 있다. 또한 보존제를 전혀 첨가하지 않고 자극적이지 않은 천연원료로 만들어 어린이도 부담 없이 사용할 수 있고 안심하고 체험할 수 있어 가족단위의 여행객들에게 특히 선호되고 있다. 현재 제주도 내 행원본점과 애월점 두 군데를 운영 중으로 제주도의 청정지역에서 직접 재배한 꽃과 한라봉 등 천연 재료를 가공한 액상차와 기능성 화장품, 예쁜 젤캔들 등 다양한 제주도 기념품까지 구매할 수 있다. 애월 해변 입구쪽에 자리잡아 바다가 보이는 ‘제주이야기’ 애월점은 포토존을 아기자기하게 꾸며놓은 예쁜 매장인테리어가 SNS 인증샷 핫플레이스로 자리매김하고 있으며, ‘제주이야기’ 월정리점은 월정리 해변 바로 옆에 위치해 2층 체험장에서 탁 트인 바다조망을 누리며 체험할 수 있어 커플여행객들의 선호도가 높다. 업체 관계자는 “제주도 천연꽃으로 향수와 화장품을 만드는 체험은 제주도에서 할 수 있는 특별한 체험으로, 연인이나 가족단위 방문객은 물론 회사 워크숍 등 단체 체험도 이어지고 있다”며”최근 제주도에서 캔들 선물이 유행하며 제주도만의 개성이 살아있는 자체제작한 젤 캔들을 기념품으로 구매하러 오시는 관광객들이 늘고 있다”고 전했다. 한편, ‘제주이야기’브랜드를 만든 (주)제주사랑농수산(대표 양경월)은 제주 최초로 화산석 화장품을 개발해 국내 굴지의 화장품회사에 납품하고 한라봉을 원료로 하는 액상 차 및 꽃을 이용한 티백 및 향료개발 등 지역 고유의 자연 환경과 문화적인 특성을 활용한 제품을 개발하고 있다. 저작권자 © 데일리시큐 무단전재 및 재배포 금지 우진영 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 많이 본뉴스 1 [PASCON 2022] 하반기 최대 정보보호 컨퍼런스...9월 28일 개최, 사전등록 접수중 [PASCON 2022] 하반기 최대 정보보호 컨퍼런스...9월 28일 개최, 사전등록 접수중 2 조직화된 서비스형 랜섬웨어 위협 급증...종합적인 대응 필요 조직화된 서비스형 랜섬웨어 위협 급증...종합적인 대응 필요 3 [CPS보안워크숍] 정현철 PM “해커들 공격 억제위해 공세적 대응기술 발전시켜야” [CPS보안워크숍] 정현철 PM “해커들 공격 억제위해 공세적 대응기술 발전시켜야” 4 “국내 랜섬웨어 피해기업 80%가 중소기업...64%는 백업도 안 해” “국내 랜섬웨어 피해기업 80%가 중소기업...64%는 백업도 안 해” 5 우버, 최근 보안 침해에 대해 삼성·시스코·MS 등 공격한 ‘랩서스’ 해킹 그룹 비난 우버, 최근 보안 침해에 대해 삼성·시스코·MS 등 공격한 ‘랩서스’ 해킹 그룹 비난 오늘이 주요뉴스 지재위, 기술 해외유출과 탈취 방지 위한 연구자 가이드라인 발간 긴급속보 지재위, 기술 해외유출과 탈취 방지 위한 연구자 가이드라인 발간 가명정보 활용 성과 본격화, 우수사례·아이디어 경진대회 개최 정책 가명정보 활용 성과 본격화, 우수사례·아이디어 경진대회 개최 개인정보위, ‘제2회 개인정보보호의 날’ 열려...개인정보 보호 유공 포상 긴급속보 개인정보위, ‘제2회 개인정보보호의 날’ 열려...개인정보 보호 유공 포상 지재위, 기술 해외유출과 탈취 방지 위한 연구자 가이드라인 발간 가명정보 활용 성과 본격화, 우수사례·아이디어 경진대회 개최 개인정보위, ‘제2회 개인정보보호의 날’ 열려...개인정보 보호 유공 포상 아울시스템즈, ‘국방보안 컨퍼런스'에서 신제품 및 파트너사 제품 소개 지재위, 기술 해외유출과 탈취 방지 위한 연구자 가이드라인 발간 가명정보 활용 성과 본격화, 우수사례·아이디어 경진대회 개최 개인정보위, ‘제2회 개인정보보호의 날’ 열려...개인정보 보호 유공 포상 아울시스템즈, ‘국방보안 컨퍼런스'에서 신제품 및 파트너사 제품 소개 보안자료 2022년_상반기_악성코드_은닉사이트_탐지_동향_보고서(KISA) 개인정보보호위원회, 개인정보의 기술적 관리적 보호조치 기준 개정 해설서(2022.8.) 금융보안원-전자금융과 금융보안 제29호 아동·청소년 개인정보 보호 가이드라인(2022.7, 제정) 정보보호 해외진출 전략거점 월간 주요동향(2022년 7월) 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 송파구 가락로 208, 402호(송파동, 일조빌딩) 대표전화 : 02-400-2908 팩스 : 02-400-2906 청소년보호책임자 : 길민권 법인명 : 제호 : 데일리시큐 등록번호 : 서울 아 02362 등록일 : 2011년 3월 28일 발행일 : 2017-05-01 발행·편집인 : 길민권 사업자 번호 : 301-87-02348 데일리시큐 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 데일리시큐. All rights reserved. mail to mkgil@dailysecu.com 위로</t>
-  </si>
-  <si>
-    <t>[2020년 신년설계] 부동석 제주도관광협회장 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:32 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 [2020년 신년설계] 부동석 제주도관광협회장 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 [2020년 신년설계] 부동석 제주도관광협회장 편집팀 iheadline@hanmail.net 승인 2020.01.05 10:33 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 부동석 제주도관광협회장. ⓒ헤드라인제주 2020년 경자년 새해가 밝았습니다. 먼저 지난해 어려운 여건 속에서도 제주관광을 위해 치열한 한 해를 보낸 관광인 여러분께 깊은 존경과 감사의 말씀을 드리며 올해는 백색(흰 쥐)과 함께 백의의 민족임을 이어오며 다시 회복(‘子(자)’)한다는 의미의 ‘경자년’으로 새로운 하늘이 열리는 대운세가 찾아오는 희망의 해가 되길 바랍니다. 지난 한 해 제주관광은 우리나라와 타 국가의 정치적 상황, 해외 관광시장의 가격경쟁력 확보, 내국인의 소비트렌드와 여행패턴의 변화, 국내 타 지방자치단체와의 경쟁심화 등 어려운 여건 속에서도 제주관광을 위해 치열한 한 해를 보낸 관광인 여러분께 깊은 존경과 감사의 말씀을 드립니다. 올해에도 제주관광은 어려운 해가 이어질 것이라는 전망이 나오고 있습니다. 올해 우리 협회는 경영난을 겪고 있는 업계의 경쟁력 강화와 관광객 만족도 향상을 최우선 목표로 삼고 모든 역량을 집중하여 사업을 추진해 나가겠습니다. 먼저 제주관광시장의 대 내·외 환경변화에 적절한 대응과 건강한 관광생태계 조성을 위하여 핵심 사업들을 차질 없이 수행하겠습니다. 우선 ‘지역경제 활성화 및 융복합 전략’을 통해 4차 산업혁명 시대에 맞는 지역맞춤형 융복합 관광 확장 및 지역사회 환원을 위해 지역경제에 일조할 수 있도록 하겠습니다. 다음으로 ‘국내외 잠재수요 확충을 위한 다변화 마케팅 전략’을 통해 단체관광 홍보 및 관광 업체 간 네트워크 강화를 도모하여 국내외 잠재수요를 확충하도록 하겠습니다. 또한, ‘관광사업체 대외 경쟁력 지원체계 강화’를 위해 관광사업체 경쟁력 강화 및 관광관련 스포츠 및 유사업종 간 네트워크를 구축해 나가겠습니다. 더불어 양질의 관광산업 정보제공을 위한 사업에도 심혈을 기울여 나가겠습니다. 항상 관광협회에 관심을 가지고 보내주신 변함없는 사랑과 뜨거운 성원에 진심으로 감사를 드리며, 경자년 새해에도 지속적인 관심과 성원을 부탁드립니다. 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 제주 첫 입도 관광객 대상 행사 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-04 09:43 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 제주 첫 입도 관광객 대상 행사 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도관광협회, 제주 첫 입도 관광객 대상 행사 기자명 문서현 기자 입력 2020.01.02 16:44 수정 2020.01.02 16:48 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도와 제주도관광협회(회장 부동석)는 2020년 경자년(庚子年) 새해 첫 날을 맞이해 제주국제공항 국내선과 국제선 도착대합실, 제주항에서 첫 입도 국내·외 관광객을 대상으로 건강과 행복을 기원하며, 제주방문 감사의 마음을 담은 환영행사를 진행했다.1일 제주국제공항 국내선을 이용 새해 첫 입도 관광객 환영기념 이벤트 주인공으로는 지재익씨(대구 달성군), 국제선 우초이춘씨(홍콩)와 제주항 첫 입항객 김무성씨(충청남도 논산시)에게 40만원 상당 제주여행상품권, 홍삼세트, 복주머니, 꽃다발 등의 푸짐한 기념품이 주어졌다.새해 첫 날 제주를 방문한 관광객과 도민들을 대상으로는 환영현수막 게첩, 삼다수, 기념품(복주머니)을 한복도우미와 함께 나눠주며 환영 메세지를 전달했다.특히, 제주국제공항 국내선 도착 게이트에서는 “2020 경자년 새해 첫 행운을 잡아라” 이벤트 존을 운영, 관광객들이 직접 참여하여 각종 게임 등을 즐기며 제주감귤 등 제주 특산품을 받아가는 즐거운 분위기가 이어졌다.한편 새해 첫 날에는 3만9천6백여명의 관광객이 제주를 찾았다. 이는 지난해 보다 27% 증가율을 보이고 있다.관광협회 관계자는 “관광객 1500만명 시대 재진입과 함께 제주도의 관광환경 변화에 선제적 대응정책에 맞춰 도민 체감도 증진 및 관광객 만족도 제고에 초점을 두어 2020년도 제주관광 경쟁력 강화에 박차를 가할 것” 이라고 말했다. 문서현 기자 start-to@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' [단독]제주TP 5대 원장 공모...다시 재공모 수순 밟을 듯 관절 특효 '쇠무릎'…닭발과 환상 콜라보 제주 첫 전국장애인기능경기대회 폐막 제주, 부동산시장 “빨간불”...미분양·가계대출 전국 최고 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 ‘2022 제주 반려동물 문화축제’ 개막 제주 첫 전국장애인기능경기대회 폐막 오늘의 주요뉴스 [제주특별자치도의회 소식] 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 [사회일반] 해외입국자 입국 1일차 PCR 의무검사 중단 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ [경제일반] 2030년 수소버스·트램 제주를 누빈다 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자 인사청문 ‘배신·기회주의자’ 난타 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 '탄저균' 설마 제주 함덕에?…시료 채취 결과 '음성' 서귀포서 운행중 자동차 화재 사고 한림항서 급유중 경유 10ℓ 유출 어선 적발 제주서 맹독성 파란고리문어 발견 새벽시간 제주시 자재보관창고 화재 인기뉴스 댓글많은기사 실시간댓글 1 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 2 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 3 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 4 국힘 제주도당 "이선화 임명은 吳도정 인사참사" 5 해외입국자 입국 1일차 PCR 의무검사 중단 6 서귀포서 운행중 자동차 화재 사고 7 오영훈 지사 “사회복지예산 25%까지 확대할 것” 8 일도2동 두문이 골목마을 도시재생, 국비 공모 신청 9 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 10 ‘돈 먹는 하마’ 버스 준공영제...개선방안은? 1 이재명 대표 ‘제주4·3해결·탄소중립’ 국비 지원 약속 2 제주관광공사, 해양쓰레기 팝업전시 필터(filter/必터) 개최 1 10 월이다 약속대로 국토부는, 제2공항 확정하고 착공해라 2 친일프레임을 고집하여 국민의 의식을 그프레임안에 가둬 정권을 유지하려 몸부림치는 공산추종세력 들은 주체사상을 연구하고 고 공부하여 종교화하는 586주사파빨갱이 들 뿐이며, 작금의 민주당 의 노선이다 3 슬프고 또 슬프네요.. 친일파 청산 못했더니 이모양입니다. 그래도 민족정신은 제대로 이어가야지 이게뭡니까? 4 독립유공자 후예분. 오히려 친일을 운운하는 자들이 빨갱이로 보이는 것은 그동안 잘못 배웠기 때문입니다. 우리 헌법 전문의 "3.1운동으로 건립된 대한민국임시정부의 법통을 계승하고~"에 있듯이 우리는 일제에 저항했고 그것이 대한민국의 정신적 초석입니다. 친일 운운이 빨갱이로보인다? 진짜 친일파들이 그동안 물타기와 레드컴플렉스를 잘도 이용해 온 것이죠!! 부끄러워해야합니다. 5 아래 댓글수준하곤 쯧쯧 6 이땅에서 빨갱이들이 모두 없어질때까지 4.3은 민주당 빨갱이들이 5.18,세월호와함께 줄기차게 우려먹을것임 ㅎㅎㅎ 7 개자식아 거기는 비행기 노선이 겹처저서 않된다고 하잔아 18또라이새끼야 정신좀차려라 제주날씨 4일 제주, 출근길 강풍 동반 '가을비' 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>경자년 새해 첫 제주도 입도 관광객에 '깜짝 환대' 이벤트 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:32 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 경자년 새해 첫 제주도 입도 관광객에 '깜짝 환대' 이벤트 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 경자년 새해 첫 제주도 입도 관광객에 '깜짝 환대' 이벤트 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2020.01.01 10:17 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 경자년(庚子年) 새해 첫날인 1일 아침, 제주국제공항 국내선과 국제선, 제주항여객터미널을 통해 입도한 2020년 첫 관광객들이 깜짝 환대를 받았다. 그 주인공은 항공편 국내선 입도1호인 지재익씨(대구 달성군), 국제선 입도1호 우초이춘씨(홍콩)와 제주항 첫 입항객 김무성씨(충청남도 논산시). 제주특별자치도와 제주도관광협회(회장 부동석)는 제주방문 감사의 마음을 담은 환영행사를 열고 이들에게 40만원 상당 제주여행상품권, 홍삼세트, 복주머니, 꽃다발 등을 전달했다. 또 새해 첫 날 제주를 방문한 관광객과 도민들을 대상으로는 환영현수막 게첩, 삼다수, 기념품(복주머니)을 한복도우미와 함께 나눠주며 환영 메세지를 전달했다. 국제선을 통한 입도1호 관광객. 제주항을 통한 입도1호 관광객. 제주공항 국내선 도착 게이트에서 '2020 경자년 새해 첫 행운을 잡아라' 이벤트 존을 운영하며 관광객들이 직접 참여해 각종 게임 등을 즐기며 제주감귤 등 제주 특산품을 제공했다. 관광협회 관계자는 "관광객 1500만명 시대 재진입과 함께 제주도의 관광환경 변화에 선제적 대응정책에 맞춰 도민 체감도 증진 및 관광객 만족도 제고에 초점을 두어 2020년도 제주관광 경쟁력 강화에 박차를 가할 것"이라고 말했다. 한편 새해 첫 날에는 3만96000여명의 관광객이 제주를 찾을 것으로 예상되고 있다. 이는 지난해 첫날보다 27% 많은 것이다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>신용카드 빅데이터를 통해 본 제주관광산업 동향..카드소비 제주도 읍 면 동으로 확산 - 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media × 블록체인&amp;정책 전체 블록체인&amp;정책 블록체인&amp;산업 전체 블록체인&amp;산업 블록체인 지식창고 블록체인&amp;마켓 전체 마켓인사이드 프로젝트 IT 게임 인베스트뉴스 코인코드 스팟 코인니스 스팟 E&amp;경제·산업 전체 증권·카드·투자 통신·IT·게임 자동차·유통·식품 건설·부동산·조선 제약·바이오·의료 은행·보험 E&amp;4차산업 전체 사물인터넷 자율주행 드론 5G·VR·메타버스 동향및전망 스마트팩토리 E&amp;AI인공지능 전체 동향및전망 자율주행&amp;빅데이터 AI 기술 AI 로봇 AI 쇼핑 AI 플랫폼 E&amp;핀테크·페이먼트 전체 동향및전망 스타트업·로보어드바이저 P2P·공유경제 O2O 인터넷은행·오픈뱅킹 크라우드펀딩 페이먼트 투데이단신 전체 투데이단신 정치&amp;정책 비즈&amp;컬쳐 오늘의 데이터 분석 UPDATED. 2022-10-04 10:30 (화) 로그인 회원가입 모바일웹 전체 블록체인&amp;정책 블록체인&amp;정책 블록체인&amp;산업 블록체인&amp;산업 블록체인 지식창고 블록체인&amp;마켓 마켓인사이드 프로젝트 IT 게임 인베스트뉴스 E&amp;경제·산업 증권·카드·투자 통신·IT·게임 자동차·유통·식품 건설·부동산·조선 제약·바이오·의료 은행·보험 E&amp;4차산업 사물인터넷 자율주행 드론 5G·VR·메타버스 동향및전망 스마트팩토리 E&amp;AI인공지능 동향및전망 자율주행&amp;빅데이터 AI 기술 AI 로봇 AI 쇼핑 AI 플랫폼 E&amp;핀테크·페이먼트 동향및전망 스타트업·로보어드바이저 P2P·공유경제 O2O 인터넷은행·오픈뱅킹 크라우드펀딩 페이먼트 기사검색 검색 이전 다음 신용카드 빅데이터를 통해 본 제주관광산업 동향..카드소비 제주도 읍 면 동으로 확산 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME E&amp;AI인공지능 자율주행&amp;빅데이터 신용카드 빅데이터를 통해 본 제주관광산업 동향..카드소비 제주도 읍 면 동으로 확산 김태연 기자/조해리 기자 승인 2020.01.02 14:56 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 신용카드 빅데이터를 통해 본 제주관광산업 동향..카드소비 제주도 읍 면 동으로 확산 2018년 제주관광산업 신용카드 매출은 3조 6,420억원으로 추계되었으며, 카드소비도 읍면 등 도 전역에 확산되고 있는 것으로 나타났다. 제주관광공사가 이번 분석에 사용한 신용카드 빅데이터는 국내 높은시장점유율을 차지하고 있는 S카드 매출데이터 자료로서, 2012년부터 2018년까지 제주지역 방문관광객의 신용카드 월간 거래정보이다. 이 자료는 연령, 거주지역(국적), 이용지역, 산업구분, 매출액, 이용회수 등의 정보를 포함하고 있다. 분석에 사용된 자료는 총 12,552,835개로서, 2018년 제주를 방문한 내·외국인 관광객의 카드소비액(매출액)을 국내 신용카드사와 협업해 신용카드 빅테이터를 분석한 결과다. 제주관광공사에 따르면 내국인 이용지역별 카드소비액은 제주시 도심에 집중돼 왔으나 점차 비중이 낮아지는 반면 동서부 등 도 전역으로 소비가 확산되고 있는 것으로 나타나 관광산업의 불균형이 점차 개선되고, 지역관광의 낙수효과가 읍면지역 주민으로 확대되면서 도민체감도가 점차 높아지고 있는 것으로 파악됐다. 제주시 도심 1조 240억원(50.5%), 서귀포시 도심 1,580억원(20.5%), 서귀포시 동부 1,790억원(8.8%), 제주시 서부 1,580억원(7.8%), 제주시 동부 1,480억원(7.3%), 서귀포시 서부 1,020억원(5.1%)의 순으로 나타났다.  제주시 도심은 2012년 56.8%에서 지속적으로 하락하여 2018년에 50.5%까지 낮아진 반면, 제주시 동부는 4.5%에 7.3%로, 제주시 서부는 5.1%에서 7.8%로 상승했다. 서귀포시 지역도 서부 비중이 2012년 3.3%에서 2018년 5.1%로 상승해 내국인 관광객 소비가 점차 도 전역으로 확산되고 있음을 보여주고 있다. 외국인 관광객 카드 소비는 중국이 6,320억원으로 전체의 79.2%를 차지하고 있다. 다음으로 유럽권 420억원(5.3%), 북미권 390억원(4.9%)이 소비를 했으며, 비중국 중화권(홍콩, 대만)은 330억(4.2%), 그리고 일본은 160억원(2.0%) 순으로 나타났다. 중국인 카드 소비액 비중은 2016년 9,840억원(91.1%)으로 정점을 찍은 후 2018년 6,320억원(79.2%)으로 비중이 감소했으며, 일본은 2012년 250억원(12.5%) 정점에서 2015년 90억원(1.2%)으로 최저점을 기록한 후 2018년에 160억원(2%)으로 조금씩 회복되고 있다. 홍콩 대만 등 비중국 중화권과 동남아시아권도 2012년 각각 80억원, 30억원에서 2018년 330억원, 170억원으로 4~5배 성장했다. 특히 유럽권과 북미권은 2012년 각각 50억원(2.3%), 60억원(2.7%)에서 2018년 420억원(5.3%), 390억원(4.9%)으로 2배 이상 지속적인 성장을 보이고 있다. 이는 제주특별자치도가 지속적으로 추진 해 온 제주관광산업의 해외 시장다변화가 구체적인 성과를 보이고 있다는 것으로 나타났다. GIS(지리정보시스템, Geographic Information System)을 이용해 지역별 카드매출을 분석한 결과, 카드 소비액 500억원 이상을 기록한 지역이 2012년 5개 읍면동에서 2018년에는 13개 읍면동으로 꾸준히 늘었다. 관광편의시설이 밀집돼 있는 제주시 연동(6,890억원)과 제주공항이 있는 용담2동(4,713억원), 중문관광단지가 있는 서귀포시 색달동(1,475억원) 등 3개 지역은 카드 소비액이 여전히 높기는 하나, 노형(1,087억원) 성산(912억원) 조천(890억원) 애월(877억원) 서귀동(876억원) 표선면(793억원) 안덕면(723억원) 중문동(651억원) 한림읍(606억원) 구좌읍(511억원)등으로 카드 소비가 도 전역으로 확산되고 있는 것으로 나타났다. 이는 제주관관산업의 규모가 갈수록 커지면서 연동 용담2동 색달동 등 전통적인 관광중심지 뿐 아니라 내국인 위주의 식도락 여행과 지역관광이 활성화 되면서 자연경관이 좋은 읍면지역 매출이 증가하고, 수요증가를 반영한 창업 증가로 매출액이 더욱 확대되는 승수효과가 발생하고 있는 것으로 분석됐다. 업종별 신용카드 매출액은 소매업이 1조 5,070억원(41.4%)으로 가장 많고 운수업 8,970억원(24.6%), 음식점업 7,600억원(20.9%), 숙박업 2,880억원(8.0%), 여가스포츠레저업 1,130억원(3.1%) 순으로 나타났다. 매출액 분석 시작 년도인 2012년 대비 소매업 매출액은 2.3배, 숙박업은 2.5배, 음식점업은 2.7배 성장했다. 운수업은 1.8배, 여가 스포츠레저업도 1.3배 성장했다. 제주관광공사 관계자(연구조사센터)는 이번 제주관광산업 신용카드 매출액 빅데이터 분석을 매년 실시하고 있으며, 내년에는 제주관광 현안에 대한 심층 분석을 다루는「제주관광 이슈포커스」와 빅데이터 분석보고서를 주기적으로 발간할 계획이라고 전했다. FINTECHPOST 저작권자 © 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media 무단전재 및 재배포 금지 김태연 기자/조해리 기자 다른기사 보기 [관련기사] 국내 렌터카보험 전문연구소 공식 출범..자신만만 렌터카보험연구소, "똑똑한 렌터카보험 시대 선도" 맵퍼스, 교통약자를 위한 최적의 경로 데이터를 구축하다 LG CNS, 실거래 데이터 검증으로 장애 없는 IT 시스템 구축 가이온, 해외 수출입데이터로 데이터 분석 서비스 확장 메디치소프트, ‘인공지능 빅데이터 분석 추천 방법 최우수 사례상 수상’ SK텔레콤, 통계청과 모바일 빅데이터 기반 유동인구 지도 공개 한국데이터산업진흥원, 마이데이터 총망라한 '마이데이터 컨퍼런스' 성료..마이데이터 개념부터 개인데이터 플랫폼, 정책 및 혁신 사례 등 총망라 맵퍼스, 2020년 대졸 신입사원 공개 채용..자율주행 기술 강소 기업 만들 인재 발굴 출퇴근 관리 테크 기업 푸른밤, 업계 최초로 API 전면 공개 많이 본 뉴스 1[시황] 이더리움피오더블유(ETHW) 가격 상승세..이더리움 머지로 에어드랍 코인 2팀스토리 연토큰, 글로벌 거래소 비트마트(Bit Mart) 상장 3트론 저스틴 선, 부산 UDC에서 웹 3.0과 미래 블록체인 생태계 발표 4일부 셀시우스 주주, 선순위채권자 자격 요구 5후프클럽(HoopClub), 프로농구단 팬 커뮤니티 멤버십 NFT 완판 6두나무 ‘UDC 2022’ 폐막…이틀간 3,000명 찾았다 7크리버스×이승훈 작가, 콜라보 NFT 전시회 이태원 카페서 개최 8체인 링크(LINK), 스테이킹이 도입되는 확대 계획 ‘Economics 2.0’이 발표 9영화 속 소품, 좋아하는 작가의 한정판 작품을 소장할 수 있는 기회 10ENS 도메인, 250만개 돌파 최신기사 테더사 “USDT 준비자산 58% 이상이 미 단기 국채” 미 SEC, 킴 카다시안을 암호화폐 불법 광고로 기소 크립토 '공포·탐욕 지수' 20... 투심 위축 BNB체인, 150만 달러 규모 빌더 지원금 제공 FTX 거래소, 독자적인 DXY 무기한 선물 거래 시작 제네시스 글로벌 트레이딩, 그레이스케일 투자상품 운용 중단 바이낸스 : 첫 번째 LUNC 수수료 소각이 완료 이더리움, 보유자 수익성이 50% 이상으로 회복 신문사소개 기사제보 광고문의 정정보도 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 영등포구 선유로47길 19 기사정정요청: press88only@daum.net 애드버토리얼 아티클 : 광고문의 클릭 및 작성 대표전화 : 010-3219-7524 (문자 수신용) 편집부장 조해리 제호 : 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media 등록번호 : 서울 아 04281 등록일 : 2016-12-15 발행일 : 2016-12-15 발행인·편집인 : 조흥훈(Harry_cho) 청소년보호책임자 : 강민 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2016-2022 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media. All rights reserved. mail to ajuaju123@naver.com(business proposal) / 보도자료는 press88only@daum.net 위로</t>
-  </si>
-  <si>
-    <t>제주도 빅데이터 기반 플랫폼 구축 등으로 관광 활성화 도모 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:37 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도 빅데이터 기반 플랫폼 구축 등으로 관광 활성화 도모 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도 빅데이터 기반 플랫폼 구축 등으로 관광 활성화 도모 부남철 기자 승인 2020.01.07 16:10 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도가 지난해 회복세를 보이기 시작한 제주관광의 질적 성장 등 체질 개선을 위한 5대 핵심과제를 선정하고 지역경제 활성화 도모에 나섰다. 제주도는 이를 위해 올해 관광분야 정책목표를 ‘도민과 관광객 모두를 위한 질적관광 실현’으로 정하고 ▲빅데이터 기반 관광서비스 플랫폼 구축 ▲관광객 낙수효과를 높이는 지역관광 활성화 ▲관광산업 체질개선을 통한 질적성장 기반 조성 ▲경쟁력 있는 제주 MICE산업 생태계 조성 ▲글로벌 관광트렌드에 대응하는 국내시장 활성화 및 해외시장 다변화 등 5대 핵심과제를 추진키로 하고 513억원의 예산을 투입할 계획이라고 7일 밝혔다. 제주도는 우선 빅데이터 기반의 관광서비스 플랫폼 개발에 주력할 계획이다. 플랫폼 구축을 통해 빅데이터 분석결과를 도민과 관광사업체와 공유해 창업, 업종전환, 마케팅 등에 활용할 수 있도록 하고 개별관광객도 기후, 계절, 연령 등의 빅데이터를 기초로 관광지 추천 등을 받을 수 있도록 할 계획이다. 제주도는 이와 함께 지역관광 활성화를 위한 공공기관과 민간 네트워크를 구축하고 스토리텔러 양성 등을 통하여 20개 마을을 목표로 지역관광 프로그램을 운영함으로써 관광 활성화로 인한 낙수효과가 지역전반에 확대될 수 있도록 할 방침이다. 제주도는 또 올해로 3년차를 맞는 관광스타트업 육성을 통해 관광산업 체질개선과 트렌드에 맞는 생태계 조성을 위한 관광사업 모델을 발굴하고 창업지원과 일자리창출을 유도함으로써 관광산업의 체질개선을 통한 지속적인 질적성장 기반을 다져나갈 계획이다. 제주도는 MICE산업 생태계 조성과 해외시장 다변화를 위한 온라인 마케팅에도 주력할 방침이다. 특히 주력시장인 중국지역 고부가가치 특수목적관광객(SIT) 유치를 위한 마케팅과 함께 일본시장 활성화를 위해 직항운항 항공사 공동 마케팅 등을 전략적으로 추진한다. 제주도는 올해 정부 차원에서 동남아 3개국 환승 무사증 제도가 시행됨에 따라 베트남, 필리핀, 인도네시아 등 시장다변화 마케팅에 적극 활용하는 한편, 싱가포르 등 동남아지역 직항노선 확대 및 인도 등 신흥시장 개척도 지속 추진해 나갈 계획이다. 강영돈 제주도 관광국장은 “관광업계 및 유관기관과 긴밀하게 협업해 관광산업이 지역경제를 견인하고 도민체감도를 높일 수 있도록 올 한 해도 다각적인 정책노력을 기울여 나가겠다”라며 “정책효과가 가시적인 성과를 낼 수 있도록 재정 신속집행에도 우선순위를 두고 추진하겠다”라고 밝혔다. 부남철 기자  bunch@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 부남철 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 1월 새해 해돋이 감상하며 맛보기 좋은 식당 - 농업정보신문 × 전체기사 기획/특집 뉴스 전체 농정 행사 카드뉴스 포토뉴스 지식정보 전체 도시농업/귀농 축산 지역 비즈 오피니언 전체 현장 인터뷰 기고 기자수첩 인사/동정 동영상 일반 2022-09-30 19:32 (금) 기사검색 검색 전체 기획/특집 뉴스 농정 카드뉴스 포토뉴스 지식정보 축산 지역 비즈 오피니언 처음으로 로그인 회원가입 전체기사 이전 다음 제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 1월 새해 해돋이 감상하며 맛보기 좋은 식당 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 일반 제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 1월 새해 해돋이 감상하며 맛보기 좋은 식당 김영수 기자 승인 2020.01.04 11:00 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 한 해를 마무리하고 또 한해가 시작되면서 새로운 마음을 갖고자 여행을 준비하는 사람들이 늘고 있다. 아이들의 겨울방학을 맞이해 가족여행을 준비하는 사람들부터, 데이트하는 커플들, 친구들과 함께하는 우정여행도 계획해본다. 제주도는 메밀꽃축제 서귀포 제주감귤박람회 산방산이 보이는 마노르블랑 핑크뮬리축제, 모슬포 마라도 최남단 방어축제 아트제주 2019등 서귀포 한림 애월 월정리 함덕 성산 중문을 비롯한 유명한 명소들이 관광객들에게 12월 제주도 가볼만한 곳으로 손꼽히고 있다. 이중 중문관광단지 인근에는 관광하며 허기진 배를 채울 수 있는 음식점도 즐비한데 그중 제주 중문 맛집 ‘색달식당 중문본점’이 영양소가 풍부함은 물론 최근 제철을 맞아 살찌고 맛도 좋아진 갈치를 활용한 요리를 선보이며 눈길을 끌고 있다. 또한 12월에는 근처 카멜리아힐 동백꽃 측제를 즐기고 가기에 완성 맞춤이다. 중문관광단지에서 차로 1분 거리에 위치해 있는데 주차장도 넓게 구비되어 있어 부담없이 세울 수 있다. 생물갈치를 사용하는 식당으로 방문객의 만족도가 높은 편이다. 공항에서 45분 거리, 서귀포 시내에서 20분 거리고 신라호텔, 롯데호텔을 비롯한 다양한 편의시설과 더불어 산방산, 중문색달해변 해수욕장, 카멜리아힐 등 주요 관광지를 한 눈에 돌아볼 수 있다. 서귀포 맛집 색달식당은 중문본점으로 다양한 메뉴를 제공한다. 단품도 있지만 세트메뉴가 인상적이다. 통갈치조림을 비롯해 갈치구이, 돌솥밥, 성게미역국 등 가성비 좋은 세트를 통해서 포만감과 만족감을 한번에 잡을 수 있는 장점이 존재한다. 중문관광단지 맛집 색달식당 중문본점에서는 오랫동안 운영해온 노하우가 베어 있는 통갈치조림을 자랑으로 내세우고 있다. 냉동이 아닌 싱싱한 생물갈치를 사용하는데 식감은 물론 맛에서도 비교우위에 있어 제주 중문맛집의 면모를 보이고 있다. 또한 조림은 직원이 손질을 해줘서 편하게 먹을 수 있다. 중문맛집 색달식당 중문본점의 영업시간은 오전 9시부터 오후 9시 30분까지며 오후 8시 30분까지 주문하면된다. 픽업서비스도 제공하고 있으니 자세한 내용은 홈페이지를 참고하면 된다. 저작권자 © 농업정보신문 무단전재 및 재배포 금지 김영수 기자 다른기사 보기 인기기사 1(주)엘원, '캄보디아 5대 그룹' 갤럭시 나바트라와 MOU 체결 2산림청-삼성전자, 산림을 통해 기후위기 공동 대응 나서 3나주 샤인머스켓 베트남 첫 수출 4미국 수출 배 검역조건 개선 협상 타결 5자연에너지 활용 난방시스템, 난방비 34% 절감 6농우바이오, ‘로망스골드’ 국산 파프리카 종자 농가보급 확대 7한우유통바이어대회 개최‘한우를 더 맛있고 멋지게’ 8한국농촌경제연구원, 지방소멸 위기대응 전략 세미나 개최 9아프리카돼지열병 방역, 확산 방지에 총력 10한돈협, ASF 긴급비상근무 체계 돌입 최신기사 2022 대한민국 과일산업대전 전시회 개최! 2022 대한민국 과일산업대전 전시회 개최! '그린시스' 달콤함은 기본, 톡톡 튀는 색이 매력 ‘초록색 배’ '그린시스' 달콤함은 기본, 톡톡 튀는 색이 매력 ‘초록색 배’ 2022 대한민국 정원식물 전시·품평회 개막 2022 대한민국 정원식물 전시·품평회 개막 한국농수산식품유통공사, 청렴 생태계 구축 앞장선다 한국농수산식품유통공사, 청렴 생태계 구축 앞장선다 양파 육묘기, 건전한 묘 생산을 위한 중요한 단계 양파 육묘기, 건전한 묘 생산을 위한 중요한 단계 나주 샤인머스켓 베트남 첫 수출 나주 샤인머스켓 베트남 첫 수출 미국 수출 배 검역조건 개선 협상 타결 미국 수출 배 검역조건 개선 협상 타결 신문사소개 신문윤리강령 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 금천구 디지털로9길 33 (IT미래TOWER) 1305호 대표전화 : 02-3474-7063~6 팩스 : 02-3471-7067 청소년보호책임자 : 이주상 법인명 : 농업정보신문 제호 : 농업정보신문 등록번호 : 서울 다 01010호 등록일 : 1995년 7월 10일 발행일 : 1995년 7월 10일 발행인 : 이주상 편집인 : 이혁희 농업정보신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 농업정보신문. All rights reserved. mail to wonye@nongup.net 위로</t>
-  </si>
-  <si>
-    <t>김영진 전 제주도관광협회장, 4·15 총선 제주시갑 예비후보 등록 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:37 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 김영진 전 제주도관광협회장, 4·15 총선 제주시갑 예비후보 등록 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 후보자 김영진 전 제주도관광협회장, 4·15 총선 제주시갑 예비후보 등록 현대성 기자 승인 2020.01.13 14:49 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 김영진 전 제주특별자치도관광협회장(52·무소속)이 13일 제21대 국회의원선거 제주시갑 선거구 예비후보로 등록하고 본격적인 선거전에 나섰다. 김영진 예비후보는 제주특별자치도 관광협회 제31대~34대 회장과 제주지역 경제단체 협의회 부회장을 역임했다. 김 예비후보는 “제주지역 경제 성장률이 IMF 이후 처음으로 마이너스를 기록하는 등 경제가 매우 어려운 상황이고, 올해에도 경제 전망이 밝지 않다”라며 “특정 산업에 편중된 경제 산업 생태계를 바꾸겠다”라고 강조했다. 이어 “현재 국회에는 관광 전문가가 한 명도 없다”라며 “당선된다면 관광 전문가로서 관광 혁신에 힘을 보탬은 물론, 4·3 특별법 국회 통과에도 역할을 다할 것”이라고 피력했다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>김영진 전 제주도관광협회장 출판 기념회 열고 총선 행보 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:37 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 김영진 전 제주도관광협회장 출판 기념회 열고 총선 행보 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 후보자 김영진 전 제주도관광협회장 출판 기념회 열고 총선 행보 현대성 기자 승인 2020.01.09 14:15 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제21대 국회의원선거 제주시갑 선거구 출마를 준비하고 있는 김영진 전 제주특별자치도관광협회장이 출판기념회를 열고 총선 행보에 박차를 가한다. 김 전 회장은 오는 11일 오후 2시 제주한라대학교 컨벤션홀에서 ‘제주의 미래, 제주인의 꿈과 희망을 향한 새로운 여행’ 북콘서트를 개최한다고 지난 8일 밝혔다. 이번 북콘서트는 김 전 회장이 책의 주요 내용을 소개하고, 정치평론가이자 대학교수인 고성국 박사와 대담을 나누는 형식으로 진행된다. 책에는 김영진 전 회장의 어린 시절 얘기와 성공담, 김 전 회장이 생각하는 제주의 현안과 과제 및 해법이 담겼다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+    <t>[우한폐렴] 제주도, 중국 관광객 노비자 입국 일시 제한 건의 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; [우한폐렴] 제주도, 중국 관광객 노비자 입국 일시 제한 건의 파이낸셜뉴스입력 2020.01.30 12:26수정 2020.01.30 12:31 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 ‘신종 코로나바이러스 감염증’ 원천 봉쇄 차원지난해 무사증 통해 입국한 중국인 98% 차지 제주특별자치도는 30일 오전 브리핑을 통해 신종 코로나바이러스 감염증 원천 봉쇄를 위해 무사증 일시 중지를 법무부와 협의중이라고 밝혔다. [제주=좌승훈 기자] 제주특별자치도가 종 코로나바이러스 감염증(우한폐렴) 유입 차단을 위해 제주지역에 한해 시행되고 있는 중국인 대상 무사증(무비자) 입국 제도를 일시 제한하는 방안을 정부에 건의했다. 도는 30일 오전 신종 코로나바이러스 감염증 부서 합동 브리핑을 통해 “지역 관광산업을 고려해 중국인을 대상으로 일정 기간 무사증 제도 적용을 중지하는 방안을 법무부와 협의하고 있다"고 밝혔다. 2006년 '제주특별자치도 설치 및 국제자유도시 조성을 위한 특별법' 제197조에 따라 시행되고 있는 무사증 제도는 비자(Visa) 없이 외국인이 제주도로 입국해 30일 동안 합법적으로 체류할 수 있게 하는 제도다. 특히 무사증 제도 실시 이후, 제주지역을 찾는 외국인 관광객 중 대다수는 중국인이 차지하고 있다. 지난해 무사증 입국자 중 중국인은 약 79만7300명으로, 전체 외국인 관광객 중 98%를 차지했다. 올해 중국 춘절 연휴 기간(1월 24~27일)에도 중국인 8900여명이 비자 없이 제주를 방문했다. 앞서 ‘제주시 을’ 선거구에 출마하는 자유한국당 부상일 예비후보(49)는 지난 28일 국회 정론관에서 기자회견을 갖고 "제주도 입국자 중 단 1명의 우한폐렴 감염환자가 발생해도 외딴 섬인 제주도는 그 자체로 위기와 공포의 섬이 될 수 있다"며 “현 상황의 긴급성과 위험성을 고려해 법무부장관은 제주도의 무사증 입국을 한시적으로 제한할 수 있는 실효적 조치를 취해 달라"고 촉구했다. 부 예비후보와 같은 선거구에 나서는 김효 예비후보(52·자유한국당)는 지난 27일 보도자료를 통해 "중국 우한 폐렴 사태는 현대의 흑사병 사태로 번져나갈 수 있다"며 "원희룡 제주도지사는 더 늦기 전에 행정명령으로 중국에서 들어오는 모든 항공기 운항을 당장 중단시켜야 한다"라고 주장했다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>신종 코로나바이러스 확산에 제주도 초긴장…관광시장 위축 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 신종 코로나바이러스 확산에 제주도 초긴장…관광시장 위축 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 신종 코로나바이러스 확산에 제주도 초긴장…관광시장 위축 송고시간2020-01-28 14:08 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 고성식 기자 기자 페이지 유언비어 유포에 뒷북 정보…위기관리 시험대전문가 "진실 신속 제공 대책본부 역할"…도, 비상대책본부 격상·방역 강화 (제주=연합뉴스) 고성식 백나용 기자 = 신종 코로나바이러스 감염증인 '우한 폐렴' 공포가 확산되면서 제주도의 위기관리 대응이 시험대에 올랐다. 제주에서는 현재까지 우한 폐렴 확진 환자가 발생하지 않았다. 하지만 중국 춘제(중국 설·1월 24∼30일)에 많은 중국인이 제주를 방문했고 관광을 위해 제주로 많은 중국인이 오가는 터라 우한 페렴에 대한 불안감이 커지고 있다. 광고 전문가들은 도민 불안을 해소하고 확산하는 유언비어를 막기 위해 철저한 방역 대책과 함께 정확한 정보공개 등의 노력이 필요하다고 지적하고 있다. 제주공항 승객 발열 검사 [연합뉴스 자료 사진] ◇ 유언비어 유포에 불안…정보제공 구멍 27일 도내 온라인 커뮤니티에서는 "우한 폐렴 증상자가 발생해 병원을 폐쇄했으니, 심각성을 알고 행동해달라"는 등의 구체적인 내용의 게시글이 올라와 퍼졌다. 각종 인터넷 커뮤니티에서는 '◇◇병원에서 우한 폐렴 의심 환자를 검사하고 있어 출입을 차단했다'는 글을 쉽게 찾아볼 수 있었다. 기자가 제주도를 통해 취재해 본 결과 우한 폐렴 증상자 발생에 대한 이들 게시글은 전혀 사실이 아니었다. 유튜브로 보기 https://youtu.be/CY8IdHzva2k 또 사회관계망서비스(SNS)에는 " 중국 우한에서 6천500명이 무비자 지역인 제주도에 입국했다"는 게시글이 나돌고 있다. 우한에서 중국인이 대거 제주에 입국했다는 말도 사실이 아닌 유언비어다. 제주와 중국 우한간 항공편은 없으며 우한에서의 최근 입국자도 없다. 이러한 유언비어 발생은 1차 유포자의 책임도 있겠으나 제주도가 즉각적으로 정보를 제공하지 않는 바람에 급속히 퍼졌다는 질타의 목소리도 있다. 실제 박근혜 정부 당시 중동호흡기증후군(메르스) 발생에 대한 정보 제공이 제한돼 유언비어가 퍼졌다는 반성에서 현 정부에서는 즉각적으로 정보를 제공하는 것으로 개선했다. 또 부산시 등에서는 이번 우한 폐렴과 관련한 의심 사례가 있으면 신속하고 자세히 정보를 공개하고 있다. 고영철 제주대 언론홍보학과 명예교수는 "공중(사회의 대부분의 사람)은 불안감이 조성되면 정보를 신속히 얻기를 원한다"면서 "그래서 온라인 게시글이 구체적인 사례까지 언급하자 사실이 아닌데도 급속히 퍼진 것"이라고 지적했다. 고 교수는 "유언비어 확산을 막고 사회질서를 유지하는 것도 도 대책본부의 위기관리 능력"이라면서 "의심 사실만 있어도 그것을 구체적으로 파악해 먼저 정확한 진실을 제공하면 유언비어 확산을 막을 수 있다"고 제안했다. 그는 도 대책본부가 정보 공개에 대한 노력과 경험이 부족하다며 개선을 촉구했다. 원희룡 제주지사는 이날 주간 정책회의에서 제주서 확진 환자가 발생했다는 등의 유언비어가 퍼져 나가는 것에 대해 우려를 표명했다. 그러면서 그는 유언비어 발생시 정확한 사실관계 및 정부 동향 등을 관계 부서가 면밀히 파악할 것을 지시했다. 도 관계자는 "설 연휴 기간 일부 인터넷 커뮤니티를 중심으로 확인되지 않은 사실들이 퍼져나가면서 도민사회에 불안감이 생겼다"며 "불필요한 혼란이 발생하지 않도록 확인되지 않은 유언비어가 있다면 도 방역 대책 상황실(☎064-710-2910)로 즉시 알려달라"고 당부했다. 제주도 비상대책회의 [제주도 제공. 재판매 및 DB 금지] ◇ 관광시장 위축 우한 폐렴에 공포감이 확산하자 제주 관광시장도 위축되고 있다. 제주도관광협회는 지난 24일부터 30일까지 중국 춘제 기간 3만여명의 중화권 관광객이 제주를 방문할 것으로 예상했다. 그러나 실제로는 24일부터 27일까지 제주를 방문한 중화권 관광객은 1만명 수준에 그치고 있다. 날짜별로 보면 24일 3천277명, 25일 3천326명, 26일 2천58명, 27일 2천3명 정도다. 제주와 중국 직항 19개 노선의 평균 탑승률도 56%로, 우한 폐렴 공포가 없던 평시 88% 수준에 비해 크게 떨어졌다. 또 다음 달 13일부터 27일까지 중국 쯔보시 축구단이 제주에서 전지훈련을 하기로 했으나 우한 폐렴 공포감에 전지훈련을 취소했다. ◇ "우한 폐렴 유입 막자" 방역 강화 제주를 방문하는 중국인 관광객들은 대부분 상하이나 베이징, 항저우 등에서 온 항공편 이용객들이다. 신종 코로나바이러스가 창궐한 후베이성 우한과는 거리가 먼 지역이다. 그러나 중국 내 이동으로 인한 확산 가능성이 높아 제주국제공항과 제주항에서는 강력한 방역 대책이 시행되고 있다. 28일 오전에도 상하이 푸둥 공항에서 온 항공편이 제주공항에 도착해 중화권 관광객 등이 속속 입국했다. 입국자들이 입국장으로 들어오자 국립제주검역소 등이 입국자 전원을 대상으로 발열 감시를 진행했다. 검역소는 열 감지 카메라를 활용해 발열 감시를 하고 체온이 37.5도 이상인 사람을 선별하고 있다. 검역소는 입국자 중 미열만 있어도 귀 고막 체온계를 이용해 보다 정확한 체온을 측정한다. 추가로 체온 측정을 하는 입국자에 대해 방문 국가, 현지 방문지역, 환자 및 동물 접촉 여부 등을 면밀히 조사하고 있다. 또 입국 심사에서 건강검진 안내서를 입국자 모두 작성하도록 하고 별도로 검역관이 일일이 질문을 하며 건강 상태에 대해 두세 번 확인하고 있다. 또 검역 시간 외에는 공항 내 이용객을 대상으로 국외 감염병 정보와 예방수칙을 안내하고 있으며 전염병 확산 주의를 당부하는 안내방송을 수시로 하고 있다. 검역소는 춘제 기간 제주를 방문하는 중화권 관광객이 몰리자 최근 군, 경찰, 보건복지부에서 16명의 인력을 보강 받아 3교대 근무로 검역절차를 강화하고 있다. 원희룡 제주지사(비상 대책본부장)는 이날 제주공항과 제주항을 방문해 검역 입국장을 찾아 발열 감시 상황 등을 둘러보고 관계자 등을 격려했다. 또 제주 도착 여행객들에게 마스크 등을 배부했다. 이제 마스크는 필수 (영종도=연합뉴스) 박동주 기자 = 신종 코로나바이러스 감염증인 '우한 폐렴' 공포가 확산하는 가운데 28일 오전 인천국제공항 출국장에서 마스크를 쓴 외국인, 시민 등이 이동하고 있다. 2020.1.28 pdj6635@yna.co.kr ◇ 도 비상대책본부 격상 정부가 감염병 위기 경보를 경계단계로 격상하자 제주도는 27일 지사를 본부장으로 한 최상의 비상대책본부를 꾸려 방역 등 예방 활동에 돌입했다. 제주도는 비상대책본부(☎064-710-2910)를 구성해 방역을 진행하고 위기 대응 태세를 갖췄다. 비상대책본부는 지사가 본부장을, 부지사가 대책본부 차장, 도민안전실장이 총괄조정관, 보건복지여성국장이 통제관을 맡는다. 또 도청 과별로 의료 및 방역관리반, 구급반, 사회질서유지반, 자원봉사관리반, 재난상황 관리반 등을 꾸렸다. 이 중 의료 및 방역관리반은 도청 보건건강위생과장이 방역관으로 있으며 역학조사관, 감염병관리지원, 제주대학교병원 감염내과 전문의 등으로 구성했다. 국외 여행 후 기침 등 호흡기 질병 증상이 있고 발열이 있는 환자가 질병관리본부 콜센터(1339)로 전화하게 되면 대책본부에서 즉각적으로 조사와 대응을 하게 된다. 다만 추가 조사가 필요한 환자가 개인 병원으로 갔을 경우 해당 병원장 등이 보건소나 도청 대책본부 등으로 연락해 환자 사례를 알려줘야만 대응을 할 수 있다. 도청 대책본부 등은 추가 조사가 필요한 환자가 나오면 제주대학교병원 격리병동으로 환자를 옮긴 후 질병관리본부와 수시로 정보를 교환하며 환자에 대한 추가 조사를 진행한다. 우한 폐렴 조사에서 음성으로 나오면 격리조치 등이 해제되지만 확진으로 나온 환자는 계속 격리치료를 받게 되며 도 대책본부 등은 환자의 이동 동선을 살펴 환자와 접촉했던 전원에게 조사를 진행한다. koss@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2020/01/28 14:08 송고 #유언비어 #우한 #폐렴 #질병관리본부 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:46 [영상] 러, 우크라 전역에 대규모 보복 공격…70여명 사상·인프라 파괴 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 서울서 50대 권총에 맞아…"극단적 선택 추정" 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 출동 경찰관 가슴 밀치고 상의 흔든 30대, 테이저건 맞고 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 "유해를 그토록 찾길 원했는데"…6·25참전 故박태인 경사 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1%↓마감 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 두산과 작별한 김태형 감독, 5개 구단 제의 가능…태풍 되나(종합) 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 뉴스 학업성취도 자율평가 대상 늘린다…2024년까지 초3∼고2로 확대 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 러 "서방의 우크라 개입 확대에 적절히 맞대응" 경고 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 광고 댓글 많은 뉴스 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 35 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 28 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 15 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 15 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도, 외국인 관광객에 마스크 제공 등 '관광관련 대책' 마련 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 외국인 관광객에 마스크 제공 등 '관광관련 대책' 마련 등록 2020.01.28 14:33:39 작게 크게 도 관광유관기관 대책회의 후 브리핑 "가짜뉴스 대책도 강구" 중국 관광객 크게 감소 중…24∼27일 예상인원의 38.2% ↓ [제주=뉴시스]우장호 기자 = '우한 폐렴'으로 불리는 중국발 신종 코로나바이러스가 무서운 속도로 퍼지고 있는 가운데 28일 제주국제공항에서 이용객들에게 마스크를 나눠 주고 있다. 2020.01.28. woo1223@newsis.com[제주=뉴시스] 강정만 기자 = 제주특별자치도는 신종 코로나바이러스 감염증(우한 폐렴)의 유입을 차단하기 위해 공항 입도 단계에서부터 외국인 입도관광객에게 마스크 제공과 관광지 등에 손 세정제를 비치하는 등의 관광관련 대책을 강력히 추진하기로 했다고 28일 밝혔다. 도는 이날 도 관광공사, 도 관광협회, 관광통역안내사협회, 여행업계 등의 관계자가 참석한 관광유관기관 대책회의를 열고 이 같이 결정했다. 이날 관광유관기관과 단체는 관광수요 감소에 따른 업계의 어려움에도 불구하고 '도민안전과 청정브랜드 유지'가 가장 중요하다는 데 의견을 모으고 외국인이 공항이나 항만으로 들어오는 단계에서 부터 마스크를 제공하고 관광지 등에 손세정제를 비치하기로 했다. 또 의심증상 발견시 신고 연락체제 유지방안을 강구하고, 특히 제주가 신종코로나 바이러스 무방비 지역인 것처럼 흘리는 가짜뉴스 모니터링과 대책을 강구하기로 했다. 도는 이와 함께 도 관광국장을 종합상황실장으로 하는 '신종 코로나바이러스 감염증 관광종합상황실'을 설치해 운영할 계획이다. [제주=뉴시스] 강영돈(가운데) 제주도관광국장과 현창행(왼쪽) 제주관광공사 부사장 등이 28일 오후 제주도청 기자실에서 '신종 코로나바이러스 감염증 관련 관광 유관기관 대책회의' 결과를 발표하고 있다. kjm@newsis.com한편 중국 우한에서 발생한 신종 코로나바이러스 감염증의 확산으로 제주도의 중국인 관광객이 크게 줄어든 것으로 나타났다. 도는 지난 24일부터 27일까지 1만4394명이 입도할 것으로 예상됐으나 8893명만이 입도해 계획인원의 38.2%가 줄어들었다. 강영돈 도 관광국장은 이날 브리핑을 통해 "도와 관광유관기관단체는 제주도를 신종 코로나바이러스 유입차단을 위한 능동적으로 타개해 나가겠다"고 밝혔다. ◎공감언론 뉴시스 kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 43분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 김주형은 될성부른 나무…한국 무대서도 최연소 기록 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 파주시, 12월까지 긴급복지지원제도 확대 지원 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 광주 물 관리-지하시설물 중복 관리 "대책 시급"(종합) 정무위 국감… 野, 김건희 도이치 의혹에 "이복현 입장 내놔야" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 이복현 금감원장, 우리은행 횡령에 "있을 수 없는 일" 씨아이에스, 195억 규모 2차전지 전극공정 장비 공급계약 체결 롯데케미칼, 일진머티리얼즈 주식매매계약 체결 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, GS25 전용 빵빠레 샌드 카스타드 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 BAT "궐련형 전자담배 전환시 연초 대비 '위해 저감' 효과" 주장 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 울산 청년 여성 10명 중 2.4명 매년 떠나…학업·취업 기회 부족 '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 연세대 고등과학원, 노벨상 수상 석학 초청 행사 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 물품 대금 5억 빼돌린 안성 지역농협 직원 자수...검찰 송치 [안성소식] 시, 하반기 농민기본소득 지급 등 수원시, 빅데이터 활용 ‘맞춤형 체납 징수’ 나선다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 대구폴리텍대, 대구옥외광고·울산옥외광고 대상전 잇따라 수상 청도군 "가을밤 코미디와 함께 반시 맛 즐겨보세요" 김대중컨벤션센터서 광주식품대전 개막…13~16일 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>‘우한 폐렴’에 제주도 불안감 커져…관광시장 타격 우려도 한국일보 ‘우한 폐렴’에 제주도 불안감 커져…관광시장 타격 우려도 이전기사 검색 읽기모드 흰색 배경 회색 배경 검은색 배경 가나다라 가나다라 가나다라 가나다라 가나다라 인쇄 공유 카카오 페이스북 트위터 이메일 URL 기사 URL이 복사되었습니다. 기사저장 기사가 저장 되었습니다. 기사저장이 취소 되었습니다. 닫기 ‘우한 폐렴’에 제주도 불안감 커져…관광시장 타격 우려도 입력 2020.01.28 15:05 좋아요 0 0 0 댓글달기 0 우한 폐렴'으로 불리는 중국발 신종 코로나바이러스가 무서운 속도로 퍼지고 있는 가운데 28일 제주국제공항에서 이용객들에게 마스크를 나눠 주고 있다. 뉴시스.중국 우한에서 발생한 신종 코로나바이러스 감염증(우한 폐렴)이 전 세계로 확산되면서 중국인 관광객들이 많이 찾는 제주지역에서도 불안감이 커지고 있다. 이에 제주도는 우한폐렴 대응체계를 최상위인 ‘심각’ 단계로 정하고 감염자 유입 차단에 총력을 기울이고 있다. 도는 제주지역인 경우 다른 지역과 달리 외국인이 무비자로 입국할 수 있다는 점을 고려해 우한 폐렴 대응을 정부 대응(경계)보다 한 단계 위인 '심각' 단계로 정했다고 28일 밝혔다. 현재까지 제주에서 우한 폐렴 확진 환자나 의심증상으로 치료받는 환자는 없는 것으로 확인됐다. 다만 중국 우한을 방문했던 50대 중국인 여성 등 2명이 두통과 발열 증세 등을 보여 검사를 받았고, 이들 모두 음성 판정을 받았다. 도는 우선 우한 폐렴 감염자 유입을 차단하기 위해 제주검역소와 함께 공ㆍ항만 검역을 강화하고 있다.도는 입국자 중 우한 폐렴 의심 증상이 발견되면 곧바로 제주공항 검역 진료실로 격리 조치하고, 의사 면담 후 병원으로 이송할 계획이다. 또한 의심환자 주변 밀접 접촉자에 대해서도 확진 판정이 있을 때까지 공항 내 진료실에서 대기 조치된다. 현재 제주공항에는 중국으로부터 들어오는 모든 항공기 탑승자를 대상으로 건강상태질문서를 작성하고, 발열 감시와 1대1 체온 감시를 시행 중이다. 도는 또 제주자치경찰단의 협조를 받아 여권 대조를 통해 중국 우한 지역을 경유했는지 등의 모니터링도 강화하고 있다. 도는 제주대병원, 한라의료원, 한마음병원, 한국병원, 중앙병원, 서귀포열린병원, 서귀포의료원 등 도내 7개 의료기관을 선별 진료소로 지정해 운영 중이다. '우한 폐렴'으로 불리는 중국발 신종 코로나바이러스가 무서운 속도로 퍼지고 있는 가운데 28일 제주국제공항에 마스크를 쓴 이용객들이 이동하고 있다. 뉴시스.우한 폐렴의 확산으로 제주관광업계도 비상에 걸렸다. 사스 사태 이후 침체에 빠졌던 외국인 관광시장이 지난해 회복세를 보였지만, 이번 우한 폐렴 사태로 또다시 침체에 빠질 수 있다는 우려 때문이다. 실제 지난 24일 우한 폐렴 확산에 따른 중국 정부의 해외관광객 중단 조치 등으로 인해 제주를 찾는 중국인 관광객도 크게 줄고 있는 것으로 나타났다. 도에 따르면 중국 최대 명절인 춘절 연휴(24~30일) 동안 3만명에 가까운 중국인 관광객이 제주에 방문할 것으로 예측됐지만, 절반 가까이 여행계획을 취소한 것으로 파악되고 있다.지난 24일부터 27일까지 이어진 춘절 연휴 기간 동안 제주를 방문한 중국인 관광객은 총 8,893명으로, 예상 관광객(1만4,394명)의 62%에 머물렀다. 또한 24~26일 3일간 제주-중국 직항 19개 노선의 평균 탑승률은 56.0%로, 춘절 연휴 전주인 17~19일 88.5%에 비해 32.5%포인트 급감했다.중국인 관광객들의 여행취소 사태로 인해 도내 특급호텔을 중심으로 중국인 예약취소 사례도 350여건, 3000여명에 이른 것으로 파악됐다. 2월 13~27일로 예정됐던 중국 쯔보시 축구단의 제주 전지훈련도 취소되는 등 우한 폐렴 사태가 장기화될 경우 제주관광에 타격이 불가피할 것으로 전망되고 있다. 도 관계자는 “제주를 찾는 외국인 관광객에게 마스크를 제공하고, 의심증상 발견시 신고할 수 있는 연락체계를 마련할 계획”이라며 “특히 인터넷 등을 통해 제주가 우한 폐렴 무방비 지역인 것처럼 유포하는 가짜뉴스에 대해서는 적극 대응할 방침”이라고 말했다.김영헌 기자 tamla@hankookilbo.com 0 0 공유 카카오 페이스북 트위터 이메일 URL 기사 URL이 복사되었습니다. 기사저장 기사가 저장 되었습니다. 기사저장이 취소 되었습니다. 댓글 쓰기 세상을 보는 균형, 한국일보Copyright ⓒ Hankookilbo 신문 구독신청 당신이 관심 있을만한 이슈 지역 많이 본 뉴스 라이브 이슈 댓글0 댓글을 입력해 주세요. 등록 0 / 250 등록 좋아요순 최신순 새로고침 댓글 신고 닫기 신고 사유를 선택해주세요. 불쾌감 조성 (비방/욕설/인신공격) 불법 광고 또는 스팸 음란성 게시글 사생활 침해 또는 명예훼손 취소 확인 삭제 확인 작성하신 글을 삭제하시겠습니까? 아니오 네 한국일보에 로그인하면 다양한 편의 기능을 제공 받을 수 있습니다. 읽던 기사 이어보기 댓글 반응 및 추천기사 제공 연재 기사 정기 구독 기능 로그인 페이스북 로그인 카카오 로그인 아이디 또는 비밀번호를 잘못 입력했습니다.(연속 1회) 아래 이미지를 보이는 대로 입력해주세요. 스피커로 들리는 내용을 숫자로 입력해 주세요. 새로고침 음성으로 듣기 새로고침 이미지로 보기 로그인 자동 로그인 회원가입 아이디 찾기 비밀번호 찾기 중복 가입 요청 이미 가입된 회원입니다. 확인 자동 로그인 공공장소에서 사용하는 컴퓨터에서는 자동 로그인 기능 사용에 유의 바랍니다. 확인 아이디 찾기 휴대폰 인증 비밀번호를 잊으셨나요? 아이디 찾기 손흥민/01012345678 으로 찾은 아이디 입니다. user@hankookilbo.com 로그인 비밀번호 찾기 인증방법 선택 등록된 이메일로 인증하기 휴대폰으로 인증하기 인증메일 발송 휴대폰 인증 아이디를 잊으셨나요? 계정 정보 없음 입력하신 사용자가 존재하지 않습니다. 확인 인증메일 발송 인증메일이 발송되었습니다. 해당 메일 계정 확인바랍니다. (유효시간:15분) 확인 아이디 입력 요청 비밀번호를 찾으실 아이디를 입력해주세요. 확인 비밀번호 재설정 비밀번호가 일치합니다. 확인 회원 정보 수정 비밀번호가 변경되었습니다. 확인 재시도 요청 유효 시간이 종료되었습니다. 다시 인증메일을 발송해주세요. 확인 로그인 5회 연속 실패 보안을 위해 비밀번호와 자동입력 방지문자를 함께 입력 바랍니다. 네 아이디 찾기 휴대폰 인증 비밀번호를 잊으셨나요? 약관동의 전체동의 (선택포함) 한국일보 이용약관 (필수) 제 1 조 (목적) 이 이용약관 (이하 ‘약관’이라 합니다)은 ㈜한국일보사 (이하 ‘회사’라 합니다)가 제공하는 한국일보닷컴(hankookilbo.com) 관련 제반 서비스의 이용과 관련하여 회사와 회원 간 권리와 의무 및 책임, 기타 필요한 사항을 규정함을 목적으로 합니다. 제 2 조 (용어의 정의) 1. 이 약관에서 사용하는 용어의 정의는 다음과 같습니다. ① ‘회원’ 이라 함은 이 약관에 동의하고 이용자 아이디(ID)와 비밀번호를 부여 받아 이 회사가 제공하는 서비스를 이용하는 이용자를 말합니다. ② ‘이용계약’ 이라 함은 이 약관을 포함하여 서비스 이용과 관련하여 회사와 회원간에 체결하는 모든 계약을 말합니다. ③ ‘가입’ 이라 함은 회원이 되고자 하는 이용자가 이 약관에 동의하고 회사의 서비스 신청 양식에 필요 정보를 기입하고, 서비스 이용 계약을 신청, 회사의 승인을 얻는 것을 말합니다. ④ ‘탈퇴’라 함은 회원이 이용계약을 해약하는 것을 말합니다. ⑤ ‘이용자 아이디(ID)’라 함은 회원의 식별 및 서비스 이용을 위하여 회원이 정하고 회사가 승인한 문자와 숫자의 조합을 말합니다. ⑥ ‘비밀번호’라 함은 이용자 아이디(ID)로 식별되는 회원의 본인 여부를 검증하기 위하여 회원 자신이 정하여 등록한 문자와 숫자의 조합을 말합니다. ⑦ ‘단말기’라 함은 서비스에 접속하기 위해 회원이 이용하는 개인용 컴퓨터, PDA, 휴대전화, IPTV 등의 전산장치를 말합니다. ⑧ ‘게시물’ 이라 함은 회원이 서비스 이용을 하면서 게시한 글, 사진, 동영상 및 각종 파일과 링크 등을 말합니다. 2. 이 약관에서 사용하는 용어 중 제1항에서 정하지 아니한 것은 관계 법령 및 서비스별 안내에서 정하는 바에 따르며, 그 외에는 일반 관례에 따릅니다. 제 3 조 (약관의 게시 및 개정) 1. 회사는 이 약관을 회원들이 쉽게 알 수 있도록 한국일보닷컴 초기화면에 게시합니다. 2. 회사는 ‘약관의규제에관한법률’ ‘정보통신망이용촉진및정보보호등에관한법률(이하 ‘정보통신망법’) 등 관련 법을 위배하지 않는 범위 안에서 이용 약관을 개정할 수 있습니다. 3. 회사가 약관을 개정할 경우에는 적용일자 및 개정사유를 명시하여 현행약관과 함께 제1항의 방식에 따라 개정약관의 적용일자 30일 전부터 적용일자 전일까지 공지합니다. 다만 회원에게 불리한 개정의 경우에는 공지 외에도 전자우편, 전자쪽지, 로그인 시 동의 창 등 전자적 수단을 통해 따로 통지합니다. 4. 회원이 약관 개정에 동의하지 않을 경우 당 회원과 이용계약을 해지할 수 있습니다. 5. 회원이 개정된 약관의 효력이 발생한지 15일 후에도 거부 의사를 표명하지 않은 채 계속 서비스를 이용할 경우 개정된 약관에 동의한 것으로 간주합니다. 제 4 조 (약관 외 준칙) 1. 회사는 필요한 경우 서비스별로 개별약관 또는 운영원칙을 둘 수 있으며, 이 약관과 운영원칙의 내용이 상충되는 경우에는 서비스별 개별약관과 운영원칙을 우선하여 적용합니다. 2. 이 약관에 명시되어 있지 않은 사항은 관련 법령 또는 상관례에 따릅니다. 제 5 조 (이용계약의 성립) 1. 이용계약은 회원이 되고자 하는 자(이하 ‘가입신청자)가 약관 내용에 ‘동의’를 한 후 회원가입 신청을 하고 회사가 이러한 신청을 승낙함으로써 체결됩니다. 2. 회사는 가입신청자의 신청에 대해 서비스 이용을 승낙함을 원칙으로 합니다. 다만 회사는 다음 각 호에 해당하는 신청에 대하여는 승낙을 하지 않거나 사후에 이용계약을 해지할 수 있습니다. ① 가입신청자가 이 약관에 의하여 이전에 회원자격을 상실한 적이 있는 경우. 다만 ‘회사’의 재가입 승낙을 얻은 경우는 예외로 함 ② 타인의 명의, 이메일 주소, 휴대전화 번호 등 개인정보를 도용하여 가입한 경우 ③ 허위 정보를 기재하거나 회사가 필수적으로 요구하는 사항을 기재하지 않은 경우 ④ 이용자 귀책사유로 인하여 승인이 불가능하거나 기타 규정한 제반 사항을 위반하며 신청하는 경우 ⑤ 관계법령에 위배되거나 사회의 안녕질서 혹은 미풍양속을 저해할 수 있는 목적으로 신청한 경우 ⑥ 영리목적 기타 부정한 용도로 본 서비스를 이용하고자 하는 경우 3. 회사는 제2항에 따라 회원가입신청의 승낙을 하지 않거나 유보한 경우 이를 가입신청자에게 알려야 합니다. 4. 회사는 서비스 이용신청이 다음 각 호에 해당하는 경우에는 그 신청에 대하여 승낙 제한사유가 해소될 때까지 승낙을 유보할 수 있습니다. ① 회사의 서비스 관련 설비의 여유가 없는 경우 ② 회사의 기술상 또는 업무상 문제가 있는 경우 ③ 기타 이용승낙이 곤란한 경우 5. 회사는 이용신청 고객이 관계법령에서 규정하는 미성년자일 경우에 서비스별 안내에서 정하는 바에 따라 승낙을 보류할 수 있습니다. 6. 회사는 회원을 대상으로 서비스별, 이용시간, 이용횟수 등을 통해 등급을 구분하여 이용에 차등을 둘 수 있습니다. 제 6 조 (개인정보 보호 의무 및 사용) 1. 회사는 ‘정보통신망법’ 등 관계 법령이 정하는 바에 따라 회원의 개인정보를 보호하기 위해 최선을 다합니다. 개인정보의 보호와 사용에 대해서는 관련 법령 및 회사의 개인정보취급방침이 적용됩니다. 다만 회사의 공식사이트 이외의 링크된 사이트에서는 회사의 개인정보취급방침이 적용되지 않습니다. 2. 회원은 이용자 아이디(ID) 및 비밀번호 등 개인정보가 타인에게 노출되지 않도록 철저히 관리해야 하며, 회사는 회원의 귀책사유로 인해 노출된 정보에 대해서는 책임을 지지 않습니다. 3. 회원은 아이디 및 비밀번호가 도용되거나 제3자가 사용하고 있음을 인지한 경우 이를 즉시 회사에 통지하고 회사의 안내에 따라야 합니다. 4. 회사는 다음과 같은 경우에 법이 허용하는 범위 내에서 회원의 개인정보를 제3자에게 제공할 수 있습니다. ① 수사기관이나 기타 정부기관으로부터 적법한 절차에 따라 정보제공을 요청 받은 경우 ② 회원의 법령 또는 약관의 위반을 포함하여 부정행위 확인 등의 정보보호 업무를 위해 필요한 경우 ③ 기타 법률에 의해 요구되는 경우 5. 회사는 회원에게 보다 다양한 정보 서비스 및 관련 혜택을 제공할 목적으로 회원의 정보를 이용할 수 있습니다. 또한, 회사는 회원정보를 제휴사에게 제공할 경우 제휴사, 목적, 이용될 회원정보 내용 등을 사전에 공지하고 회원 동의를 받아야 합니다. 6. 회사가 타사와 합병, 분할 시 회원의 정보는 공유될 수 있습니다. 7. 회사는 서비스 제공시 회원의 단말기로 쿠키를 전송할 수 있습니다. 이 경우 회원은 사용하는 단말기의 브라우저가 쿠키의 수신을 거부하거나 쿠키의 수신에 대하여 경고하도록 설정을 변경할 수 있습니다. 8. 회원이 이용신청서에 회원정보를 기재하고 본 약관에 동의 이용신청을 하는 것은 기재된 회원정보를 수집, 이용 및 제공하는 것에 동의하는 것으로 간주합니다. 9. 회사는 관련 법령과 이용 약관, 개인정보보호방침이 정하는 한계 내에서 회원 전체 또는 일부 정보를 업무와 관련된 통계자료로 사용할 수 있습니다. 제 7 조 (회사의 의무) 1. 회사는 관련법과 이 약관이 금지하거나 미풍양속에 반하는 행위를 하지 않으며, 계속적이고 안정적으로 서비스를 제공하기 위하여 최선을 다하여 노력합니다. 2. 회사는 회원이 안전하게 서비스를 이용할 수 있도록 개인정보 보호를 위해 보안시스템을 갖추어야 하며 개인정보취급방침을 공시하고 준수합니다. 3. 회사는 서비스 이용과 관련하여 발생하는 이용자의 불만 또는 피해 구제 요청을 적절하게 처리할 수 있도록 필요한 인력 및 시스템을 구비합니다. 4. 회사는 서비스 이용과 관련하여 회원으로부터 제기된 의견이나 불만이 정당하다고 인정할 경우에는 이를 처리하여야 합니다. 제 8 조 (회원의 의무) 1. 회원은 다음 행위를 하여서는 안 됩니다. ① 신청 또는 변경 시 허위 내용의 등록 ② 타인의 정보 도용 ③ 회사가 게시한 정보의 변경 ④ 회사가 정한 정보 이외의 정보(컴퓨터 프로그램 등)를 송신 또는 게시 ⑤ 회사와 기타 제 3자의 저작권 등 지적재산권에 대한 침해 ⑥ 회사 및 기타 제3자의 명예를 손상시키거나 업무를 방해하는 행위 ⑦ 외설 또는 폭력적인 메시지, 화상, 음성 등의 정보를 서비스에 공개 또는 게시하는 행위 ⑧ 회사의 동의 없이 영리를 목적으로 서비스를 사용하는 행위 ⑨ 기타 불법적이거나 부당한 행위 2. 회원은 관계 법령과 이 약관의 규정, 회사가 통지하는 사항 등을 준수하여야 하며, 기타 회사의 업무에 방해되는 행위를 해서는 안 됩니다. 3. 회원은 이용 신청시 기재한 주소, 연락처, 전자우편주소 등 개인정보와 이용계약 사항의 변경이 있을 경우 즉시 수정하여야 하며, 미변경으로 인해 발생하는 문제에 대해서 회사는 책임지지 않습니다. 4. 회원은 회사의 명시적 동의가 없는 한 서비스를 이용한 영업활동을 할 수 없으며, 그 영업활동의 결과에 대해 회사는 책임을 지지 않습니다. 또한 회원은 이와 같이 영업활동으로 회사가 손해를 입은 경우 회원은 회사에 대해 손해배상 의무를 지며, 회사는 해당 회원에 대해 서비스 이용제한 및 적절한 절차를 거쳐 손해배상 등을 청구할 수 있습니다. 제 9 조 (이용자 아이디 부여 및 변경) 1. 회사는 회원에 대하여 약관에 정하는 바에 따라 이용자 아이디(ID)를 부여합니다. 2. 이용자 아이디(ID)는 원칙적으로 변경이 불가하며 부득이한 사유로 인하여 변경하고자 하는 경우에는 해당 아이디(ID)를 해지하고 재가입 해야 합니다. 3. 이용자 아이디(ID)는 회원 본인의 동의 하에 회사 또는 자회사, 제휴사에서 운영하는 사이트의 회원 아이디(ID)와 연결될 수 있습니다. 4. 이용자 아이디(ID)는 다음 각호에 해당하는 경우에는 회원의 요청 또는 회사의 직권으로 변경 또는 이용을 정지할 수 있습니다. ① 이용자 아이디(ID)가 전화번호 또는 주민등록번호로 등록되어 사생활 침해가 우려되는 경우 ② 타인에게 혐오감을 주거나 미풍양속에 어긋나는 경우 ③ 회사, 회사의 서비스 또는 서비스 운영자 등의 명칭과 동일하거나 오인 등의 우려가 있는 경우 ④ 기타 합리적인 사유가 있는 경우 5. 이용자 아이디(ID) 및 비밀번호 관리책임은 회원에게 있습니다. 이를 소홀히 관리하여 발생하는 서비스 이용상의 손해 또는 제3자에 의한 부정이용 등에 대한 책임은 회원에게 있으며 회사는 그에 대한 책임을 지지 않습니다. 6. 이용자 아이디(ID) 및 비밀번호를 도난 당하거나 제3자가 사용하고 있음을 인지한 경우에는 바로 회사에 통보하고 안내에 있는 경우에는 그에 따라야 하며, 이러한 통지를 하지 아니하거나 회사의 조치에 응하지 아니하여 발생한 모든 불이익에 대한 책임은 회원에게 있습니다. 7. 기타회원 개인정보 관리 및 변경 등에 관한 사항은 서비스별 안내에 정하는 바에 의합니다. 제 10 조 (서비스 이용) 1. 서비스는 회사의 업무상 또는 기술상 특별한 지장이 없는 한 연중무휴, 1일 24시간 운영을 원칙으로 합니다. 단 천재지변 및 비상사태를 비롯한 부득이한 상황이 발생한 경우에는 서비스를 일시 중단할 수 있습니다. 2. 회사는 컴퓨터 등 정보통신설비의 보수점검, 교체 및 고장, 통신두절 또는 운영상 상당한 이유가 있는 경우 서비스의 제공을 일시적으로 중단할 수 있습니다. 이 경우 회사는 회원들에 사이트를 통해 사전 공지합니다. 다만 긴급한 시스템 점검, 증설 및 교체, 설비의 장애, 서비스 이용자 폭주, 국가비상사태, 정전 등 부득이한 사유가 발생한 경우에는 사전 예고 없이 일시적으로 서비스의 전부 또는 일부를 중단할 수 있습니다. 3. 회사는 서비스 개편 등 서비스 운영 상 필요한 경우 회원에게 사전 예고 후 서비스의 전부 또는 일부의 제공을 중단할 수 있습니다. 제 11 조 (회원 게시물의 관리) 1. 회원의 게시물이 정보통신망법 및 저작권법 등 관련법에 위반되는 내용을 포함하는 경우, 회사는 관련법이 정한 절차에 따라 해당 게시물의 게시중단 및 삭제 등을 요청할 수 있습니다. 2. 회원이 서비스에 등록하는 게시물 등으로 인하여 본인 또는 타인에게 손해나 기타 문제가 발생하는 경우 전적으로 회원은 이에 대한 책임을 지며, 회사의 고의가 아닌 한 회사는 이에 대하여 책임을 지지 않습니다. 3. 회사는 다음 각호에 해당하는 게시물 등을 회원의 사전 동의 없이 임시게시 중단, 수정, 삭제, 이동 또는 등록거부 등 관련조치를 취할 수 있습니다. ① 다른 회원 또는 제3자에게 욕설 및 비방, 인신공격으로 불쾌감 및 모욕을 주거나 명예를 훼손하는 내용인 경우 ② 다른 회원 또는 제3자의 저작권을 침해하거나 불법정보 유출과 관련된 글을 올리는 경우 ③ 다른 회원 또는 제3자의 사생활 침해 및 개인정보를 유출하는 경우 ④ 공공질서 및 미풍양속에 위반되는 내용을 유포하거나 링크시키는 경우 ⑤ 불법복제 또는 해킹을 조장하는 내용인 경우 ⑥ 영리를 목적으로 하는 광고 또는 사이트를 홍보하는 내용인 경우 ⑦ 범죄와 결부된다고 객관적으로 인정되는 내용인 경우 ⑧ 사적인 판단이나 지역감정 조성, 종교적 견해의 내용으로 회사가 서비스 성격에 부합하지 않는다고 판단하는 경우 ⑨ 회사에서 규정한 게시물 운영원칙에 어긋나거나 게시판 성격에 부합하지 않는 경우 ⑩ 기타 관계법령에 위배된다고 판단되는 경우 3. 회사는 광고성 게시물 차단 및 안정된 게시물 운영을 위해 일부 서비스에 대해 게시물 이용시간을 제한할 수 있습니다. 다만 이런 경우 이용시간을 해당 서비스에서 공지합니다. 4. 회사는 일부 서비스에 대해서 회원이 등록하는 게시물에 대해 사전 심의 후 게시 여부를 결정할 수 있습니다. 제 12 조 (게시물의 저작권) 1. 회원이 등록한 게시물에 대한 저작권은 해당 저작권자에게 귀속됩니다. 2. 회사가 작성한 게시물 또는 저작물에 대한 저작권, 기타 지적재산권은 회사에 귀속되므로 회원이 서비스를 이용하면서 얻은 저작물은 회사의 사전 승낙 없이 복제, 송신, 출판, 전송, 배포, 방송, 기타 방법에 의하여 영리목적으로 이용하거나 제3자에게 이용하게 해서는 안됩니다. 3. 회사는 서비스의 운영, 전시, 전송, 배포, 홍보의 목적으로 회원의 별도의 허락 없이 무상으로 저작권법에 규정하는 공정한 관행에 맞게 합리적인 범위 내에서 다음과 같이 회원이 등록한 게시물을 사용할 수 있습니다. ① 서비스 내에서 회원 게시물의 복제, 수정, 개조, 전시, 전송, 배포 및 원저작물을 해치지 않는 범위 내에서의 편집 저작물 작성하는 경우 ② 서비스 제휴 파트너에게 회원의 게시물 내용을 제공, 전시 혹은 홍보하게 하는 경우 ③ 휴대폰, PDA, IPTV 등 단말기에서 회원의 게시물 내용을 제공, 전시 혹은 홍보하게 하는 경우 4. 회사는 전항 이외의 방법으로 회원의 게시물을 이용하고자 하는 경우 전화, 팩스, 전자우편 등의 방법을 통해 사전에 회원의 동의를 얻어야 합니다. 5. 게시물에 대해 제3자로부터 저작권 및 기타 권리의 침해 또는 명예훼손, 음란성 등의 이유로 이의가 제기된 경우 회사는 당해 게시물을 임시 삭제할 수 있습니다. 이 경우 회사는 이의를 제기한 자와 게시물 등록자 간의 법적 문제가 종결된 후, 게시 요청이 있는 경우에는 삭제된 게시물을 재등록 할 수 있습니다. 제 13 조 (정보의 제공) 1. 회사는 회원의 서비스 이용에 필요하다고 인정되는 다양한 정보를 공지사항이나 전자우편, SMS, SNS 등의 방법으로 회원에게 제공할 수 있습니다. 다만 회원은 관련법에 따른 거래관련 정보 및 고객문의 등에 대한 답변 등을 제외하고는 언제든지 전자우편에 대해서 수신 거절을 할 수 있습니다 2. 회사는 서비스 개선 및 회원 대상의 서비스 제공 등을 목적으로 회원의 동의 하에 관련 법령에 따라 추가적인 개인정보를 수집할 수 있습니다. 제 14 조 (광고 게재) 1. 회사가 회원에게 서비스를 제공하기 위한 수익기반의 일부인 광고게재 및 판촉활동에 대해서 회원은 서비스 이용 시 제공되는 광고에 대해 동의합니다. 2. 회사는 회원 가입 시 광고메일 발송에 동의한 한 회원에 한해서 회사의 판단에 따라 이메일 광고를 회원의 이메일 주소로 발송, 제공합니다. 3. 회사는 서비스상에 게재되어 있거나 서비스를 통한 광고주의 판촉활동에 회원이 참여하거나 교신 또는 거래를 함으로써 발생하는 일체의 손실과 손해에 대해 책임을 지지 않습니다. 제 15 조 (계약 해지) 1. 회원이 이용계약을 해지하고자 할 경우에는 회원 본인이 회사에서 제공한 서비스 내 영역을 통해 가입 해지를 해야 합니다. 회사는 관련법 등이 정하는 바에 따라 이를 즉시 처리해야 합니다. 2. 회원이 이용계약을 해지할 경우, 회사가 회원정보를 보유하는 경우를 제외하고는 관련법 및 개인정보취급방침에 따라 해지 즉시 회원의 모든 데이터는 소멸됩니다. 3. 회원이 이용계약 해지를 한 경우 본인 계정에 등록된 게시물 일체는 삭제됩니다. 다만 제3자에 의한 스크랩, 담기 등으로 재게시되거나, 복제된 게시물과 타인의 게시물과 결합되어 제공되는 게시물 등은 그러하지 않습니다. 제 16 조 (서비스 이용제한) 1. 회사는 회원이 이 약관의 의무를 위반하거나 서비스의 정상적인 운영을 방해한 경우, 이용을 단계적으로 제한할 수 있습니다. 2. 회사는 주민등록법을 위반한 명의도용 및 결제도용, 저작권법 및 컴퓨터프로그램보호법을 위반한 불법프로그램의 제공 및 운영방해, 정보통신망법을 위반한 불법통신 및 해킹, 악성프로그램의 배포, 접속권한 초과행위 등과 같이 관련법령을 위반한 경우에는 즉시 영구이용정지를 할 수 있습니다. 3. 회사는 본 조의 제한의 조건 및 세부내용은 이용제한정책 및 개별 서비스상의 운영정책에서 정하는 바에 의합니다. 제 18 조 (손해배상) 1. 회사와 이용자는 서비스 이용과 관련하여 고의 또는 과실로 상대방에게 손해를 끼친 경우에는 이를 배상해야 합니다. 2. 단, 회사는 무료로 제공하는 서비스의 이용과 관련하여 개인정보취급방침에서 정하는 내용에 위반하지 않는 한 어떠한 손해도 책임지지 않습니다. 제 19 조 (책임제한) 1. 회사는 천재지변 또는 이에 준하는 불가항력 기타 이 약관에서 정한 정당한 사유로 인하여 서비스를 제공할 수 없게 된 경우에는 서비스 제공에 관한 책임이 면제됩니다. 2. 회사는 회원의 귀책사유로 인한 서비스 이용의 장애 또는 손해에 대해서는 책임을 지지 않습니다. 3. 회사는 회원간 또는 회원과 제3자 상호간에 서비스를 매개로 하여 거래 등을 한 경우에는 책임이 면제됩니다. 4. 회사는 제공하는 서비스에 포함된 모든 정보, 소프트웨어, 제품 등에 부정확함과 인쇄상의 오류로 인해 발생하는 정보의 부정확성에 대해서는 책임을 지지 않습니다. 5. 회사는 회원의 게시물을 등록 전에 상시적으로 사전심사 하거나 게시물의 내용을 확인 또는 검토할 의무가 없으므로 그 결과에 대한 책임은 지지 않습니다. 6. 회사에서 회원에게 무료로 제공하는 서비스의 이용과 관련해서는 어떠한 손해도 책임을 지지 않습니다. 제 20 조 (통지) 1. 회사는 회원에 대하여 통지를 하는 경우 회원이 회사에 등록한 전자우편 주소로 할 수 있습니다. 2. 회사는 불특정다수 회원에게 통지를 해야 할 경우 회사 게시판을 통해 7일 이상 게시함으로써 개별통지에 갈음할 수 있습니다. 제 21 조 (준거법 및 재판관할) 1. 이 약관에 명시되지 않은 사항은 대한민국 관계법령과 상관습에 따릅니다. 2. 서비스 이용으로 인한 분쟁에 대해 소송이 제기될 경우 회사의 본사 소재지를 관할하는 법원을 관할법원으로 합니다. [부칙] 1. 이 약관은 2014년 5월 7일부터 시행합니다. 개인정보처리 방침 (필수) 한국일보닷컴(이하 ‘회사’)은 정보통신망 이용촉진 및 정보보호 등에 관한 법률, 개인정보보호법, 통신비밀보호법, 전기통신사업법, 등 정보통신서비스제공자가 준수하여야 할 관련 법령상의 개인정보보호 규정 및 방송통신위원회가 제정한 「개인정보보호지침」을 준수하고 있으며, 관련 법령에 의거한 개인정보취급방침을 정하여 이용자 권익 보호에 최선을 다하고 있습니다. 회사는 회원님들의 개인정보가 남용되거나 유출되지 않도록 최선을 다할 것이며, 이에 다음과 같이 회사의 개인정보 보호를 위한 방침에 대하여 알려드리고자 합니다. 단, 본 개인정보취급방침은 정부의 법령 및 지침의 변경, 또는 보다 나은 서비스의 제공을 위하여 그 내용이 변경될 수 있으니, 회원님들께서는 사이트 방문시 수시로 그 내용을 확인하여 주시기 바랍니다. 본 개인정보취급방침은 회사가 제공하는 서비스 (모바일 웹 포함) 이용에 적용되며 다음과 같은 내용을 담고 있습니다. 1. 수집하는 개인정보의 항목 및 수집방법 회사는 회원가입, 원활한 고객 상담, 각종 서비스의 제공을 위해 최초 회원가입 당시 아래와 같은 최소한의 개인정보를 필수항목으로 수집하고 있습니다. 가. 수집하는 개인정보의 항목 필수항목 : 이름, 생년월일, 아이디, 비밀번호, 메일주소, 휴대폰 번호, 주소, 가입인 증정보(참고로, 아동 관련 서비스를 제공할 때까지 만14세 미만 아동 회원은 가입을 불허합니다) 다만, 서비스 이용과정이나 사업처리 과정에서 IP Address, 쿠키, 방문 일시, 서비스 이용 기록, 불량 이용 기록, 결제기록 등이 자동으로 생성 되어 수집될 수 있습니다. 선택항목: 기존 아이디를 이용한 부가 서비스 및 맞춤식 서비스 이용 또는 이벤트 응모 과정에서 해당 서비스의 이용자에 한해서만 주민등록번호, 주소, 전 화번호, 직업 등의 정보들이 수집될 수 있습니다. 나. 개인정보 수집방법 회사는 다음과 같은 방법으로 개인정보를 수집합니다. - 홈페이지, 서면양식, 팩스, 전화, 상담 게시판, 이메일, 이벤트 응모, 배송요청 2. 개인정보의 수집 및 이용목적 회사는 수집한 개인정보를 다음의 목적을 위해 활용합니다. 가. 서비스 제공 서비스 제공에 관한 계약 이행 및 서비스 제공에 따른 요금정산, 컨텐츠 제공, 특정 맞춤 서비스 제공, 물품배송 또는 청구서 등 발송, 본인인증, 구매 및 요금 결제, 요금추심 나. 회원관리 회원제 서비스 이용에 따른 본인확인, 개인식별, 한국일보닷컴 이용약관 위반 회원에 대한 이용제한 조치, 서비스의 원활한 운영에 지장을 미치는 행위 및 서비스 부정이용 행위 제재, 가입의사 확인, 가입 및 가입횟수 제한, 추후 아동 관련 서비스제공으로 인한 만14세 미만 아동 개인정보 수집 시 법정 대리인 동의여부 확인, 추후 법정 대리인 본인확인, 분쟁 조정을 위한 기록보존, 불만처리 등 민원처리, 고지사항 전달, 회원탈퇴 의사의 확인 다. 신규 서비스 개발 및 마케팅·광고에의 활용 신규 서비스 개발 및 맞춤 서비스 제공, 통계학적 특성에 따른 서비스 제공 및 광고 게재, 서비스의 유효성 확인, 이벤트 정보 및 참여기회 제공, 광고성 정보 제공, 접속빈도 파악, 회원의 서비스이용에 대한 통계 3. 개인정보의 공유 및 제공 회사는 이용자들의 개인정보를 "2. 개인정보의 수집목적 및 이용목적"에서 고지한 범위내에서 사용하며, 이용자의 사전 동의 없이는 동 범위를 초과하여 이용하거나 원칙적으로 이용자의 개인정보를 외부에 공개하지 않습니다. 다만, 아래의 경우에는 예외로 합니다. - 이용자가 사전에 동의한 경우 - 법령의 규정에 의거하거나, 수사 목적으로 법령에 정해진 절차와 방법에 따라 수사기관의 요구가 있는 경우 4. 개인정보의 보유 및 이용기간 이용자의 개인정보는 원칙적으로 개인정보의 수집 및 이용목적이 달성되면 지체 없이 파기합니다. 단, 다음의 정보에 대해서는 아래의 이유로 명시한 기간 동안 보존합니다. 가. 회사 내부 방침에 의한 정보보유 사유 - 부정이용기록(부정가입, 징계기록 등의 비정상적 서비스 이용기록) 보존 이유 : 부정 이용 방지 보존 기간 : 15일 나. 관련법령에 의한 정보보유 사유 상법, 전자상거래 등에서의 소비자보호에 관한 법률 등 관계법령의 규정에 의하여 보존할 필요가 있는 경우 회사는 관계법령에서 정한 일정한 기간 동안 회원정보를 보관합니다. 이 경우 회사는 보관하는 정보를 그 보관의 목적으로만 이용하며 보존기간은 아래와 같습니다. - 표시, 광고에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 6개월 - 계약 또는 청약철회 등에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 5년 - 대금결제 및 재화 등의 공급에 관한 기록 보존 이유 : 전자상거래 등에서의 소비자보호에 관한 법률 보존 기간 : 5년 - 소비자의 불만 또는 분쟁처리에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 3년 - 웹사이트 방문기록 보존이유 : 통신비밀보호법 보존기간 : 3개월 5. 개인정보 파기절차 및 방법 이용자의 개인정보는 원칙적으로 개인정보의 수집 및 이용목적이 달성되면 지체 없이 파기합니다. 회사의 개인정보 파기절차 및 방법은 다음과 같습니다. 가. 파기절차 - 이용자가 회원가입 등을 위해 입력한 정보는 목적이 달성된 후 별도의 DB로 옮겨져(종이의 경우 별도의 서류함) 내부 방침 및 기타 관련 법령에 의한 정보보호 사유에 따라(보유 및 이용기간 참조)일정 기간 저장된 후 파기됩니다. - 동 개인정보는 법률에 의한 경우가 아니고서는 보유되는 이외의 다른 목적으로 이용되지 않습니다. 나. 파기방법 - 종이에 출력된 개인정보는 분쇄기로 분쇄하거나 소각을 통하여 파기합니다. - 전자적 파일 형태로 저장된 개인정보는 기록을 재생할 수 없는 기술적 방법을 사용하여 삭제합니다. 6. 이용자 및 법정대리인의 권리와 그 행사방법 - 이용자는 언제든지 등록되어 있는 자신의 개인정보를 조회하거나 수정할 수 있으며, 회사의 개인정보의 처리에 동의하지 않는 경우 동의를 거부하거나 가입해지(회원탈퇴)를 요청하실 수 있습니다. 다만, 그러한 경우 서비스의 일부 또는 전부 이용이 어려울 수 있습니다. - 이용자의 개인정보 조회, 수정을 위해서는 '개인정보변경'(또는 '회원정보수정' 등)을, 가입해지(동의철회)를 위해서는 "회원탈퇴"를 클릭하여 본인 확인 절차를 거치신 후 직접 열람, 정정 또는 탈퇴가 가능합니다. - 혹은 개인정보관리책임자에게 서면, 전화 또는 이메일로 연락하시면 지체 없이 조치하겠습니다. - 이용자가 개인정보의 오류에 대한 정정을 요청하신 경우에는 정정을 완료하기 전까지 당해 개인정보를 이용 또는 제공하지 않습니다. 또한 잘못된 개인정보를 제3 자에게 이미 제공한 경우에는 정정 처리결과를 제3자에게 지체 없이 통지하여 정정이 이루어지도록 하겠습니다. - 회사는 이용자 혹은 법정 대리인의 요청에 의해 해지 또는 삭제된 개인정보는 "5. 개인정보의 보유 및 이용기간"에 명시된 바에 따라 처리하고 그 외의 용도로 열람 또는 이용할 수 없도록 처리하고 있습니다. 7. 개인정보 자동 수집 장치의 설치/운영 및 거부에 관한 사항 - 회사는 개인화되고 맞춤화된 서비스를 제공하기 위해서 이용자의 정보를 저장하고 수시로 불러오는 '쿠키(cookie)'를 사용합니다. - 쿠키는 웹사이트를 운영하는데 이용되는 서버가 이용자의 브라우저에게 보내는 아주 작은 텍스트 파일로 이용자 컴퓨터의 하드디스크에 저장됩니다. 이후 이용자가 웹 사이트에 방문할 경우 웹 사이트 서버는 이용자의 하드 디스크에 저장되어 있는 쿠키의 내용을 읽어 이용자의 환경설정을 유지하고 맞춤화된 서비스를 제공하기 위해 이용됩니다. - 쿠키는 개인을 식별하는 정보를 자동적/능동적으로 수집하지 않으며, 이용자는 언제든지 이러한 쿠키의 저장을 거부하거나 삭제할 수 있습니다. 가. 쿠키 사용 목적 회원과 비회원의 접속 빈도나 방문 시간 등을 분석, 이용자의 취향과 관심분야를 파악 및 자취 추적, 각종 이벤트 참여 정도 및 방문 회수 파악 등을 통한 타킷 마케팅 및 맞춤형 정보를 제공하기 위해 사용합니다. 다. 쿠키의 설치·운영 및 거부 - 이용자는 쿠키 설치에 대한 선택권을 가지고 있습니다. 따라서 이용자는 웹브라우저에서 옵션을 설정함으로써 모든 쿠키를 허용하거나, 쿠키가 저장될 때마다 확인을 거치거나, 아니면 모든 쿠키의 저장을 거부할 수도 있습니다. - 다만, 쿠키의 저장을 거부할 경우에는 로그인이 필요한 일부 서비스는 이용에 어려움이 있을 수 있습니다. - 쿠키 설치 허용 여부를 지정하는 방법(Internet Explorer의 경우)은 다음과 같습니다. ① [도구] 메뉴에서 [인터넷 옵션]을 선택합니다. ② [개인정보 탭]을 클릭합니다. ③ [개인정보취급 수준]을 설정하시면 됩니다. 8. 개인정보의 기술적·관리적 보호 대책 회사는 이용자들의 개인정보를 취급함에 있어 개인정보가 분실, 도난, 누출, 변조 또는 훼손되지 않도록 안전성 확보를 위하여 다음과 같은 기술적·관리적 대책을 강구하고 있습니다. 가. 비밀번호 암호화 회원 아이디(ID)의 비밀번호는 암호화되어 저장 및 관리되고 있어 본인만이 알고 있으며, 개인정보의 확인 및 변경도 비밀번호를 알고 있는 본인에 의해서만 가능합니다. 나. 해킹 등에 대비한 대책 회사는 해킹이나 컴퓨터 바이러스 등에 의해 이용자의 개인정보가 유출되거나 훼손되는 것을 막기 위해 외부로부터 접근이 통제된 구역에 시스템을 설치하고, 침입 차단장치 이용 및 침입탐지시스템을 설치하여 감시하고 있습니다. 그리고 백신 프로그램을 주기적으로 업데이트하며 갑작스런 바이러스가 출현할 경우 백신이 나오는 즉시 이를 적용함으로써 개인정보가 침해 방지를 위해 노력하고 있습니다. 다. 개인정보처리시스템 접근 제한 회사는 개인정보를 처리할 수 있도록 체계적으로 구성한 데이터베이스시스템에 대한 접근권한의 부여, 변경, 말소 등에 관한 기준을 수립하고 비밀번호의 생성 방법, 변경 주기 등을 규정 운영하며 기타 개인정보에 대한 접근통제를 위해 필요한 조치를 다하고 있습니다. 라. 개인정보 취급 직원의 교육 개인정보관련 취급 직원은 담당자에 한정시켜 최소화 하고 새로운 보안기술의 습득 및 개인정보보호 의무에 관해 정기적인 교육을 실시하며 별도의 비밀번호를 부여하여 접근 권한을 관리하는 등 관리적 대책을 시행하고 있습니다. 9. 개인정보관리책임자 및 담당자의 연락처 회사는 개인정보를 보호하고 개인정보와 관련한 불만을 처리하기 위하여 아래와 같이 개인정보관리책임자를 지정하고 있습니다. 이용자는 서비스를 이용하면서 발생하는 모든 개인정보보호 관련 민원을 개인정보관리책임자로 신고하실 수 있습니다. 회사는 이용자들의 신고사항에 대해 신속하게 충분한 답변을 드릴 것입니다. 개인정보 관리책임자 성명: 정진황 국장 소속: 디지털콘텐츠국 전화: 02-724-2427 이메일: jhchung@hankookilbo.com 개인정보 관리담당자 성명: 안경모 부장 소속: 디지털미디어부 전화: 02-724-2293 이메일: zuckbox@hankookilbo.com 기타 개인정보침해에 대한 신고나 상담이 필요하신 경우에는 아래 기관에 문의하시기 바랍니다. - 개인정보침해신고센터 ( www.118.or.kr / 국번없이 118) - 대검찰청 사이버범죄수사단 ( www.spo.go.kr / 02-3480-3571) - 경찰청 사이버테러대응센터 ( www.ctrc.go.kr / 국번없이 182) 10. 고지의 의무 현 개인정보취급방침 내용 추가, 삭제 및 수정이 있을 시에는 개정 최소 7일전부터 홈페이지의 공지사항을 통해 고지할 것입니다. - 공고일자 : 2014년 5월 8일 - 시행일자 : 2014년 5월 15일 이벤트/프로모션 등 정보 수신 동의 (선택) 이메일 SMS 뉴스레터 이용약관 및 개인정보 처리 방침은 필수 항목 입니다. 다음 약관 동의 필수 이용약관에 동의 하셔야 합니다. 확인 약관 동의 필수 개인정보처리 방침에 동의 하셔야 합니다. 확인 회원가입 아이디(이메일) 중복확인 사용 가능한 아이디 입니다. 비밀번호 비밀번호 확인 3~10자 영문 대소문자, 숫자 및 특수문자를 사용해주세요. 이름 필명 중복확인 댓글 작성 시 필명이 노출 됩니다. 사용 가능한 필명입니다. 확인 필명 중복확인 댓글 작성 시 필명이 노출됩니다. 사용 가능한 필명입니다. 확인 회원가입 완료 한국일보 회원가입이 완료 되었습니다. 확인 로그인 요청 로그인 한 후 이용 가능합니다. 로그인 하시겠습니까? 아니오 네 이메일로 기사 공유하기 보내는 기사 ‘우한 폐렴’에 제주도 불안감 커져…관광시장 타격 우려도 받으실 분 이메일 여러사람에게 보낼 경우 메일주소는 세미콜론(;)으로 구분해 주세요.(최대 5개) 보내는 분 이름 보내는 분의 이름을 입력해주세요. 이메일 올바른 이메일 형식이 아닙니다. 함께 보내는 메세지 메일 전송 전송 완료 기사가 메일로 전송 되었습니다. 확인 구독 취소 구독을 취소하시겠습니까? 아니오 네 중복 선택 불가 안내 이미 공감 표현을 선택하신 기사입니다. 변경을 원하시면 취소 후 다시 선택해주세요. 확인</t>
+  </si>
+  <si>
+    <t>우한폐렴 “제2사드 되나”…제주도, 청정 제주관광 '배수진' - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 우한폐렴 “제2사드 되나”…제주도, 청정 제주관광 '배수진' 파이낸셜뉴스입력 2020.01.28 14:57수정 2020.01.28 14:57 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 “중국발 훈풍 부나 했더니…” 신종 코로나바이러스 감염증 ‘날벼락’춘절 특수 ‘반토막’ 유통가도 큰 시름…대응체제 ‘심각’단계로 격상 28일 원희룡 제주도지사가 제주국제공항을 방문해 '우한폐렴'으로 불리는 중국발 신종 코로나바이러스 감염증 검역상황을 점검하고 있다. [사진=제주도 제공] [제주=좌승훈 기자] 중국 최대 명절이자 해외여행 성수기인 ‘춘절’특수와 함께 올들어 중국과 일본을 중심으로 외국인 관광객이 늘면서 활기를 띠던 제주도내 관광업계에 중국발 신종 코로나바이러스 감염증(우한폐렴)이 국경을 넘어 전 세계로 확산되면서 위기감이 고조되고 있다. 특히 이번 춘절 연휴 기간(24~30일)에는 시진핑 중국 주석의 방한을 앞두고 ‘한한령(限韓令)’ 완화 기대감이 커진 가운데, 당초 2만700명의 중화권 관광객이 제주를 찾을 것으로 예상됐다. 이는 지난해 2만2535명과 비교하면 36.2% 증가한 수치다. 하지만 중국 후베이성에서 시작된 우한폐렴 공포가 확산되면서 지난 24일부터 27일까지 제주를 찾은 중국인 관광객은 총 8893명에 그쳤다. ■ 원희룡 지사 “이중 삼중의 철통 검역” 지시 춘절 연휴 직전인 17~19일 3일 동안 88.5%를 기록했던 제주-중국 직항 19개 노선의 평균 탑승률은 지난 24~26일에는 32.5%포인트나 줄어든 56.0%로 급감했다. 특급호텔을 중심으로 중국인 예약취소 사례도 크게 늘면서 27일까지 중화권 누적 관광객은 당초 예상치의 약 30% 수준에 그쳤다. 제주국제공항 국제선 대합실. 중국인 관광객들이 출국 수속을 기다리고 있다. /사진=fnDB 내달 13~27일로 예정됐던 중국 산둥(山東)성 쯔보(淄博)시 축구단의 제주 전지훈련도 취소됐다. 현재 제주도내에서 우한폐렴 확진 환자나 의심 증상으로 치료받는 환자는 없는 것으로 파악됐다. 하지만 우한폐렴 사태가 장기화되면, 2017년 3월 중국 정부가 촉발한 사드(THAAD·고고도미사일방어체계) 보복처럼 지역 관광업계에 큰 충격을 줄 수 있다는 전망도 나온다. ■ 대응체제 ‘심각’…관광종합상황실 본격 가동 게다가 제주도내에서 자칫 확진 환자가 나온다면, 다른 지역 외국인 관광객 뿐 만 아니라, 내국인 관광객 유치에도 걸림돌로 작용할 것이라는 위기감이 확산되고 있다. 원희룡 지사가 28일 오전 제주국제공항과 제주항 연안여객터미널을 찾아 검역단계부터 환자 유입 차단의 중요성을 강조하며, 이중 삼중 철통 검역을 지시한 것도 이 때문이다. 앞서 제주도는 27일 긴급대책회의를 갖고 우한폐렴 대응을 최상위 비상체제인 '심각' 단계로 정했다. 이는 정부 대응 단계(경계)보다 한 단계 높은 대응 체계다. 이날부터 ‘신종 코로나바이러스 관광종합상황실’도 가동되고 있다. 현재 제주국제공항에는 3개 검역대가 운영되고 있다. 또 중국발 전체 항공편 탑승자를 대상으로 건강상태질문서를 작성하고 발열 감시와 1대1 체온 감시를 병행 중이다. 아울러 제주도자치경찰단의 협조를 받아 여권 대조를 통해 중국 우한지역을 경유했는지의 여부도 확인하고 있다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>설날에는 갈치조림 먹으러 제주도 중문 관광단지 맛집 ‘이조은식당’ - 뉴스프리존 × 전체기사 기획 전체 특집 인터뷰 오피니언 전체 사설 칼럼 연재 기고 기자수첩 뉴스종합 전체 정치 사회 동영상뉴스 이달의이슈 인사 부고 경제 전체 종합 금융 유통·소비자 기업 IT 자동차 건설·부동산 제약·바이오 특집 지역 전체 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 전체 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 전체 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 전체 스포츠 연예 골프투데이 포토뉴스 전체 포토 프리존 만평 카드뉴스 지역포토 미분류 프리존 책방 UPDATED : 2022-10-11 14:22 (화) 다음카페 네이버TV 블로그 페이스북 트위터 로그인 회원가입 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 전체메뉴 버튼 기획 특집 인터뷰 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 포토 프리존 만평 지역포토 기획 뉴스프리존 기획 특집 인터뷰 오피니언 뉴스프리존 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 뉴스프리존 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 뉴스프리존 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 뉴스프리존 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 뉴스프리존 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 뉴스프리존 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 뉴스프리존 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 뉴스프리존 포토뉴스 포토 프리존 만평 지역포토 기사검색 검색 상세검색 이전 다음 설날에는 갈치조림 먹으러 제주도 중문 관광단지 맛집 ‘이조은식당’ 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 상태바 HOME 오피니언 칼럼 설날에는 갈치조림 먹으러 제주도 중문 관광단지 맛집 ‘이조은식당’ 곽종현 기자 승인 2020.01.26 10:00 댓글 0 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버포스트 URL복사 × 올 해 설날은 최대 5일간의 긴 연휴기간으로 여행을 떠나기 좋다. 국내여행지 중 가장 인기많은제주도는 아름다운 자연과 관광지로 힐링하기에 적당하다. 특히, 제주도 중문 관광단지는 아름다운 자연경관을 품고 있는 곳으로 유수호텔과 골프장, 천제연폭포, 주상절리대, 여미지식물원, 퍼시픽랜드, 테디베어뮤지엄 등 다양한 관광지가 있어 제주도필수여행지로 알려져있습니다. 수많은 관광지가 있는 만큼 인근에는 여러 맛집들이 즐비한데 그 중 제주도민들은 물론 여행객들 사이에서도 입소문난 제주도 중문 관광단지 맛집 ‘이조은식당’이 있다. 제주 중문 갈치조림 맛집 이조은식당은 갈치조림과 갈치 회를 비롯해 다양한 갈치 요리를 저렴하게 제공하고 있는데 이같은 합리적인 가격과 정성 담아 맛을 한껏 살린 요리들로 제주도민과 제주 중문관광단지를 찾는 관광객들로부터 입소문을 타 대표적인 제주 중문 맛집으로 자리잡았다. 제주도에 거주하는 연예인들도 즐겨찾을 만큼 유명한 이 곳은 2대째 이어온 서귀포 갈치조림과 함께 갈치 회, 갈치구이를 다루며, 이를 보다 합리적으로 맛볼 수 있는 정식 메뉴도 판매하고 있다. 제주도 맛집 베스트 10 대표 메뉴는 갈치 회, 갈치조림을 기본으로 제공하면서 갈치구이와 고등어구이 중 하나를 선택해 총 세가지 메뉴를 즐길 수 있게 한 갈치 정식으로, 이 밖에도 네가지 정식 메뉴와 스페셜 메뉴 한 가지를 선보이고 있다. 이 외에도 1인, 혹은 2인이서 주문할 수 있는 식사류를 다루고 있다. 갈치조림과 고등어조림은 2인이서 즐길 수 있는 대표 식사류로, 그 밖에 고등어구이, 전복뚝배기, 전복죽, 성게국, 갈치덮밥, 한치회덮밥 등 해산물을 주재료로 한 메뉴를 다양하게 판매한다. ‘이조은식당’의 영업시간은 오전8시30분부터 오후10시까지이며 가게 앞에 주차장이 준비되어있다. 을 응원해주세요. 기사 잘 보셨나요? 독자님의 응원이 기자에게 큰 힘이 됩니다. 후원회원이 되어주세요. 독자님의 후원금은 모두 기자에게 전달됩니다. 정기후원은 모든 기자들에게 전달됩니다. 정기후원 하기 저작권자 © 뉴스프리존 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 헤드라인 뉴스 정진석 "조선, 日 침략으로 망한 것 아냐"…민주당 "역대급 망언" 경남도 "부울경 초광역협력 전면 재검토 아냐" BTS콘서트 맞아 부산 밤하늘 보랏빛으로 물들다 최신기사 안윤모 작가의 '세상의 다리 ' 프로젝트 안윤모 작가의 '세상의 다리 ' 프로젝트 네이버, 직장내 괴롭힘 늦장 조사, '특별근로감독' 및 '국정감사' 회피 네이버, 직장내 괴롭힘 늦장 조사, '특별근로감독' 및 '국정감사' 회피 군포시, 동절기 코로나19 개량백신 추가접종 진행 군포시, 동절기 코로나19 개량백신 추가접종 진행 정진석 "조선, 日 침략으로 망한 것 아냐"…민주당 "역대급 망언" 정진석 "조선, 日 침략으로 망한 것 아냐"…민주당 "역대급 망언" 대전 대덕구, 환경오염물질 배출 감시 ‘드론’이 뜬다 대전 대덕구, 환경오염물질 배출 감시 ‘드론’이 뜬다 Tweets by newsfreezone1 하단영역 하단메뉴 매체소개 이용약관 기자윤리강령 뉴스프리존 윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리제도 NF통신 매체정보 NF 통신 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 문화 나 00037 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 편집국 : 02-2235-2114 이메일 : newsfreezone@naver.com 뉴스프리존 매체정보 뉴스프리존 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 서울, 아01001 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 청소년보호책임자 : 이혜진 이메일 : newsfreezone@naver.com Copyright © 2022 뉴스프리존. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사·배포 등을 금합니다. 위로 해당 언어로 번역 중 입니다.</t>
+  </si>
+  <si>
+    <t>제주도 찾는 국내 관광객 늘었지만…지갑은 닫았다 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도 찾는 국내 관광객 늘었지만…지갑은 닫았다 등록 2020.01.26 08:00:00 작게 크게 지난해 10월 내국인 관광객 125만명, 전년 동기보다 11.2%↑ 제주서 사용한 신용카드 사용액 상승률 11.7%에서 1.7%로 급감 【제주=뉴시스】제주국제공항 입국장에 들어서는 관광객. (사진=뉴시스DB) 【제주=뉴시스】배상철 기자 = 제주도를 찾는 내국인 관광객이 늘고 있지만 사용하는 돈은 줄어든 것으로 나타났다. 여행을 즐기는 밀레니얼 세대가 가성비를 중시하고, 다니는 여행보다 머무는 여행을 선호하는 패턴에 따른 결과라는 분석이다. 26일 제주관광협회에 따르면 지난해 10월 제주를 찾은 내국인 관광객은 125만4419명으로 전년 동기(112만8247명)보다 11.2%(12만6172명) 늘었다. 반면 같은 기간 내국인 관광객이 제주에서 사용한 신용카드 사용액 상승률은 11.7%에서 1.7%로 급감했다. 이는 한국은행이 업무협약을 체결한 신한카드와 하나카드 자료를 분석한 결과다. 관광업계는 일본 여행 불매 운동이 확산하면서 제주를 찾는 내국인 관광객이 늘어난 것으로 보고 있다. 저렴한 제주행 항공료도 내국인 관광객의 발길을 붙잡는 데 영향을 미쳤다는 분석이다. 하지만 내국인 관광객이 제주에서 쓰는 돈은 크게 줄었다. 가장 큰 이유는 여행을 즐기는 밀레니얼 세대(1981~2000년 사이 출생)가 가격 대비 성능을 중시하는 소비 패턴을 보이고 있어서다. 다니는 여행보다 머무는 여행을 즐기면서, 제주문화 체험과 맛집 투어 등에는 소비하지만 쇼핑과 레저 등의 분야에서는 지갑을 열지 않는 것도 원인으로 꼽힌다. 실제로 내국인 개별 여행객의 1인당 지출경비 가운데 식음료비가 차지하는 비중은 2017년 23.1%에서 2018년 27.2%로 증가했다. 반면 같은 기간 숙박비는 21.4%에서 18.8%로, 쇼핑비는 15.0%에서 12.2%로 하락했다. 특히 숙박비의 경우 과당 경쟁에 따른 가격하락에 더해 ‘한 달 살이’ 등 장기체류 관광객이 늘면서 신용카드 지출이 크게 줄고 있다. 한국은행 관계자는 “여행 트렌드 변화를 수시로 모니터링해 관광 및 제주경제에 미치는 영향을 분석하고 대응 방안을 모색할 필요가 있다”고 조언했다. ◎공감언론 뉴시스 bsc@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 43분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 김주형은 될성부른 나무…한국 무대서도 최연소 기록 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 파주시, 12월까지 긴급복지지원제도 확대 지원 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 광주 물 관리-지하시설물 중복 관리 "대책 시급"(종합) 정무위 국감… 野, 김건희 도이치 의혹에 "이복현 입장 내놔야" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 이복현 금감원장, 우리은행 횡령에 "있을 수 없는 일" 씨아이에스, 195억 규모 2차전지 전극공정 장비 공급계약 체결 롯데케미칼, 일진머티리얼즈 주식매매계약 체결 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, GS25 전용 빵빠레 샌드 카스타드 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 BAT "궐련형 전자담배 전환시 연초 대비 '위해 저감' 효과" 주장 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 울산 청년 여성 10명 중 2.4명 매년 떠나…학업·취업 기회 부족 '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 연세대 고등과학원, 노벨상 수상 석학 초청 행사 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 물품 대금 5억 빼돌린 안성 지역농협 직원 자수...검찰 송치 [안성소식] 시, 하반기 농민기본소득 지급 등 수원시, 빅데이터 활용 ‘맞춤형 체납 징수’ 나선다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 대구폴리텍대, 대구옥외광고·울산옥외광고 대상전 잇따라 수상 청도군 "가을밤 코미디와 함께 반시 맛 즐겨보세요" 김대중컨벤션센터서 광주식품대전 개막…13~16일 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>춘제 中관광객 3만명 제주도行… 설 앞두고 우한폐렴 확산 `비상` - 디지털타임스 디지털타임스 네이버 뉴스스텐드 구독 채널 구독 뉴스 정치 경제 산업 ICT과학 금융 부동산 국제 피플 방송연예 오피니언 대학소식 동영상 에게 고견을 듣는다 검색 통합검색 닫기 춘제 中관광객 3만명 제주도行… 설 앞두고 우한폐렴 확산 `비상` 조사대상 유증상자 4명 검사중 명절 사람 몰리는 공항·터미널 '사람 간 전염' 방역 비상태세로 질본 "지역사회 대응체계 총력" 김동준 기자 입력: 2020-01-22 18:33 우리나라와 중국의 최대 명절인 설이 다가오면서 중국발 신종 코로나바이러스인 '우한 폐렴'의 국내 확산 차단에 비상이 걸렸다. 22일 현재 질병관리본부에 따르면 '우한 폐렴' 조사대상 유증상자 4명이 검사를 받고 있다. 현재 유증상 환자는 16명이다. 1명은 확진을 받고 격리 치료 중이다. 이 같은 상황에서 이동이 많은 중국 춘제(24∼30일)와 우리나라 설 연휴(24∼27일)가 다가오는 것이다. 이번 폐렴은 사람 간 전염이 되고 있다. 검역 당국은 춘제를 맞아 중국 관광객들이 몰려들 공항과 항만에 가용 장비와 인력을 최대한 투입하는 등 초긴장 상태를 유지하며 폐렴 차단에 총력을 펴고 있다. ◇ 전국 하늘 길 검역 비상태세 돌입=질병관리본부가 20일 감염병 재난 위기 경보 수준을 '관심'에서 '주의'로 격상하면서 22일 현재 인천공항과 김포공항의 모든 승객에 대해 발열 전수조사가 진행되고 있다. 검역 당국 관계자는 "체류, 방문 장소 등 여러 역학 정보를 종합적으로 검토해 감염이 의심되면 환자를 격리할 수 있다"고 설명했다. 김해공항 검역소는 우한 폐렴이 발생한 중국 후베이성을 잇는 직항 노선은 없지만, 중국 내 다른 노선 등 제3 지역 경유 입국 가능성을 배제할 수 없어 방역을 한층 강화했다. 검역업무에 중국인 통역원 3명을 긴급 증원하고 전체 입국자를 대상으로 발열 여부를 감시하고 조금이라도 이상 징후를 보이는 이용객이 보이면 직접 체온 측정을 하고 있다. 춘제 기간 3만명이 넘는 중화권 관광객이 제주도를 찾을 것으로 예상되는 제주국제공항은 그야말로 초비상이다. ◇ 전국 바닷길도 비상=인천과 중국 10개 도시를 연결하는 인천항 국제여객터미널도 검역 전쟁준비태세에 돌입했다. 인천항은 보따리상으로 불리는 소상공인들의 이동이 많아 방역이 더욱 취약할 수 있다. 이날 인천항 제1국제여객터미널에 입항한 중국 산둥성 스다오발 카페리에서는 100여명이 하선했다. 터미널은 발열 감시카메라를 평소보다 더 꼼꼼하게 운영하고 이상 징후가 보이면 추가 체온 측정을 하는 방식으로 입국 수속을 밟았다. 평소 입·출국 인원이 하루 500∼600명에 이르는 군산국제여객선터미널도 비상 방역체계에 들어가 열화상 카메라 운영 업무를 대폭 강화했다. 부산항국제여객터미널도 대합실 내 50여개 모니터를 통해 우한 폐렴 관련 안내 사항을 안내하고 긴장감을 늦추지 못하고 있다. ◇전국 발병 현황은=현재까지 국외에서 우한 폐렴이 발생한 현황을 보면 중국 455명, 태국 4명, 일본 1명, 대만 1명, 미국 1명이 각각 신고됐다. 이들 환자는 모두 우한시에서 유입된 환자로 확인됐다. 국내에서는 이날 오전 현재 16명의 유사 증세를 보여 검사를 받고 있다. 이날만 4명이 검사를 받았다. 1명은 확진을 받아 격리 치료중이다. 비교적 안정적인 상태인 것으로 전해졌다. 질본 관계자는 "중국 춘절기간 중국 입국자의 증가로 지역사회 발생 위험이 높아질 것으로 판단된다"며 "지역사회 대응체계 중심으로 총력 대응하겠다"고 말했다. 김동준기자 blaams89@dt.co.kr [저작권자 ⓒ디지털타임스 무단 전재-재배포 금지] 관련기사 [사설] 설 대이동 目前 `우한폐렴` 초비상… 방역 빈틈 없어야 설 앞두고 우한 폐렴 방역 비상 `우한 폐렴` 증상자 4명 추가...`검사중` 미국서도 첫 `우한 폐렴` 환자 발생…"현재 안정적인 상태" 핫 이슈! 세금방석 위에서 외치는 표현의 자유?[한기호의 정치박박] [이규화의 지리각각] `더라인`, 끝판왕 도시인가 초호화 감옥인가 [객석] 네 줄의 현으로만 느끼는 바흐… 세 번째 계절 때맞게 무르익네 [THE GAME] 언디셈버부터 퀀텀나이츠까지… 라인게임즈 야심작, 판 흔든다 이 시간 핫클릭 당정, 여성계 의견 청취 등 여가부 폐지 속도… 민주당 강력 반발 조경태 "국회의원 면책특권 없애야" 국힘 "文 4대강 감사지시 불법, 靑민정실 회전문 인사야말로 감사원 독립 훼손" 가처분 완패 이준석… `신당 창당` 고행길 걷나 가장 많이 본 기사 문화일보 핫 뉴스1[단독]새만금 풍력 7200배 수익올린 교수…애초부터 中에 지분넘길 계획이었다 2신혜성, 도난차량으로 음주운전 인정...“죄송하다” 3경찰, 지난 주말 이준석 소환조사… 주중 송치여부 결정 4미 서부 명문 스탠퍼드대학서 대낮 성폭행 사건 잇따라 5박수홍 부친이 불붙인 ‘친족상도례’ 논란 회사소개 고충처리 구독신청 사업제휴 콘텐츠제휴 광고안내 개인정보취급방침 청소년보호정책(책임자 : 손치배) 서울특별시 중구 새문안로22 ☎ 02) 3701-5500 등록번호 : 서울 아01699 등록일자 : 2011.07.15 발행일 : 2000.03.03 발행인/편집인 : 박학용 THE DIGITALTIMES Copyright ⓒ The DigitalTimes. All Rights Reserved. ☎ 02) 3701-5500 Please forward any comment to webmaster</t>
+  </si>
+  <si>
+    <t>스포츠서울 - 여기어때, '제주·렌트' 카테고리 신설...제주도 관광객 상품 강화 여기어때, '제주·렌트' 카테고리 신설...제주도 관광객 상품 강화 입력2020-01-22 12:34 수정2020-01-22 12:33 액티비티·숙박 전문 서비스 여기어때가 ‘제주·렌트’ 카테고리를 추가하고 다양한 제주 특화 상품을 선보인다.  제공 | 여기어때 [스포츠서울 이상훈 기자] 여기어때가 제주 여행을 위한 특별한 상품 카테고리를 마련했다. 렌터카는 물론, 다양한 액티비티 상품을 포함해 제주 여행을 위한 완벽한 상품 라인업을 구성했다. 국내 대표 종합숙박·액티비티 예약서비스 여기어때(대표 최문석)는 앱 내 액티비티 부문에 ‘제주·렌트’ 카테고리를 추가했다. 차종별로 구매하는 렌터카 이용권과 제주 지역 액티비티 티켓 등 총 530여개 상품이 등록됐다. 박물관, 아쿠아리움 같은 대형시설 입장권은 물론이고, 옥돔 낚시나 다이빙 체험 같은 다이내믹한 현지 특화 상품도 여행객을 기다린다.제주도는 지난해 1520만명이 넘는 여행객이 방문한 우리나라의 대표 여행지다. 아름다운 풍경과 다채로운 놀거리, 해외 대비 부담 없는 비행시간으로 국내여행객의 관심을 받는다. 황귀상 여기어때 액티비티 팀장은 “제주도는 올 설 연휴에도 숙박 예약이 가장 많은 여행지 중 하나”라며 “렌터카 상품을 추가 확대해 이동부터 놀거리까지, 고객에게 특별한 경험을 지원할 것”이라고 밝혔다.한편, 여기어때는 설 연휴를 맞아 ‘설연휴 액티비티 특가전’도 진행한다. 이번 기획전은 가족 단위로 방문할 만한 아쿠아리움, 스파, 놀이공원, 스키장 등 40여개 상품으로 구성됐다. 액티비티 전용 쿠폰을 조건에 따라 적용하면, 최대 60%까지 할인 받을 수 있다. 행사는 27일까지 진행된다.이 밖에 여기어때는 “따뜻한 스파에 몸을 담근 채 연휴를 즐기고 싶다면 ▲파라다이스시티 씨메르 ▲파라다이스 스파 도고 ▲롯데리조트 부여 아쿠아가든 ▲아산 스파비스 등이 제격이다. 신비로운 분위기의 사진을 남기고 싶다면 ▲코엑스 아쿠아리움 ▲아쿠아플라넷 63 ▲부산 아쿠아리움 ▲휘닉스평창 스노우빌리지 등을 방문할 만하다”고 조언했다. party@sportsseoul.com ▶ 디지털 뉴스콘텐츠 이용규칙 보기 0 오늘의 핫키워드 김지민 l 선우은숙 재혼 l 신혜성 l 오은영 박사 인기기사-네이버 '쌍둥이 임신?' 김지민, 열애 공개한 이유가.... 선우은숙, 4세 연하 유영재 아나와 재혼 역시 만능! 임창정, 연예인골프대회 3위 7kg 감량 홍진영, 초미니로 뽐낸 각선미 외도 70대 노부부...오은영도 할 말 잃었다 '이정후 절친' 고우석, 이종범 사위 된다 '이상화♥' 강남, 장모와 XX수술도 같이해 신혜성, 도난차량서 음주측정 거부로 '체포' 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 영상 포토 페이스북 트위터 카카오톡 구글플러스 카카오스토리 밴드 TOP 뉴스 1/2 이전 다음 맥심 선정 '세계 최고 섹시 미녀' 골프선수 중 타이거 우즈보다 팔로워 수가... 강민경, '65억' 매입 신사옥으로 이사 강민경이 신사옥으로 이사한다... 신세경, '헉' 소리 나는 베이글 여신 배우 신세경이 여신 같은 아름다움을... 호주 가라테 국대 출신, 남심 저격 호주 가라테 국가대표 출신으로 모델과... 과감 누드 화보 찍은 '91세' 최고령 모델 미국은 물론이고 전세계를 통틀어... 16살인데...이동국 딸, 넘사벽 성숙미 축구스타 이동국의 딸이자 모델 재시가... 부산국제영화제 레드카펫, 최고의 여신은? 부산국제영화제 레드카펫은... '아이언맨'의 그녀, 50세 기념 누드 배우 기네스 팰트로가 50세 생일을 기념한... SS TV 캐스트 구독하기 스포츠서울 SNS 스포츠서울 앱 살펴보기 스포츠서울 서울가요대상 Android 서울가요대상 IOS [사고]2022 제11회 전국 중.고 인문학 경진대회 X</t>
+  </si>
+  <si>
+    <t>"롯데관광개발, 제주도 소상공인 지원…상생협력 프로젝트 가동"- 헤럴드경제 기후위기시계 × News 정치 경제 사회 국제 IT/과학 생활/문화 연예/스포츠 오피니언 지역뉴스 호남취재본부 대구&amp;경북 PR Newswire Special Section D;Con HeMil(밀리터리) Global Insight ●실시간 뉴스 기획기사 포토 신문구독 뉴스레터 뉴스 롯데관광개발, 제주도 소상공인 지원…상생협력 프로젝트 가동 2020.01.22 11:56 제주신용보증재단과 협력해 소상공인 대상 60억 특별 보증 4월 드림타워 개장 맞춰 본사 이전…"일등 향토기업 역할할 것" 제주 드림타워 모습. [롯데관광개발 제공][헤럴드경제=박일한 기자] 제주도에 복합리조트 '드림타워'를 짓고 있는 롯데관광개발이 지역 상생협력의 일환으로 소상공인 지원에 적극 나서기로 했다.롯데관광개발은 22일 제주 지역 소상공인을 위해 하나은행과 함께 제주신용보증재단에 각각 2억원씩 총 4억원을 출연키로 했다고 밝혔다.제주신용보증재단은 해당 출연금을 바탕으로 제주 지역 소상공인을 상대로 출연금의 15배인 60억원을 특별 보증할 예정이다.담보 여력의 부족 등으로 금융서비스를 받기 힘든 제주 지역 소상공인들이 저금리 대출 뿐 아니라 특례 보증까지 받을 수 있는 기회가 열린 셈이다.오인택 제주신용보증재단 이사장은 “제주 지역의 경우 소상공인 사업체가 전체 사업체의 86.7%나 차지하는 상황에서 이번 출연은 대기업과 소상공인간 상생협력을 위한 좋은 모델이 될 것”이라고 말했다.롯데관광개발은 이와 별도로 제주소상공인경영지원센터와도 조만간 업무협약을 체결하고 창업 지원은 물론 건강증진 및 입시컨설팅 등 복지사업에 이르기까지 다양한 지원사업을 하기로 했다.롯데관광개발 오는 4월 드림타워 개장에 맞춰 등기 이전 등 본사 이전 절차를 마무리할 계획이다.롯데관광개발 관계자는 "일등 향토기업의 소임을 다하기 위해 소상공인을 위한 보다 많은 상생협력 방안을 마련해 지속적으로 실천해나갈 계획"이라고 말했다.jumpcut@heraldcorp.com 맞춤 정보 당신을 위한 추천 정보 많이 본 정보 오늘의 인기정보 이슈 &amp; 토픽 비즈 링크 회사소개 광고 및 제휴 안내 구독신청 인재채용 개인정보취급방침 이용약관 저작권규약 고충처리인제도 이메일수집거부 FAMILY SITE FAMILY SITE 코리아헤럴드 헤럴드POP K-POP헤럴드 리얼푸드 헤럴드에코 헤럴드디자인 더인베스터 (주)헤럴드 주소:서울시 용산구 후암로4길 10 헤럴드스퀘어 제호:헤럴드경제 인터넷신문등록번호:서울 아03710 발행인ㆍ편집인:전창협 청소년보호책임자:홍승완 대표전화:02-727-0114 | 독자문의 : 1588-0533 Copyright Herald Corporation. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>남해, 제주도 관광을 벤치마킹 나서다 - 부산일보 로그인 회원가입 지면보기 모바일보기 메뉴펼치기 사회 사회 교육시험 정치 정치 세계 경제해양 경제해양 해양수산 부동산 자동차 IT월드 문화 문화 문화 라이프 라이프 맛 헬스 여행 산&amp;길 시리즈 스포츠 스포츠 롯데자이언츠 야구 해외야구 축구 해외축구 골프 오피니언 오피니언 사설 밀물썰물 논설위원의 시선 논설위원의 뉴스 요리 임성원 칼럼 박종호 칼럼 강병균 칼럼 이병철의 인사이트 곽명섭의 플러그인 강윤경 칼럼 김건수의 지금 여기 임광명의 정견만리 김승일의 디지털 광장 편집국에서 데스크칼럼 노트북단상 기자전문칼럼 바른말광 기자일기 독자광장 독자의눈 기고 오늘을 여는 시 김필남의 영화세상 조준현의 사람사는 경제 공감 월요칼럼 화목칼럼 수요칼럼 금요칼럼 시론 경남울산 경남울산 울산 동부경남 중부경남 서부경남 사람들 사람들 인사 부고 펫플스토리 펫플스토리 전체보기 펫영상 펫스토리 스타의 펫 펫정보&amp;팁 펫칼럼 공지사항 펀부산 펀부산 부산맛집 산들산들 문화관광 해피존 닥터큐 톡한방 부산시정뉴스 가장 많이 본 뉴스 2022.10.11 (화) 닫기 남해, 제주도 관광을 벤치마킹 나서다 가 입력 : 2020-01-22 17:06:09 이선규 기자 sunq17@busan.com 부산닷컴 기사퍼가기 제주도청 관계자, 스타트업 관계자 등 초청,4일간 지역 관광활성화 위한 토크콘서트 가져 노희섭 제주도청 미래전략국장이 21일 남해군 유배문학관에서 스마트 아일랜드사업을 소개하고 있다. 남해군 제공 경남 남해군이 지역 관광산업 활성화 전략 수립에 제주도의 혁신사례에 주목해 눈길을 끈다.제주도가 같은 섬이라는 지리적 한계를 오히려 특성화하고, 청년 리턴족과의 협력을 통해 ‘스타트업’을 성공적으로 육성해 좋은 벤치마킹 대상이기 때문이다.남해군은 18일부터 21일까지 4일간 제주도청 노희섭 미래전략국장을 비롯해 빈집 공유 플랫폼인 다자요 남성준 대표, 코리아스타트업포럼 최성진 대표와 황은아 기획팀장을 초청, 지역 관광정책 개발방안을 모색하는 시간을 가졌다.이들은 지난 18일부터 돌창고와 남해각, 힐링빌리지 조성 현장 등 남해 관광지 차례로 방문, 관광 여건을 살펴보고 20일 남해유배문학관에서 열린 토크콘서트를 열었다. 남성준 다자요 대표가 남해관광산업 활성화를 위한 청년 스타트 업 육성방안을 소개했다. 남해군 제공 이 자리에서 전문가들은 남해군의 관광사업종사자, 공무원들과 함께 남해군의 관광정책과 관광스타트업 육성 방안 등에 대해 의견을 나눴다.노희섭 제주도 미래전략국장은 ‘스마트 아일랜드, 다가오다’를 주제로 공공와이파이를 통해 수집된 관광객들의 이동경로와 체류시간 등을 활용하는 제주도의 ‘스마트 아일랜드’ 조성 사례를 소개하고, 빅데이터를 통한 부서 간 협업과 민‧관협력 모델 가능성을 제시했다.또 “관광 등 기존 사업에 긍정적인 영향을 줄 수 있는 것은 스타트업이며, 청년들이 원하는 일자리를 스타트업이 제공할 수 있다”며 스타트업 육성 정책 필요성도 강조했다.남성준 대표는 펀딩을 통해 빈집을 리모델링해 관광객들이 활용 가능한 공유공간으로 재탄생시키는 방안을 제시했다. 10년의 수익 창출 후 다시 소유자에게 환원하는 ‘다자요’의 스타트업 모델을 설명하고 사소한 변화를 통해 관광 수익을 창출할 수 있는 새로운 방안을 소개했다.또 남 대표는 남해의 접근성의 한계를 장점으로 전환하는 역발상에 따른 ‘누구나 올 수 없고, 아무에게나 허락하지 않는 섬’으로 차별화해 이미지 브랜드화하는 방안도 제안했다. 남해군 관계자는 “이번 스마트 아일랜드 조성 및 스타트업 육성 전문가 초청을 통해 남해 실정에 맞는 관광정책을 도출하고 이를 발전시켜 나갈 방침”이라고 말했다. 이선규 기자 sunq17@busan.com 이선규 기자 sunq17@busan.com ⓒ 부산일보(www.busan.com), 무단전재 및 수집, 재배포금지 당신을 위한 AI 추천 기사 ▶ 디지털 뉴스콘텐츠 이용규칙 [단독]“어머니, 어머니…” 떨리는 112 전화, 경찰이 눈치챘다 '쾅쾅쾅쾅쾅쾅쾅' 7대 들이받고 주차한 김해 80대 운전자 '엑셀 밟았다' '불꽃축제, 이 정도 뷰면 70만원' 아파트 대여 등장…부산불꽃축제 때도? 원전 인근 부산 학교 ‘학생용 방호복’ 한 벌도 없다 충북 기간제 교사, 중학생과 수차례 부적절한 관계 의혹 라이브리 댓글 작성을 위해 javascript를 활성화해주세요. 당신을 위한 PICK 오늘의 추천 뉴스 부산공동어시장 ‘바닥 위판’ 2025년 사라진다 "부산시 보호종료아동 자립정착금, 7대 도시 중 최저 수준" 깜짝 투수로 등판한 조선의 4번 타자, 영화 같은 22년 마무리 지역 반발 높은데… 한수원, 건식저장시설 건설 일정 ‘일방 확정’ [BIFF] 열띤 축제의 한가운데… 별들의 바다, 관객들 환호 출렁이다 [BIFF] “5년 지난 지금도, 영화제에 그가 없다는 게 믿기지 않아요” 1년 4개월 만에 ‘강제 퇴장’ 이준석, ‘비윤 세력’ 결집 나서나 부산 경찰 “교차로 우회전 일시 정지, 당분간 계도 계속” FUN 부산 펫플 스토리 [반려동물과 여기 어때] 광안리 ‘핫플’ 3곳 부산여자대학교 반려동물과 내달 6일까지 수시 1차 접수 우리 절대 물지 않는다? 견주들 과한 자신감부터 버려라 바로가기 펫플스토리 바로가기 전체보기 펫영상 펫스토리 스타의 펫 펫정보&amp;팁 펫칼럼 비즈 Biz 대선주조-부산시, 지역축제 활성화 위해 5억 원 지원 협약 (주)경성리츠, 저소득 가정 아동 온누리 상품권 지원 부산 라발스호텔, 가을맞이 '야놀자라이브' 진행...코너룸 라이브 특가로 첫 선 바로가기 비즈 Biz 바로가기 전체보기 CEO와 차 한잔 비즈Biz칼럼 / 동정 비즈Biz포럼 비즈Biz란 톡한방 TV [한방정보]장마철 더해지는 교통사고 후유증, 입원 시기 중요 바로가기 톡한방TV 바로가기 톡한방 추천한의원 톡!한방 칼럼 톡한방 정보 톡한방 한의원 소식 톡한방 상담실 해양소식 웹매거진 한국 전담 무역특사 존 위팅데일을 만나다 바로가기 해양소식 | 웹매거진 바로가기 해양소식 | 웹매거진 바로가기 청년기업 소식 국민커피 더리터, 가맹점에 집중호우 수해 복구를 위한 커피 원두 지원 기업 바로가기 동아인코팜 달리미술관 이상커뮤니케이션 포인트넛 부산365mc 바이오플러스 씨엔컴퍼니 제비표우의 왕신 알시스쾌어 오렌슈츠 아이피텍코리아 제이컴즈 폴짝센터 헬씨코 린치핀 리더스손해사정 우양미술관 희천 프리젠트 보라공사 도시농사꾼 동네북 소식 얘들아, ‘연제구 아이사랑뜰’에서 놀자 바로가기 | 구청 바로가기 | 강서구 동래구 사상구 사하구 부산진구 금정구 중구 해운대구 수영구 영도구 북구 남구 동구 서구 기장군 연제구 | 경남울산 바로가기 | 울산시청 김해시청 창원시청 거제시청 양산시청 대학 소식 부산가톨릭대학교 물리치료학과, 2022년 대한PNF학회 우수 논문 공모전 학생부문 최우수상 수상 바로가기 | 대학소식 바로가기 | 동서대학교 경성대학교 인제대학교 부산외국어대학교 신라대학교 부산교육대학교 동명대학교 부산가톨릭대학교 부경대학교 화신사이버대학교 부산대학교 고신대학교 영산대학교 가야대학교 동아대학교 동의대학교 한국해양대학교 부산디지털대학교 | 전문대소식 바로가기 | 동의과학대학교 부산경상대학교 경남정보대학교 부산과학기술대학교 부산여자대학교 동주대학교 대동대학교 한국폴리텍대학부산캠퍼스 부산시정뉴스 '제23회 부산 국제관광전(BITF2022)' 개최 바로가기 부산시정뉴스 바로가기 뉴스인뉴스 캠코, 신조펀드 지원 3호 선박 ‘DAT Mercury’호 명명식 개최 바로가기 기관소식 바로가기 부산정보산업진흥원 동래여성인력개발센터 한국국제협력단 부산인재평생교육진흥원 벡스코 한국청소년상담복지개발원 한국수력원자력 부산테크노파크 국민건강보험 부산항만공사 부산광역시소방안전본부 부산관광공사 해운대여성인력개발센터 한국토지주택공사 기술보증기금 부산국제교류재단 부산환경공단 한국환경공단 렛츠런파크 한국국토정보공사 부산연탄은행 한국건강관리협회 한국자산관리공사 사하여성인력개발센터 동구여성인력개발센터 부산농협 부산지방우정청 부산도시공사 한국수산자원공단 터치뉴스 부산일보 강당 대관안내 부일CEO아카데미 안내광고 보기 신문전시관 고충처리인·독자위원회 [48789] 부산시 동구 중앙대로 365 (수정동) ｜ 전화번호 : 051)461-4114 ｜ 이메일 : webmaster@busan.com 등록번호 : 부산아00091 ｜ 등록일자 : 2011년 5월24일 ｜ 발행·편집 겸 인쇄인 : 김진수 ｜ 청소년보호책임자 : 박영홍 모든 콘텐츠를 커뮤니티, 카페, 블로그 등에서 무단 사용하는것은 저작권법에 저촉되며, 법적 제재를 받을 수 있습니다. COPYRIGHT (C) 2016 부산일보사 ALL RIGHTS RESERVED.</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 14:45 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N2 이전 다음 제주도, 관광진흥기금 부과 위한 카지노 매출액 조사 나선다 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 경제 제주도, 관광진흥기금 부과 위한 카지노 매출액 조사 나선다 홍석준 기자 승인 2020.01.23 11:27 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 국제 경쟁력 강화 차원 표준화된 운영기준도 제정‧시행키로 카지노 전경. [미디어제주 홍석준 기자] 제주도가 카지노 산업의 투명성을 확보하기 위해 카지노 매출액 조사를 강화하고 표준화된 운영기준을 제정, 시행하는 등의 방안을 추진하기로 했다. 제주특별자치도는 올해 카지노 산업에 대한 체계적인 관리‧감독을 위해 관광진흥기금 부과를 위한 카지노 매출액 조사 등 5대 사항을 중점적으로 지도‧점검할 계획이라고 23일 밝혔다. 올해 중점적으로 점검하게 될 사항은 해외 이주자들의 입장 절차 이행실태, 카지노 전자게임 및 전자테이블 운영 현황, 투명한 외국환 거래질서 확립을 위한 크레딧 운용 실태, 자금세탁 방지 체계 구축을 위한 검사 등이다. 이같은 지도‧점검 외에도 제주도는 카지노 산업의 국제 경쟁력 강화를 위해 3가지 표준화된 운영 기준을 마련, 시행할 예정이다. 우선 카지노 사업장에 대한 상시적인 현장 지도와 감독 사각지대를 방지하기 위해 ‘카지노 영상정보처리기기 설치 및 관리규정’을 의무화해 올해부터 시행하고 있고, 지난해말 고시된 ‘카지노 프로모션 운영규정’도 다음달부터 시행하게 된다. 아울러 카지노 영업장 질서 유지와 고객 및 종사원들의 권익 보호를 위해 카지노 고객 분쟁조정제도와 이용자 보호 규정을 제정하기로 했다. 또 카지노에 대한 도민사회 인식을 개선하고 상생 협력을 위한 카지노 산업 활성화 정책도 추진한다는 계획이다. 한편 제주도는 카지노 현장 점검반을 구성, 고객들이 집중되는 시간대에는 점검반을 상주시키고 주간과 야간 불시 현장 감독과 유관기관 합동 점검 등을 통해 물 샐 틈 없는 지도‧감독 체계를 구축해 나간다는 계획이다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 홍석준 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 6코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>2월 제주도 관광 10선...놓치면 후회할 여행코스는? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 2월 제주도 관광 10선...놓치면 후회할 여행코스는? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 2월 제주도 관광 10선...놓치면 후회할 여행코스는? 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2020.01.22 09:29 댓글 2 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주관광공사(사장 박홍배)는 20일 ‘2월 제주, 먼저 온 봄기운에 마음 돌랑돌랑 두근두근하다는 의미의 제주어’이라는 테마를 주제로 자연, 축제, 관광지, 음식 등 다양한 분야에서 놓치지 말아야 할 2020년 2월 제주 관광 추천 10선을 발표했다. 1. 가장먼저 제주에서, 마음모아 봄을 열다 – 탐라국입춘굿축제, 칠머리당영등굿 제주의 봄을 여는 축제 하나, 탐라국 입춘굿 축제. 낭쉐(나무로 만든 소)를 끌며 한해의 풍년과 안녕을 기원하던 의미와 역사 담긴 이 행사는 제주도가 꼽은 올해의 최우수 축제. 본행사가 진행되는 2~4일, 제주목관아와 제주시 일대에 거리굿, 열림굿, 입춘굿이 차례로 펼쳐지며 입춘 춘첩쓰기, 솟대・전통가면 만들기 같은 체험과 민속놀이, 향토음식 나눔 등도 마련된다. 바람의 섬 제주에는 바람의 신에 대한 특별한 믿음이 전해온다. 음력 2월 초하루 서쪽해안으로 들어와 보름께 동쪽으로 나가기까지, 제주 구석구석 땅과 바다에 씨앗을 뿌리는 영등할망에게 풍요와 무사안녕을 비는 것. 그 대표격인 제주 칠머리당 영등굿은 유네스코 인류무형문화유산에 등재되어 있다. 올해 영등 드는 날 환영제는 2월 24일, 송별제는 3월 8일에 열릴 예정. 함께 봄을 부르며 더불어 풍요로워지는 특별한 시간이 곧 모두에게 다가온다. ‣탐라국입춘굿 : 제주목관아와 제주시 일대. 2월 2~4일(사전행사 1월 27일~) ‣칠머리당 영등굿 : 2월 24일 09시~15시, 제주시 수협어판장(영등환영제) 3월 8일 9시~18시, 제주칠머리당 영등굿 전수관(영등송별대제) ‣제주칠머리당 영등굿 전수관 : 제주시 사라봉동길 58 2. 돋아난 봄기운에 두근두근 나의 봄날– 매화축제 아직 뻣뻣한 나뭇가지를 뚫고 비죽 솟은 꽃봉오리. 그 작지만 은근하고 강한 힘이야말로 예로부터 칭송받아온 매화의 인기비결인지 모른다. 가장 먼저 봄을 가져오겠다는 듯, 추위에도 아랑곳 않고 제 길을 걷는 매화는 훈풍 먼저 일렁이는 서귀포에서부터 소식을 전해온다. 누구나 찾는 도심공원과 생태공원 산책로를 따라 스스로 핀 매화는 소박해서 친근하고, 야심찬 기획으로 2월 초순부터 이어지는 테마공원의 매화축제는 강렬하게 다가온다. 매화 흐드러진 공원에서 찾는 보물과 각종 만들기 프로그램, 먹을거리 체험도 풍성. 축제기간 입장료를 할인하는 곳도 있다. 곳에 따라 개화 시기는 제각각 다를지라도 매화가 전하는 매력만은 장소불문 차고 넘친다. 햇살 받은 꽃잎, 그윽한 매화향에 취해 사뿐 사뿐 걸으며 올 한해도 너나없이 꽃길예약. ‣걸매생태공원 : 서귀포시 서홍로 4-42 (서홍동) ‣휴애리자연생활공원 : 매화축제(2/7~3/8) 서귀포시 남원읍 신례동로 256 ‣노리매 : 매화축제(2./1~3/1)서귀포시 대정읍 중산간서로 2260-15 3. 환경을 사랑할 줄 아는 특별한 사람들의– 예래생태마을 색달동과 상예, 하예동을 관할하는 행정동 예래동은 감귤농사와 어업이 이뤄지는 농어촌 마을이자 중문관광단지가 자리한 제주관광의 중심지. 마을을 지켜준다는 사자 ‘군산’과 구시물, 애기업개돌이 마을을 굽어 살피고 해안을 따라 절경이 펼쳐지는 마을 포구에는 마을사람의 평온을 빌며 세운 명물, 진황등대도 있다. 환해장성과 당포연대 등 오랜 역사만큼 문화유적도 다양하며 대왕수천의 풍부한 물과 깨끗한 환경으로 가장 먼저 반딧불이 보호지역으로 지정되기도. 에코파티와 생태 체험 축제를 통해 자연과 문화가 살아 숨 쉬는 마을로 인정받는 지금, 찬란한 봄날의 한가운데 펼쳐질 등문화축제에서 소원 풀어낼 기대감도 조금씩 자라나기 시작한다. 마을해설사가 이끄는 투어와 자연체험장을 갖춘 생태체험관까지 예래동을 말할 때 떠오르는 것이 한둘이 아닌 건 어쩌면 자연스러운 현상일지도 ‣예래동 : 서귀포시 예래동 ‣예래생태체험관 : 서귀포시 예래로 213 4. 나랑 별 보러 가지 않을래?– 기간한정 행복을 주는 별, 노인성 아직은 차가운 밤하늘, 오리온자리 아래 시리우스를 따라 남쪽바다로 향하다 수평선 근처에서 희미한 별을 찾았다면? 다름 아닌 노인성이다. 오래도록 불려온 그 이름에는 사람이 나이가 들며 완전하고도 이상적인 인간이 되어간다는 의미가 담겨 있고 남반구에서는 흔하지만 우리나라에서는 귀하기에 길흉화복과 무병장수를 관장하고 천하태평과 복을 빌어준다고 알려져 있다. 겨울철 별자리에 속하며 11월에는 새벽녘에 보이다가 2월에서 3월 초 저녁시간에 관측 가능. 이 별을 보려면 남해안 높은 산이나 제주를 찾아야 하는데 제주에서도 서귀포지역이 노인성 관측의 최적지이며 서귀포천문과학문화관이 노인성을 관측하는 국내유일 천문대. 이 별을 함께 보고 오래도록 행복할 수 있는 기회가 바로 지금 제주 서귀포에 열려있다니 벌써부터 심장이 두근두근. 월요일 휴관, 기상에 따라 관측이 어렵거나, 조기 폐관할 수 있으니 방문 전 사전 확인 필수. ‣서귀포천문과학문화관 : 서귀포시 1100로 506-1 (하원동) http://culture.seogwipo.go.kr/astronomy/ 5. 이른 봄, 푸르름을 그리는 당신에게– 대수산봉 올레 2코스의 일부인 이곳은 과거 물이 나던 산이라 하여 물뫼로 불리다가 크다를 더한 큰물뫼, 대수산봉이 되었다. 조선시대에는 봉수대가 있었다니 눈치 빠른 이들은 알아챘을까? 그만큼 멀리까지 내다보인다는 걸. 우도, 성산일출봉, 섭지코지와 지미봉, 말미오름이 보이고 근처 고성리, 오조리, 성산리의 마을 풍경도 조망 가능해 아는 사람만 아는 숨겨진 일출명소. 삼나무와 소나무로 이뤄진 숲 안에서는 겨울에도 푸릇함을 느낄 수 있고 탐방로 관리도 잘 되어 있는데다 곳곳에 쉼터와 운동기구를 구비하는 센스까지 장착! 등반에 소요되는 시간은 길지 않다. 휴식까지 넉넉잡아 한 시간, 3~40분이면 충분히 탐방가능. 여러 개의 등반코스 가운데는 계단이 있는 곳과 없는 곳, 가파름의 차이가 있고 입구에 주차장이 마련된 곳도 있다니, 미리 알아보고 형편 따라 선택하자. ‣대수산봉 : 서귀포시 성산읍 고성리 2039 ‣대수산봉 주차장 : 서귀포시 성산읍 고성리 1715-7 6. 제주가 품고 키운 생명의 기운 찾아 – 한라수목원 죽림원, 도내 다원들 겨우내 바래지 않은 초록이 그 가치를 드러내는 2월, 남쪽나라 제주는 먼저 봄을 입는다. 도민과 관광객 모두에 인기 만점인 한라수목원에서는, 평일 오전 10시와 오후 2시  마련된 숲해설로 휴식과 정보를 함께 얻고 대나무숲 죽림원도 거닐 수 있다. 신이대, 왕대, 제주조릿대, 죽순대까지 대나무 곁 산책로를 걷다보면 마음속 비밀 혹은, 일상의 스트레스를 털어낼 수도. 제주 곳곳 차밭의 그윽한 푸르름도 이미 봄이다. 거문 오름을 등에 업은 다원에서는 정갈하게 다듬어진 차밭의 초록을 배경삼아 조용히 산책하다 사진 찍기에 그만이요 유기농 차를 맛볼 수도 있다. 1100고지 주변 한적한 다원에서 진초록 융단 위 눈이불의 장관을 감상할 수 있고 녹차밭과 미로공원을 겸한 다원에는 낮은 단계부터 높은 단계까지 수준에 따른 미로 탐험과 염소 먹이주기가 있어 어린이 동반 가족에게 더욱 매력적. ‣한라수목원 (죽림원) : 제주시 수목원길 72 ‣올티스다원 : 제주시 조천읍 거문오름길 23-58 ‣제주다원(녹차미로공원) : 서귀포시 산록남로 1258 ‣도순다원 : 서귀포시 중산간서로356번길 152-41 7. 옛 사람들의 삶 찾아 떠나는 시간여행– 도내 유적지들 알고는 있을까, 우리나라에서 가장 오래된 신석기시대 문화유적이 고산리에 있다는 사실을! 세계지질공원 제주에서도 손꼽히는 지질트레일, 수월봉 품은 고산리는 지질학적 가치뿐 아니라 역사・문화적 가치도 높다. 고산리 유물은 한국 내륙에서 발견되지 않은 유물 조합상으로 후기 구석기와 초기 신석기의 연결고리이자 동북아시아의 초기 신석기문화를 살피는 훌륭한 자료. 청동기와 철기시대의 마을 모습은 삼양동에 있다. 도내 최대 규모 마을유적의 움집과 불 땐 자리, 둥그렇게 둘러앉은 마을 터부터 옛사람들의 의식주와 도구 생산 과정도 살펴보자. 모두가 언제든 찾도록 연중무휴・무료로 운영 중. 참고로 고산리와 삼양동 유적 모두 국가사적으로 지정돼 있다. 좀 더 신비로운 옛사람들의 삶을 원한다면? 탐라국 시조 삼신이 솟았다는 삼성혈이나 삼신과 삼공주의 혼례장소 혼인지를 찾아도 좋겠다. ‣제주고산리유적안내센터 : 제주시 한경면 노을해안로 1100 ‣제주삼양동유적 : 제주시 선사로 2길 13 ‣삼성혈 : 제주시 삼성로 22 ‣혼인지 : 서귀포시 성산읍 혼인지로 39-22 8. 추위 녹이던 온기와 색감, 마음도 녹여 – 식물이 있는 카페 화려한 조명과 장식, 혹은 무채색의 심플함 사이 당신의 취향은 어디쯤? 그 어느 쪽도 아니라면 나무 빛 실내에 푸릇푸릇한 식물이 숨 쉬는 카페는 어떨까. 아늑하고 조용하면서도 생기를 잃지 않은 공간들이 하나 둘, 우리 마음으로 가지를 뻗어오는 중. 인류가 자연을 얼마나 사랑하는지는 식물 앞에서 한결 평온해진 자신을 발견할 때 알 수 있다. 포근한 공간 안에 긴장을 풀어놓고 자연의 기운을 받고 싶다면 가드닝 카페 혹은 유리온실 카페들로 지금 떠나자! 입안 감도는 음료의 맛에 온몸을 감싸는 식물의 온기로 훈훈함이 더해질 것 . 혹시 카페, 베이커리, 인테리어에 관심이 있다면 ‘2020 제주카페스타’를 찾아도 좋다. 제주 유일의 전시인증 카페박람회라니 취향 따라 필요한 만큼 즐기다 오자. ‣그 계절 : 제주시 구좌읍 한동로 119 ‣인더그린 : 제주시 1100로 3198-20 ‣송당나무 : 제주시 구좌읍 송당5길 68-140 ‣2020 제주 카페스타 : 2월 27일(목)~3월 1일(일)/ 제주국제컨벤션센터 9. 꼼지락꼼지락, 손길 작품이 되다– 제주감성&amp;정성 듬뿍 체험클래스 제주에 왔다가 빈손으로 돌아간다고? 놉! 제주에서의 추억과 시간, ‘제주갬성’ 기념품 하나쯤은 챙기고 싶은 마음이야 누구나 비슷하다. 도내 곳곳 소품가게를 둘러보며 고심 끝에 고를 수도 있겠지만, 조금만 더 마음을 기울이면 내 손으로 제주 기념품을 만드는 방법이 보인다. 내가 디자인하고 만드는 유리공예, 내가 짓는 돌담액자와 나만의 손글씨, 색 조합에서부터 취향 저격하는 유리알 액세서리까지. 몇 시간의 투자로 세상 어디에도 없는 나만의 기념품이 완성된단다. 직접 발품을 파는데다가 만드는 동안 몰입의 기쁨이 더해지면, 여행 뒤에도 제주에서의 기억을 더 깊고 진하게 만들어줄 것. 어쩌면, 오래도록 아끼고 사랑하게 될 나의 새 여행메이트가 여기에서 탄생할지도. 많은 공방들이 SNS를 통해 소통하니 사전 문의와 예약은 ‘필수’되시겠다. ‣단순(유리공예) : www.instagram.com/dansooon ‣블롱카페(유리공예) : 제주시 노형5길 40 ‣달무지개(돌담액자+캘리) : 서귀포시 남원읍 신흥리 271-4 10. 원 없이 먹어보자 제주 생선– 생선모듬구이 해산물을 즐기지 않는 사람도 제주에 오면 회 한번쯤 먹듯, ‘육식형 인간’을 자부하는 누구라도 이곳에서만큼은 제대로 된 생선구이 한상 먹어보는 것 어떨까. 그동안의 생선구이에 대한 기억은 생선 두어 마리, 몇 조각이 전부였다고? 이제 여기서는 기대치를 조금 더 올려도 좋다. 감각적인 인테리어로 꾸며진 공간에서 코스 요리로 즐기는 생선구이집부터, 반찬과 돔베고기를 기본으로 해 계절에 맞는 모듬 생선을 쫙~ 펼쳐놓고 조금씩 맛보는 편안한 분위기의 공간도 있다. 혹시 누가 알까, 미처 몰랐던 생선 맛에 눈뜨거나 일생을 함께할 소울생선을 여기서 만나게 될 지! 고기도 먹어본 사람이 먹는다고 생선도 먹어본 사람이 먹는다는 말씀! 제주관광공사 관계자는 "제주의 2월은 누구보다 먼저 봄을 마주하길 바라는 마음이 커지는 시기"라며 "남녘의 보드라운 바람이 봄을 전하는 여행길을 함께 하자"고 전했다. 제주관광공사의 2020년 2월 추천 관광 10선은 제주관광정보 사이트(www.visitjeju.net)에서 자세히 확인할 수 있다. 문의 : 제주관광공사 지역관광처(064-740-6088) .&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 2 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 제주관광 2020-01-25 08:19:03 | 223.***.***.36 더보기 삭제하기 수정하기 원없이 먹기엔 너무 비싸 답글쓰기 1 1 생선구이 2020-01-23 21:51:06 | 121.***.***.206 더보기 삭제하기 수정하기 마지막 10번은 생선구이를 먹을수 있는 곳이 어디라는건지... 답글쓰기 8 0 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>[fn포토] 롯데관광개발 “제주도 여성 일자리 경력이음으로” - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; [fn포토] 롯데관광개발 “제주도 여성 일자리 경력이음으로” 파이낸셜뉴스입력 2020.01.23 11:47수정 2020.01.23 11:48 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 제주드림타워 복합리조트, 경력단절여성·미혼모 다문화가정 취업 문 확대 [제주=좌승훈 기자] 제주드림타워 복합리조트 준공을 앞두고 본사를 제주도로 옮기는 롯데관광개발(대표이사 회장 김기병)이 노사발전재단 제주중장년일자리희망센터·제주여성인력개발센터와 공동으로 22일 오후 2시 고용복지플러스센터 대회의실에서 도내 중장년과 경력단절 여성을 대상으로 제주드림타워 복합리조트 채용설명회를 가졌다. 이날 설명회는 궂은 날씨에도 발 디딜 틈 없이 몰려든 구직자로 성황을 이뤘다. 롯데관광개발은 특히 이번 설명회를 통해 경력단절 여성과 미혼모 다문화가정 등 지역 내 사회적 소외계층에게도 취업의 문을 확대하기로 해 눈길을 모았다. 앞서 롯데관광개발은 지난해 말 270명 규모의 관리자급 경력직을 채용했다. 롯데관광개발은 개관을 앞두고 3100명 신규 일자리 창출을 목표로 하고 있다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>신선하고 푸짐한 갈치조림으로 고객만족실현 ‘색달식당 중문 본점’ 제주도 중문관광단지 맛집 - 뉴스프리존 × 전체기사 기획 전체 특집 인터뷰 오피니언 전체 사설 칼럼 연재 기고 기자수첩 뉴스종합 전체 정치 사회 동영상뉴스 이달의이슈 인사 부고 경제 전체 종합 금융 유통·소비자 기업 IT 자동차 건설·부동산 제약·바이오 특집 지역 전체 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 전체 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 전체 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 전체 스포츠 연예 골프투데이 포토뉴스 전체 포토 프리존 만평 카드뉴스 지역포토 미분류 프리존 책방 UPDATED : 2022-10-11 14:22 (화) 다음카페 네이버TV 블로그 페이스북 트위터 로그인 회원가입 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 전체메뉴 버튼 기획 특집 인터뷰 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 포토 프리존 만평 지역포토 기획 뉴스프리존 기획 특집 인터뷰 오피니언 뉴스프리존 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 뉴스프리존 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 뉴스프리존 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 뉴스프리존 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 뉴스프리존 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 뉴스프리존 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 뉴스프리존 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 뉴스프리존 포토뉴스 포토 프리존 만평 지역포토 기사검색 검색 상세검색 이전 다음 신선하고 푸짐한 갈치조림으로 고객만족실현 ‘색달식당 중문 본점’ 제주도 중문관광단지 맛집 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 상태바 HOME 오피니언 칼럼 신선하고 푸짐한 갈치조림으로 고객만족실현 ‘색달식당 중문 본점’ 제주도 중문관광단지 맛집 곽종현 기자 승인 2020.01.27 14:15 댓글 0 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버포스트 URL복사 × 새해 설날 5일간의 긴 연휴로 제주도 여행을 떠나기 좋다. 신년 추억을 쌓기 위해 많은 사람이 제주도를 방문한다. 사시사철 여행객들의 발길이 끊이지 않는 제주 중문은 겨울에도 많은 사랑을 받고 있다. 이 중 ‘색달식당 중문본점’은 제주 향토음식을 푸짐한 양과 가성비 좋은 가격으로 즐길 수 있는 제주 중문관광단지 맛집으로 제주 갈치조림이 많은 이들의 입맛을 사로잡고 있다. 갈치조림은 제주바다에서 어획한 신선한 생 갈치만을 이용하 요리한 것으로 갈치 한 마리가 통으로 조리되어 나오는데, 이에 문어, 전복, 딱 새우 등 갖가지 해산물이 모두 통으로 함께 들어간다. 또한 문어통갈치조림 세트를 주문하면 일반 공깃밥이 아닌 돌솥밥이 제공되며 성게 알 미역국과 오메기 떡 등을 서비스로 제공되고 있다. 깊은 맛과 함께 푸짐한 양으로 제주도 중문 갈치조림 맛집 색달식당은 이미 가성비 좋은 제주도 맛집으로 잘 알려져 있으며 직접 해산물 손질을 해주어 손님들의 편의를 제공해주고 있다. 어디서든 찾아올 수 있도록 무료로 픽업 서비스를 제공하고 있어 특히 이동이 불편하거나 차량이 없는 방문객들의 만족도가 높다. 서귀포 갈치조림 전문점 가볼만한 곳 중 색달해변, 카멜리아힐, 산방산 등 다양한 관광지와 가까워 방문객이 편하게 찾아올 수 있으며 가까운 숙소로는 제주 롯데호텔, 제주 신라호텔 등이 있다. 제주도 갈치조림 맛집 색달식당은 오전 10시부터 운영을 시작하기 때문에 제주 중문 아침식사를 즐기기에도 좋아 일찍 이동해야 하는 손님들이 이른 오전에 이용할 수 있다. 이곳을 방문한 김 씨는 “서귀포 맛집 중 가장 입맛에 잘 맞았던 곳이고 특히나 통 갈치조림 양념이 다른 곳과는 비교가 안되는 감칠맛이 있어 놀랐다. 직원분들의 서비스도 좋아 앞으로 자주 찾아오겠다.”라며 큰 만족감을 표현했다. 색달식당 관계자는 '당일 잡은 싱싱한 재료를 이용해 더욱 푸짐한 음식 제공과 서비스로 앞으로도 사랑받는 제주 서귀포 갈치조림 맛집이 될 수 있도록 끝없이 노력할 것'이라고 전했다. 을 응원해주세요. 기사 잘 보셨나요? 독자님의 응원이 기자에게 큰 힘이 됩니다. 후원회원이 되어주세요. 독자님의 후원금은 모두 기자에게 전달됩니다. 정기후원은 모든 기자들에게 전달됩니다. 정기후원 하기 저작권자 © 뉴스프리존 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 헤드라인 뉴스 정진석 "조선, 日 침략으로 망한 것 아냐"…민주당 "역대급 망언" 경남도 "부울경 초광역협력 전면 재검토 아냐" BTS콘서트 맞아 부산 밤하늘 보랏빛으로 물들다 최신기사 안윤모 작가의 '세상의 다리 ' 프로젝트 안윤모 작가의 '세상의 다리 ' 프로젝트 네이버, 직장내 괴롭힘 늦장 조사, '특별근로감독' 및 '국정감사' 회피 네이버, 직장내 괴롭힘 늦장 조사, '특별근로감독' 및 '국정감사' 회피 군포시, 동절기 코로나19 개량백신 추가접종 진행 군포시, 동절기 코로나19 개량백신 추가접종 진행 정진석 "조선, 日 침략으로 망한 것 아냐"…민주당 "역대급 망언" 정진석 "조선, 日 침략으로 망한 것 아냐"…민주당 "역대급 망언" 대전 대덕구, 환경오염물질 배출 감시 ‘드론’이 뜬다 대전 대덕구, 환경오염물질 배출 감시 ‘드론’이 뜬다 Tweets by newsfreezone1 하단영역 하단메뉴 매체소개 이용약관 기자윤리강령 뉴스프리존 윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리제도 NF통신 매체정보 NF 통신 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 문화 나 00037 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 편집국 : 02-2235-2114 이메일 : newsfreezone@naver.com 뉴스프리존 매체정보 뉴스프리존 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 서울, 아01001 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 청소년보호책임자 : 이혜진 이메일 : newsfreezone@naver.com Copyright © 2022 뉴스프리존. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사·배포 등을 금합니다. 위로 해당 언어로 번역 중 입니다.</t>
+  </si>
+  <si>
+    <t>제주도, 관광정책 '모바일 주도 관광형태'에 선제적 대응 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 관광정책 '모바일 주도 관광형태'에 선제적 대응 등록 2020.01.07 10:23:08 작게 크게 【제주=뉴시스제주공항으로 내도하는 관광객들. ktk2807@newsis.com[제주=뉴시스] 강정만 기자 = 제주특별자치도는 관광분야에 올해 513억원을 투입해 국내시장 활성화와 해외시장 다변화를 위해 5대 핵심과제를 추진한다고 7일 밝혔다. 도는 올해 ▲빅데이터 기반 관광서비스 플랫폼 구축 ▲관광객 낙수효가를 높이는 지역관광 활성화 ▲관광산업 체질개선을 통한 질적성정 기반조성 ▲경쟁력 있는 제주 MICE 산업 생턔계 조성 ▲글로벌 관광트렌드에 대응에 나설 계획이다. 도는 이를 바탕으로 관광이 지역경제를 지탱하는 중추적인 역할을 계속해 나가고 '모바일이 주도하는 새로운 관광형태'로 대표되는 관광트렌드 변화에 선제적으로 대응하기로 했다. 지난해 제주를 찾은 관광객은 1528만명으로 전년과 비교해 6.8%가 증가했다. 내국인 관광객은 1355만명, 외국인 관광객은 172만명으로 전년보다 각각 3.6%포인트, 41.2%포인트 늘어났다. 강영돈 도 관광국장은 "관광업계와 유관기관과 함께 긴밀하게 협업하면서 관광산업이 지역경제를 견인할 수 있도록 다각적인 정책을 펴겠다"고 밝혔다. ◎공감언론 뉴시스 kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 43분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 김주형은 될성부른 나무…한국 무대서도 최연소 기록 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 파주시, 12월까지 긴급복지지원제도 확대 지원 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 광주 물 관리-지하시설물 중복 관리 "대책 시급"(종합) 정무위 국감… 野, 김건희 도이치 의혹에 "이복현 입장 내놔야" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 이복현 금감원장, 우리은행 횡령에 "있을 수 없는 일" 씨아이에스, 195억 규모 2차전지 전극공정 장비 공급계약 체결 롯데케미칼, 일진머티리얼즈 주식매매계약 체결 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, GS25 전용 빵빠레 샌드 카스타드 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 BAT "궐련형 전자담배 전환시 연초 대비 '위해 저감' 효과" 주장 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 울산 청년 여성 10명 중 2.4명 매년 떠나…학업·취업 기회 부족 '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 연세대 고등과학원, 노벨상 수상 석학 초청 행사 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 물품 대금 5억 빼돌린 안성 지역농협 직원 자수...검찰 송치 [안성소식] 시, 하반기 농민기본소득 지급 등 수원시, 빅데이터 활용 ‘맞춤형 체납 징수’ 나선다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 대구폴리텍대, 대구옥외광고·울산옥외광고 대상전 잇따라 수상 청도군 "가을밤 코미디와 함께 반시 맛 즐겨보세요" 김대중컨벤션센터서 광주식품대전 개막…13~16일 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도, 빅데이터 기반 관광지 자동추천 플랫폼 개발추진 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도, 빅데이터 기반 관광지 자동추천 플랫폼 개발추진 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도, 빅데이터 기반 관광지 자동추천 플랫폼 개발추진 송고시간2020-01-07 11:04 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 고성식 기자 기자 페이지 관광객 이동동선 정보 분석, 모바일 애플리케이션 서비스 '유채꽃과 함께하는 겨울' [연합뉴스 자료 사진] (제주=연합뉴스) 고성식 기자 = 제주도가 관광객의 계절별, 연령별 이동 동선 등을 분석해 개개인에게 맞는 관광지를 추천해주는 서비스를 추진한다. 제주도는 올해 관광객 이동 동선을 분석한 빅데이터 기반의 관광 서비스 플랫폼 구축과 마이스( MICE·회의, 인센티브 관광, 컨벤션, 전시 및 이벤트의 약자) 산업 육성 등에 513억원의 예산을 투입키로 했다고 7일 밝혔다. 빅데이터 기반 관광 서비스 플랫폼은 관광객의 렌터카 내비게이션 검색 정보 및 위치 정보, 이동통신 접속 정보, 공공와이파이 접속 정보, 버스 카드 승·하차 정보 등의 여러 정보를 모아 개별 관광객의 이동 동선을 분석하는 방법으로 맞춤형 서비스를 제공하게된다. 광고 다양한 정보를 모은 관광 서비스 플랫폼을 구축하면 기후와 계절별 연령별 관광객의 선호 관광지를 자동으로 파악해 서비스를 이용하는 개별 관광객에게 상황에 맞는 관광지를 추천해 준다. 관광 서비스 플랫폼은 모바일을 통해 이용할 수 있도록 스마트폰 애플리케이션으로 개발될 예정이다. 도는 또 정보통신기술(ICT)에 기반한 관광산업으로 전환하기 위해 ICT 전문인력을 양성하고 영세 관광사업체에 대한 지원 등의 사업을 병행할 예정이다. 이밖에 제주 마이스 산업 육성을 위한 마이스 다목적 복합시설 착공, 마이스 산업 대전 등도 추진한다. koss@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2020/01/07 11:04 송고 #관광객 #빅데이터 #모바일 #정보통신 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:46 [영상] 러, 우크라 전역에 대규모 보복 공격…70여명 사상·인프라 파괴 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 서울서 50대 권총에 맞아…"극단적 선택 추정" 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 출동 경찰관 가슴 밀치고 상의 흔든 30대, 테이저건 맞고 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 "유해를 그토록 찾길 원했는데"…6·25참전 故박태인 경사 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1%↓마감 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 두산과 작별한 김태형 감독, 5개 구단 제의 가능…태풍 되나(종합) 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 뉴스 학업성취도 자율평가 대상 늘린다…2024년까지 초3∼고2로 확대 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 러 "서방의 우크라 개입 확대에 적절히 맞대응" 경고 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 광고 댓글 많은 뉴스 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 35 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 28 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 15 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 15 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>김영진 전 제주도관광협회장, 총선 예비후보 등록 - 뉴스제주 × 전체기사 사회 전체 사건사고 일반 포토 날씨 뉴스제주초점 기업·인물탐방 행정 전체 제주도청 제주도의회 제주시청 서귀포시청 유관기관 읍면동 정치 전체 선거 정당 국회 의정활동 시민단체 교육 전체 교육청 교육행정 학교소식 경제 전체 제주도 제주시 서귀포시 도외 일반 문화 전체 제주도 제주시 서귀포시 도외 일반 관광 전체 제주도 제주시 서귀포시 도외 일반 동정 전체 도청 도의회 제주시 서귀포시 기타 연예 스포츠 동영상 오피니언 전체 기자수첩 칼럼 기고 시민기자 미디어부 뉴스제주TV 뉴스제주 시작페이지로 즐겨찾기 추가 한국어 영어 일본어 중국어 처음으로 로그인 회원가입 모바일웹 전체 사회 사건사고 포토 날씨 뉴스제주초점 기업·인물탐방 행정 제주도청 제주도의회 제주시청 서귀포시청 유관기관 사업소 읍면동 정치 선거 정당 국회 교육 교육청 교육행정 학교소식 경제 제주도 제주시 서귀포시 도외 문화 제주도 제주시 서귀포시 도외 스포츠 오피니언 기자수첩 칼럼 기고 시민기자 관광 제주도 제주시 서귀포시 도외 일반 동정 도청 도의회 제주시 서귀포시 기타 후원안내 날씨 기사검색 검색 최종편집 : 2022-10-11 14:00 (화) 이전 다음 김영진 전 제주도관광협회장, 총선 예비후보 등록 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치 김영진 전 제주도관광협회장, 총선 예비후보 등록 김명현 기자 승인 2020.01.13 13:47 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 텔레그램 URL복사 × ▲ 김영진 전 제주자치도관광협회장(오른쪽)이 13일 제주시선관위에 국회의원 선거 예비후보(제주시 갑, 무소속) 등록을 마치고 선거운동에 돌입했다. ©Newsjeju 김영진 전 제주특별자치도관광협회장이 13일 제21대 국회의원 선거에 출마하고자 제주시 갑 지역구 선거구(무소속)로 예비후보 등록을 마쳤다고 밝혔다. 김영진 예비후보는 이날 후보 등록을 하고선 곧바로 선거운동을 개시했다. 김 예비후보는 이날 오전 김만덕 기념비와 제주4.3평화공원을 찾아 참배했다. 김 예비후보는 자신의 선거운동 슬로건이 '경제, 살리겠습니다! 제주, 바꾸겠습니다!'로 정했다며, "16년 민주당 독재시대를 끝내고 견제와 균형이라는 민주주의의 가치가 새로운 제주의 반석이 되도록 최선을 다하겠다”고 말했다. 이어 김만덕 기념비를 방문한 것에 대해선 "우리나라 최초의 여성 CEO이자 기부와 나눔의 선구자인 의녀 김만덕의 나눔실천 정신을 계승하고, 그 업적을 재조명함으로써 한국판 ‘노블리스 오블리제’ 정신을 범국민운동으로 확산하고 싶기 때문"이라고 전했다. 또한 김 예비후보는 "변방, 여성, 천민이라는 ‘최말단’의 조건을 극복해 국가, 남성, 양반도 감히 하기 힘든 구휼을 펼친 의녀 김만덕의 삶은 세월의 흐름을 넘어 우리에게 큰 귀감이 된다”며 제주경제를 재건하는 의정활동을 펼침에 있어 중요한 이정표로 삼겠다고 강조했다. 이후 제주4.3평화공원을 찾은 김영진 예비후보는 "다시는 이 땅에 제주4.3과 같은 비극이 되풀이되지 않도록 노력하겠다"면서 "국회에 입성하면 제주4.3특별법 개정을 최우선 과제로 삼아 본회의를 통과시키는 데 혼신의 노력을 쏟겠다”고 말했다. Tag #김영진예비후보 #전제주도관광협회장 #국회의원 #선거운동 저작권자 © 뉴스제주 무단전재 및 재배포 금지 김명현 기자 다른기사 보기 관련기사 김영진 예비후보, 자유한국당 제주도당 입당 김영진 "면세점 매출액 특별기금 조성, 일자리 창출 활용" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 자동등록방지 내용 0 / 400 등록 댓글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 많이 본 뉴스 뉴스 댓글 1[강병삼 시장 축사] 뉴스제주 창간 16주년 2[김광수 교육감 축사] 뉴스제주 창간 16주년 3[오영훈 지사 축사] 뉴스제주 창간 16주년 4[김한규 의원 축사] 뉴스제주 창간 16주년 5[이종우 시장 축사] 뉴스제주 창간 16주년 1수상자 본인 입니다. 확인 되지 않은 사실을 기반으로 허유사실을 공론화하지 않으시길 바랍니다. 2나 조만간 자살 할 것 같아 3ㅎ ㅎ ㅎ 4비슷비슷헌 사름덜 보염싱게~ 자기들부터 깨끗허게 살주게 5원희룡... 최신기사 제주에 투자한 기업들은 어떻게 성공했을까 『2022 아라동 어르신 합동 경로잔치』개최 『2022 아라동 어르신 합동 경로잔치』개최 도두동, 제61회 탐라문화제 출연 도두동, 제61회 탐라문화제 출연 화북동, 통합사례관리대상자 선정 사례회의 개최 화북동, 통합사례관리대상자 선정 사례회의 개최 제주은행 표선지점, 보이스피싱 1800만원 막아 제주은행 표선지점, 보이스피싱 1800만원 막아 제주도개발공사 상임감사에 양진철 교수 임명 제주도개발공사 상임감사에 양진철 교수 임명 제주교육박물관, '광해군 이야기로 만나는 제주' 성황 제주교육박물관, '광해군 이야기로 만나는 제주' 성황 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 첨단로8길 34, 1층 대표전화 : 064-747-1188 팩스 : 064-745-4569 청소년보호책임자 : 남우엽 제호 : 뉴스제주 등록번호 : 제주 아 01007 등록일 : 2006-10-09 발행인 : 남우엽 편집인 : 남우엽 뉴스제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 뉴스제주. All rights reserved. mail to newsjeju@hanmail.net 위로</t>
+  </si>
+  <si>
+    <t>설 연휴 제주도 입도 관광객 21만명 예상...전년비 9.6%↑ - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 설 연휴 제주도 입도 관광객 21만명 예상...전년비 9.6%↑ 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 설 연휴 제주도 입도 관광객 21만명 예상...전년비 9.6%↑ 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2020.01.14 12:14 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 해 설 연휴 기간(23~27일)동안 제주를 방문하는 관광객은 전년 대비 9.6% 증가한 22만여명으로 전망되고 있다. 14일 제주도관광협회가 지난 10일 기준으로 발표한 2020년 설 연휴기간 입도 동향자료에 따르면 설 연휴 전날인 오는 23일부터 27일까지 5일간 21만8462명의 내·외국인 관광객이 제주를 방문할 것으로 전망됐다. 이는 지난해 설 연휴 기간(2월 2~6일) 입도객 19만9285명과 비교하면 9.6%늘어난 수치다. 이번 설 연휴 기간 일일 예상 관광객은 23일 4만2332명, 24일 4만5123명, 25일 4만2808명, 26일 4만4416명, 27일 4만3783명 등이다.  설 명절 전날인 24일 입도객이 최대치를 기록할 것으로 예상되고 있다. 이에 추이를 맞춰 항공사들도 설 연휴 기간 귀성객과 관광객 편의를 위해 제주 노선에 국내선 41편, 국제선 37편을 증편 운항한다. 국내선은 특별기 41편을 포함해 1132편, 국제선은 부정기 1편을 포함해 140편이 운항된다. 같은 기간 제주와 목포, 우수영, 완도, 여수, 녹동, 부산 등을 오가는 선박편은 총 14편 운항한다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>설 연휴, 국내·외 관광객 ‘제주도’ 쏟아진다 &lt; 전국 &lt; 기사본문 - BBS NEWS 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 14:47 (화) 로그인 회원가입 BBS불교방송 홈페이지 바로가기 상세검색 facebook twitter kakaostory youtube 전체 경제 정치 제 20대 대통령 선거 사회 문화ㆍ스포츠 불교 국제 전국 BBS 인터뷰 BBS 칼럼 BBS 취재수첩 BBS PLAZA 인사/부고 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 설 연휴, 국내·외 관광객 ‘제주도’ 쏟아진다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 설 연휴, 국내·외 관광객 ‘제주도’ 쏟아진다 기자명 이병철 기자 입력 2020.01.14 12:35 수정 2020.01.14 12:40 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 올해 설 연휴기간동안 21만8천여명이 제주를 찾을 전망입니다.제주도관광협회가 올해 설연휴기간인 23일부터 27일까지 입도객 동향을 오늘 발표했습니다.이는 지난해 설 연휴기간 19만9천여명과 비교하면 9.6% 늘어난 수치입니다.또, 중국 최대 명절인 춘절연휴를 맞아 중화권 관광객도 잇따를 예정입니다.제주관광협회는 춘절연휴인 오는 24일부터 30일까지 일주일 동안 중화권 관광객 3만700여명이 제주를 찾을 것으로 내다봤습니다.이는 지난해 2만2천여 명에 비해 36.2% 증가한 수치입니다. 이병철 기자 taiwan0812@hanmail.net 다른기사 보기 저작권자 © BBS NEWS 무단전재 및 재배포 금지 당신만 안 본 뉴스 정토사회문화회관 개관, '사회공헌·포교'의 전당 ‘모두의 행복 발원’ 영평사에서 낙화전통문화축제 서울의 첫 수도 "한성백제문화제"...9/30~10/3 올림픽공원에서 공군 블랙이글스, 한강공원 에어쇼 우천으로 취소 미륵도량 봉덕사 "희망의 노래 전통차 축전" "건강한 자연 음식을"...봉녕사 사찰음식 대향연 개막 조계종 제37대 총무원장 진우스님 5일 취임 법회...BBS 생중계 정토사회문화회관 개관, '사회공헌·포교'의 전당 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 취임 100일 하윤수 부산교육감 "공교육 새로운 모델 만들 것" 부산 산업단지 통근버스 6개 노선 신설 제주, 1천억원 혈세 투입된 ‘버스 준공영제’...업체 반발로 ‘스톱’ 마포구, 이제 쓰레기 소각장 불필요..."분쇄 매립+재활용 고도화 대안" 제시 검찰, '서해 공무원 피격' 안영호 전 합참 작전본부장 조사 학생들에게 성적인 농담한 교사...법원, "해임 적법" 최신뉴스 전국 취임 100일 하윤수 부산교육감 "공교육 새로운 모델 만들 것" 전국 부산 산업단지 통근버스 6개 노선 신설 전국 제주, 1천억원 혈세 투입된 ‘버스 준공영제’...업체 반발로 ‘스톱’ 사회 마포구, 이제 쓰레기 소각장 불필요..."분쇄 매립+재활용 고도화 대안" 제시 사회 검찰, '서해 공무원 피격' 안영호 전 합참 작전본부장 조사 포토뉴스 취임 100일 하윤수 부산교육감 "공교육 새로운 모델 만들 것" 부산 산업단지 통근버스 6개 노선 신설 제주, 1천억원 혈세 투입된 ‘버스 준공영제’...업체 반발로 ‘스톱’ 마포구, 이제 쓰레기 소각장 불필요..."분쇄 매립+재활용 고도화 대안" 제시 인기뉴스 1 조계종 제6대 군종교구장에 능원스님 단독 추천 2 김기선 팀장 “11월 24일부터 종이컵 등 일회용품 무상제공 금지” 3 관음성지 양양 낙산사, 가을 맞이 사찰음식 나눔 잔치 4 무주 일가족 사상사고...보일러 배기관 막혀 5 [뉴스파노라마 한글날 특집] 김영수 관장 "한글, 한국문화 직조하는 씨줄 날줄...귀하게 여겨 잘 썼으면" 6 러시아, 우크라 전역에 미사일 보복 공습...백여명 사상 7 '하루가 멀다 하고 또'…충북 교육계 성추문 얼룩 8 조계종 제18대 직능대표와 비구니 중앙종회의원 30명 선출 BBS 칼럼 전경윤의 ‘세상살이’ 전영신의 ‘시선’ 신두식의 ‘공감노트’ 배재수의 ‘크로키’ 이현구의 ‘스윗 스팟’ 선임기자 칼럼 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 BBS불교방송(재) 서울특별시 마포구 마포대로 20 (다보빌딩) 대표전화 : 02-705-5114 팩스 : 02-705-5229 청소년보호책임자 : 배재수 제호 : BBS NEWS 등록번호 : 서울 아 01259 등록일 : 2010-06-03 발행일 : 2001-09-01 발행인 : 서주영(금호) 편집인 : 전경윤 BBS NEWS 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 BBS NEWS. All rights reserved. mail to webmaster@bbsi.co.kr 위로 전체메뉴 전체기사 경제 정치 전체 20대 국회 국정감사 트럼프 당선 2017 국회 국정감사 2018 남북정상회담 6.12 북미 정상회담 제7회 전국동시지방선거 2차 북미정상회담 21대 국회의원 총선거 제20대 대통령 선거 제8회 전국동시지방선거 사회 전체 2018학년도 대입 수능 뉴스줌인 인터넷 야단법석 문화ㆍ스포츠 전체 2016 리우올림픽 2018 동계올림픽 2018 동계 패럴림픽 2018 러시아월드컵 2018 아시안게임 2020 도쿄올림픽 불교 전체 2018 무술년 신년인사 스리랑카 대통령 방한 제35대 총무원장 설정스님 2017 올해의 사자성어 당신이 연꽃입니다 기획보도 전통사찰을 가다 단박인터뷰 2018 부처님 오신날 2019 차문화대축제 3.1운동 100주년 월주 대종사 원적 2021 신축년 불교계 플랜 국제 전국 전체 전국네트워크 BBS 인터뷰 전체 BBS 전영신의 아침저널 BBS 뉴스파노라마 지방사 인터뷰 BBS 화쟁토론 BBS 경제토크 BBS 뉴스와 사람들 BBS 기획/단독 BBS 칼럼 전체 박경수의 '삼개나루' 전영신의 '시선' 신두식의 '공감노트' 배재수의 '크로키' 전경윤의 '세상살이' 선임기자 칼럼 이현구의 '북악산 자락' 권예진의 거꾸로 세상보기 양창욱의 ‘야단법석(野壇法席)’ 명사 칼럼 김호준의 '내시경' 이현구의 스윗 스팟 BBS 취재수첩 BBS 개국 30주년 BBS 장군죽비 BBS PLAZA 인사/부고 기타 BBS 라디오 TV 알찬뉴스 지난 뉴스 다시보기 이전기사 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 ‘이조은식당’ 여행객들이 호평하는 효리의단골집 - 뉴스프리존 × 전체기사 기획 전체 특집 인터뷰 오피니언 전체 사설 칼럼 연재 기고 기자수첩 뉴스종합 전체 정치 사회 동영상뉴스 이달의이슈 인사 부고 경제 전체 종합 금융 유통·소비자 기업 IT 자동차 건설·부동산 제약·바이오 특집 지역 전체 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 전체 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 전체 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 전체 스포츠 연예 골프투데이 포토뉴스 전체 포토 프리존 만평 카드뉴스 지역포토 미분류 프리존 책방 UPDATED : 2022-10-11 14:22 (화) 다음카페 네이버TV 블로그 페이스북 트위터 로그인 회원가입 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 전체메뉴 버튼 기획 특집 인터뷰 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 포토 프리존 만평 지역포토 기획 뉴스프리존 기획 특집 인터뷰 오피니언 뉴스프리존 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 뉴스프리존 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 뉴스프리존 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 뉴스프리존 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 뉴스프리존 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 뉴스프리존 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 뉴스프리존 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 뉴스프리존 포토뉴스 포토 프리존 만평 지역포토 기사검색 검색 상세검색 이전 다음 제주도 중문 관광단지 맛집 ‘이조은식당’ 여행객들이 호평하는 효리의단골집 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 상태바 HOME 오피니언 칼럼 제주도 중문 관광단지 맛집 ‘이조은식당’ 여행객들이 호평하는 효리의단골집 곽종현 기자 승인 2020.01.18 10:00 댓글 0 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버포스트 URL복사 × 제주도 중문 관광단지는 국내 대규모 종합관광단지로 중문관광단지 인근에는 관광하며 허기진 배를 채울 수 있는 음식점도 즐비한데 그중 제주 중문 맛집 ‘이조은식당’이 영양소가 풍부함은 물론, 최근 제철을 맞아 살찌고 맛도 좋아진 갈치를 활용한 요리를 선보이며 눈길을 끌고 있다. 이 집은 2대째 이어온 갈치조림 맛집으로 갈치조림과 함께 갈치 회, 갈치구이를 다루며, 이를 보다 합리적으로 맛볼 수 있는 정식 메뉴도 판매하고 있다. 제주도 맛집 베스트 10 대표 메뉴는 갈치 회, 갈치조림을 기본으로 제공하면서 갈치구이와 고등어구이 중 하나를 선택해 총 세가지 메뉴를 즐길 수 있게 한 갈치 정식으로, 이 밖에도 네가지 정식 메뉴와 스페셜 메뉴 한 가지를 선보이고 있다. 이 외에도 1인, 혹은 2인이서 주문할 수 있는 식사류를 다루고 있다. 갈치조림과 고등어조림은 2인이서 즐길 수 있는 대표 식사류로, 그 밖에 고등어구이, 전복뚝배기, 전복죽, 성게국, 갈치덮밥, 한치회덮밥 등 해산물을 주재료로 한 메뉴를 다양하게 판매한다. 제주 중문 맛집 이조은식당 관계자는 “갈치조림과 갈치 회를 비롯해 다양한 갈치 요리를 저렴하게 제공하고 있는데 이같은 합리적인 가격과 정성 담아 맛을 한껏 살린 요리들로 제주도민과 제주 중문관광단지를 찾는 관광객들로부터 입소문을 타 중문관광단지 맛집으로 알려지고 있다. 제주도에 거주하는 연예인도 자주 방문한다”고 전했다. 이어 “중문관광단지 인근에 있어 관광 전후로 방문하기 용이하며, 관광지 근처인 특성상 편의시설이나 교통편도 잘돼있다. 제주도의 겨울을 즐기기위해 요즘도 많은 여행객이 찾고있는데 관광과 함께 맛있는 음식을 즐기며 잊지 못할 추억을 만들고 가기 바란다”고 덧붙였다. 한편, 제주도필수여행코스로는 한라산의 백록담과 오설록티뮤지엄, 대포주상절리, 용머리해안 등이 있다. 을 응원해주세요. 기사 잘 보셨나요? 독자님의 응원이 기자에게 큰 힘이 됩니다. 후원회원이 되어주세요. 독자님의 후원금은 모두 기자에게 전달됩니다. 정기후원은 모든 기자들에게 전달됩니다. 정기후원 하기 저작권자 © 뉴스프리존 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 헤드라인 뉴스 정진석 "조선, 日 침략으로 망한 것 아냐"…민주당 "역대급 망언" 경남도 "부울경 초광역협력 전면 재검토 아냐" BTS콘서트 맞아 부산 밤하늘 보랏빛으로 물들다 최신기사 안윤모 작가의 '세상의 다리 ' 프로젝트 안윤모 작가의 '세상의 다리 ' 프로젝트 네이버, 직장내 괴롭힘 늦장 조사, '특별근로감독' 및 '국정감사' 회피 네이버, 직장내 괴롭힘 늦장 조사, '특별근로감독' 및 '국정감사' 회피 군포시, 동절기 코로나19 개량백신 추가접종 진행 군포시, 동절기 코로나19 개량백신 추가접종 진행 정진석 "조선, 日 침략으로 망한 것 아냐"…민주당 "역대급 망언" 정진석 "조선, 日 침략으로 망한 것 아냐"…민주당 "역대급 망언" 대전 대덕구, 환경오염물질 배출 감시 ‘드론’이 뜬다 대전 대덕구, 환경오염물질 배출 감시 ‘드론’이 뜬다 Tweets by newsfreezone1 하단영역 하단메뉴 매체소개 이용약관 기자윤리강령 뉴스프리존 윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리제도 NF통신 매체정보 NF 통신 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 문화 나 00037 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 편집국 : 02-2235-2114 이메일 : newsfreezone@naver.com 뉴스프리존 매체정보 뉴스프리존 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 서울, 아01001 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 청소년보호책임자 : 이혜진 이메일 : newsfreezone@naver.com Copyright © 2022 뉴스프리존. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사·배포 등을 금합니다. 위로 해당 언어로 번역 중 입니다.</t>
+  </si>
+  <si>
+    <t>[신년사] 부동석 제주도관광협회장 “관광객 만족도 향상 최우선" - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; [신년사] 부동석 제주도관광협회장 “관광객 만족도 향상 최우선" 파이낸셜뉴스입력 2020.01.05 16:17수정 2020.01.05 16:17 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 2020 신년사 전문 부동석 제주도관광협회장 2020년 경자년 새해가 밝았습니다. 먼저 지난해 어려운 여건 속에서도 제주관광을 위해 치열한 한 해를 보낸 관광인 여러분께 깊은 존경과 감사의 말씀을 드리며 올해는 백색(흰 쥐)과 함께 백의의 민족임을 이어오며 다시 회복(‘子(자)’)한다는 의미의 ‘경자년’으로 새로운 하늘이 열리는 대운세가 찾아오는 희망의 해가 되길 바랍니다. 지난 한 해 제주관광은 우리나라와 타 국가의 정치적 상황, 해외 관광시장의 가격경쟁력 확보, 내국인의 소비트렌드와 여행패턴의 변화, 국내 타 지방자치단체와의 경쟁심화 등 어려운 여건 속에서도 제주관광을 위해 치열한 한 해를 보낸 관광인 여러분께 깊은 존경과 감사의 말씀을 드립니다. 올해에도 제주관광은 어려운 해가 이어질 것이라는 전망이 나오고 있습니다. 올해 우리 협회는 경영난을 겪고 있는 업계의 경쟁력 강화와 관광객 만족도 향상을 최우선 목표로 삼고 모든 역량을 집중하여 사업을 추진해 나가겠습니다. 먼저 제주관광시장의 대 내·외 환경변화에 적절한 대응과 건강한 관광생태계 조성을 위하여 핵심 사업들을 차질 없이 수행하겠습니다. 우선 ‘지역경제 활성화 및 융복합 전략’을 통해 4차 산업혁명 시대에 맞는 지역맞춤형 융복합 관광 확장 및 지역사회 환원을 위해 지역경제에 일조할 수 있도록 하겠습니다. 다음으로 ‘국내외 잠재수요 확충을 위한 다변화 마케팅 전략’을 통해 단체관광 홍보 및 관광 업체 간 네트워크 강화를 도모하여 국내외 잠재수요를 확충하도록 하겠습니다. 또한, ‘관광사업체 대외 경쟁력 지원체계 강화’를 위해 관광사업체 경쟁력 강화 및 관광관련 스포츠 및 유사업종 간 네트워크를 구축해 나가겠습니다. 더불어 양질의 관광산업 정보제공을 위한 사업에도 심혈을 기울여 나가겠습니다. 항상 관광협회에 관심을 가지고 보내주신 변함없는 사랑과 뜨거운 성원에 진심으로 감사를 드리며, 경자년 새해에도 지속적인 관심과 성원을 부탁드립니다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 관광생태계 개선에 513억원 투입 본문바로가기문장공유트위터카카오톡 전체메뉴 검색 최근검색어 최근 검색어 내역이 없습니다. 검색어 저장 끄기 닫기 읽기모드공유하기북마크로그인공유하기닫기 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보|사회 제주도, 관광생태계 개선에 513억원 투입 임재영 기자 입력 2020-01-09 03:00업데이트 2020-01-09 03:00 글자크기 설정 레이어 열기 뉴스듣기 프린트 글자크기 설정 가 가 가 가 닫기 ICT기반 관광 플랫폼 구축 등 20개 마을 지역프로그램 운영 제주도는 모바일이 주도하는 새로운 관광생태계 트렌드에 맞춰 올해 5대 핵심과제를 선정하고 예산 513억 원을 투입한다고 8일 밝혔다. 핵심과제는 빅데이터 기반 관광서비스 플랫폼 구축, 관광객 낙수효과를 높이는 지역관광 활성화, 관광산업 체질 개선을 통한 질적 성장 기반 조성, 경쟁력 있는 제주 마이스(MICE·기업회의 포상관광 컨벤션 전시)산업 생태계 조성, 글로벌 관광 트렌드에 대응하는 국내시장 활성화 및 해외시장 다변화 등이다. 빅데이터 분석 결과를 도민과 관광사업체와 공유해 창업, 업종 전환, 마케팅 등에 활용할 수 있는 시스템을 구축한다. 기후 계절 연령 등의 빅데이터를 기초로 개별 관광객을 위한 관광지 추천 시스템을 개발한다. 지역관광 활성화를 위해 공공 및 민간 네트워크를 구축하고 20개 마을 지역관광 프로그램을 운영한다. 정보통신기술(ICT) 기반 스마트 관광산업 육성을 위한 전문인력 양성과 관광 아카데미 및 영세사업체 컨설팅 지원 등의 사업도 병행한다. 3월 예정인 MICE 다목적 복합시설 착공과 함께 MICE 산학연계 교육과정 개설, 전문자격 아카데미 등 지역 인력 육성에도 예산을 투자한다. ‘우리가 몰랐던 제주’ 등의 콘텐츠 발굴과 뉴트로(새로운 복고), 제주다움(돌담, 해녀, 바람) 등에 대한 마케팅을 유명 온라인 플랫폼 등을 통해 전개한다. 강영돈 제주도 관광국장은 “관광산업이 지역경제를 견인하고 정책 효과가 가시적인 성과를 낼 수 있도록 예산을 신속하게 집행하겠다”고 밝혔다. 지난해 제주를 찾은 관광객은 외국인 172만여 명을 포함해 1528만여 명으로 2018년의 1431만여 명에 비해 6.8% 증가했다. 제주지역은 문화체육관광부 지역관광발전지수에서 지난해까지 3회 연속 1등급을 받았고, ㈜컨슈머인사이트 여름휴가 여행조사에서 지난해까지 4년 연속 종합만족도 1위를 차지했다.임재영 기자 jy788@donga.com#제주도#관광 플랫폼 구독 임재영 기자 동아일보 광주호남취재본부 jy788@donga.com 좋아요 이미지좋아요 슬퍼요 이미지슬퍼요 화나요 이미지화나요 후속기사 원해요 이미지후속기사 원해요 기사추천 이미지기사추천 공유 이미지공유 공유하기 닫기 Copyright ⓒ 동아일보 &amp; donga.com 당신이 좋아할 만한 콘텐츠 댓글 0개 의견을 남겨주세요. 동아일보는 독자 여러분의 의견을 경청하겠습니다. 전체 댓글 보기 댓글 0개 닫기 많이 본 뉴스 1 성일종 “인공기는 괜찮은가” vs 이재명 “해방 후 친일파 행태” 2 ‘횡단보도 앞 일시정지’ 계도 끝…내일부터 본격 단속 3 추락 사고 잇따르는 ‘국내 최장’ 인천대교…“특단 대책 시급” 4 [단독]‘제트기류’에 美뉴욕발 직항편 중간 착륙…‘테크니컬 랜딩’ 늘어날수도 5 ‘K-방산(防産)’ 전시관 찾은 해외 軍 관계자 “놀랍다” 6 TSMC 키운 대만… “국가 지켜주는 건 美무기 아닌 반도체” 7 안철수 “유승민·나경원 출마를” vs 홍준표 “배신 경력자는 가라” 8 선우은숙 재혼했다…‘4살 연하’ 유영재와 혼인신고 9 같은 번호판 2개…간적 없는 곳서 주차위반 “7달째 영문 몰라” 10 신혜성 측 “만취해 본인 차 아닌 줄 몰라…변명 여지 없다” 최신기사 지난해 ‘로드킬’ 3만7000건…영남권 도로가 가장 많아 軍동원령에 러시아 여론 악화…“국민, 전쟁 비용에 눈뜨기 시작” KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 “액셀 밟아!” 5세 딸에 운전시킨 부모…벌금 고작 1만원 유승민, 정진석에 “사과하고 비대위원장 직 사퇴하라” 베스트 추천 1 한동훈, 김의겸 ‘美출장 의혹’에 “머릿속 상상 쉽게 말해 주위에 피해” 2 김의겸 “한동훈, 이재명 수사 위해 美출장”…한동훈 “머릿속 상상” 3 선우은숙 재혼했다…‘4살 연하’ 유영재와 혼인신고 4 ‘마케팅용 공짜 마약’에 20대 초범 양산… 놀이터서 주고받기도 5 [단독]‘최대 적자’ 한전, 자회사들은 직원 ‘제주도 가족여행’까지 지원 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보 회사소개| 문화스포츠사업| 신문박물관| 인촌기념회| 화정 평화재단| 신문광고안내| 구독신청| 독자서비스| 기사제보| 정정보도 신청 주소: 서울특별시 종로구 청계천로 1 | ☎: 02-2020-0114 동아닷컴 회사소개| 광고 (인터넷, 전광판)| 제휴안내| 고객센터| 이용약관| 개인정보처리방침| 청소년보호정책(책임자: 구민회)| 사이트맵| RSS 주소: 서울특별시 서대문구 충정로 29 | Tel: 02-360-0400 | 등록번호: 서울아00741 | 발행일자: 1996.06.18 | 등록일자: 2009.01.16 | 발행·편집인: 박원재 Copyright by dongA.com All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도관광협회, '12월 베스트 관광인'에 양혜숙 선정 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, '12월 베스트 관광인'에 양혜숙 선정 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, '12월 베스트 관광인'에 양혜숙 선정 김재연 기자 headlinejeju@headlinejeju.co.kr 승인 2020.01.10 17:19 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 사진 오른쪽 양혜숙 ㈜아침미소 대표이사. ⓒ헤드라인제주 제주특별자치도관광협회(회장 부동석)는 지난 9일 제주종합비지니스센터 3층 대회의실에서 12월 베스트 관광인에 양혜숙 농업회사법인 ㈜아침미소 대표이사를 선정하고 선정패와 친절 키움 꽃 화분을 전달했다. 양 대표이사는 체험·휴양 목장인 아침미소 목장을 운영하며 매년 방문객 30만명을 달성했으며 농촌과 관광이 잘 어우러진 농촌융복합산업의 선구자적 역할을 한 공로를 인정받았다. 특히 양 대표이사는 우수체험공간지정, 6차 산업화 우수사례 수상, 농촌자원활용 농식품 창업 경진대회 대상, 청년 정규직 추가고용 등의 공로를 인정받아 이번 12월 베스트관광인에 선정됐다. 제주도관광협회 관계자는 "앞으로도 제주관광 친절 서비스에 모범이 되는 베스트 관광인을 매월 선정, 수범 사례를 공유하고 이를 계기로 제주 관광 종사자들의 친절 및 서비스 마인드를 한 단계 높여나감으로써 '관광으로 만들어 가는 희망찬 제주' 만들기에 앞장서 나갈 것"이라고 밝혔다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 김재연 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도문화관광해설사협회, 정기총회 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도문화관광해설사협회, 정기총회 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도문화관광해설사협회, 정기총회 개최 김재연 기자 headlinejeju@headlinejeju.co.kr 승인 2020.01.12 16:04 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 지난 8일 열린 제주도 문화관광해설사협회 정기총회. ⓒ헤드라인제주 제주특별자치도 문화관광해설사협회는 지난 8일 아스타호텔에서 정기총회를 개최했다고 12일 밝혔다. 이날 정기총회와 더불어 제10대 임원진도 선출했다. 이번에 선출된 임원진들은 향후 2년간 문화관광해설사협회의 주요 업무를 담당하게 된다. 다음은 제10대 임원진 명단. △협회장 : 김태수 △감사 : 임명희, 오기연 △사무국장 : 김미정 △부회장 : 현성인, 김수길 △재무이사 : 강정혜 △기획이사 : 백종은 △연구이사 : 차현숙, 문정순, 김해숙, 강명숙 △생태분과 이사 : 황인택 △홍보분과 이사 : 문정원. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 김재연 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주교육청, ‘관광기금 교육비 전출’ 위한 제주도 설득에 나선다-국민일보 시사 시사 &gt; 전체기사 제주교육청, ‘관광기금 교육비 전출’ 위한 제주도 설득에 나선다 관광의 교육 역기능 해소 차원 입력 : 2020-01-07 17:43 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주교육청이 카지노 등 관광수익으로 조성된 ‘제주관광진흥기금’의 일부를 교육비로 전출하는 방안을 추진한다. 올해부터 제주도를 상대로 제주특별법 개정을 위한 설득 작업에 나서겠다는 것이다. ‘관광 제주도’의 역기능이 아이들에게도 영향을 미치는 만큼 수익 일부를 교육환경 개선에 써야 한다는 취지다.제주교육청은 7일 ‘2020년 제주교육 희망정책’의 일환으로 제주관광진흥기금 수입액 일부를 교육비특별회계로 전출하는 특례를 제정해나갈 것이라고 밝혔다. 그러면서 특별법 개정이 필요한 사안인 만큼, 법률안 제출권을 가진 제주도(지사)를 상대로 본격적인 설득작업을 벌이겠다고 설명했다.관광진흥개발기금은 정부가 우리나라 관광 진흥을 위해 1973년 설치했다. 문화체육관광부가 기금을 관리하고, 제주도는 특별도 출범에 따라 2007년부터 제주특별법을 근거로 제주도가 ‘제주관광진흥기금’으로 자체 운영하고 있다.제주교육청은 제주관광진흥기금이 제주지역 카지노 매출액(1~10%)과 국외 여행자의 출국납부금 등 관광이익을 주 재원으로 조성되기 때문에 관광이 아이들에 미치는 역기능을 고려해 기금 일부를 교육환경 개선에 써야 한다고 주장하고 있다. 기금이 교육비 회계로 전출될 경우, 제주지역 도박 중독 학생들을 위한 치료와 예방 프로그램 운영에만 쓰겠다는 구체적인 계획도 제시했다.2018년 전국 중고교생 도박문제 위험집단의 비율. 제주도가 17개 시도 가운데 가장 높다. 실제 전국 16개 카지노 중 절반이 제주에서 영업하고 있으며, 지난해 제주도는 우리나라 중·고 재학생 가운데 청소년 도박문제 위험집단이 14.1%로, 전국(평균 6.4%)에서 가장 높은 것으로 나타났다.관광기금을 일부 교육예산으로 전환해야 한다는 당위성은 학계에서도 제기돼 왔다. 카지노와 같은 사행시설은 도내 전역에서 청소년 교육에 부정적 영향을 미치기 때문에 원인자 부담의 관점에서 매출액 일부를 교육 유해환경 개선 기여금으로 활용해야 한다는 것이다.관광진흥기금법이 만들어진 1972년 이후 제주의 관광산업이 가파르게 성장해왔다는 점에서 이제는 ‘관광 진흥’에만 기금을 사용하도록 한 관련 법을 시대의 변화의 맞게 조정해야 한다는 의견도 적지 않다.제주교육청의 계획대로 관광기금을 교육비로 전출하려면 제주특별법을 개정해야 하는 만큼 과정은 쉽지 않을 전망이다. 가장 첫 단계인 제주도 설득 작업부터 막혀 있다. 제주교육청 관계자는 “그동안 제주도는 외국인 관광객 줄어 기금이 충분치 않다는 입장이었다”며 “올해는 여러 논리를 찾아 제주도를 적극 설득해나가겠다”고 밝혔다. 제주관광진흥기금은 2017년 548억원, 2018년 470억원이며, 지난해 조성액은 600~650억원 내외가 될 것으로 예상된다.제주=문정임 기자 moon1125@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 ‘naver.pay’ 주소, 속았다…8천만원 사기친 피싱사이트 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 부하 직원 엉덩이 때렸는데 정직 1개월…‘솜방망이’ 논란 김영환 지사 “현금복지 후퇴 없다…양해구한다” 한화 창립 70주년, 김승연 회장 “어제를 경계하고 늘 새로워지자” 3년만의 제약 바이오 채용박람회 “프로농구 우승 후보는?” 감독에게 물었더니…SK·KT 막상막하 과학·미래 가치 담았다…UCLG 총회 ‘대전트랙’ 시작 정진석 ‘식민사관’ 발언 논란…유승민 “천박한 발언, 사퇴해야” 경찰 ‘제2의 n번방’ 18명 검거, 3명 구속 잇따르는 경기침체 경고…JP모건 CEO “미·세계 경제에 침체 올 것” 이재호 연수구청장, MZ세대와 소통…역사·문화 공유 최인호 “코레일·SR, 간부급 경조사비 5년간 14억 지급” 대구서 전국동시조합장선거 관련 첫 고발 전주, 후백제∼조선 유산 묶는 ‘왕의 궁원’ 프로젝트 추진 JP모건 CEO “S&amp;P 20% 더 빠질 수 있다” [3분 미국주식] 이건복 동녁 대표에 은관문화훈장… 한상하 송성호 박대춘 특별공로상</t>
+  </si>
+  <si>
+    <t>제주도 2박 3일 코스, 겨울 실내체험관광 ‘제주이야기’ 천연꽃으로 만드는 향수와 립글로스 - 월간원예 × 전체기사 포커스 전체 기획특집 피플 가든&amp;라이프 전체 공기정화식물 원예치료 한국의 꽃 플레이스 전체 과수 채소 화훼 네트워크 전체 우수센터 농촌을 이끄는 사람들 농촌진흥기관소식 Info 전체 식량원 Q&amp;A 해외원예 테크 마켓 비즈 전체 작물보호제 종자소개 농자재정보 목차 회사소개 원예News 동영상 일반 로그인 회원가입 모바일웹 UPDATED. 2022-09-20 18:04 (화) 기사검색 검색 포커스 플레이스 과수 채소 화훼 피플 테크 비즈 작물보호제 종자소개 농자재정보 마켓 네트워크 우수센터 농촌을 이끄는 사람들 농촌진흥기관소식 이전 다음 제주도 2박 3일 코스, 겨울 실내체험관광 ‘제주이야기’ 천연꽃으로 만드는 향수와 립글로스 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 상태바 HOME 일반 제주도 2박 3일 코스, 겨울 실내체험관광 ‘제주이야기’ 천연꽃으로 만드는 향수와 립글로스 김영수 기자 승인 2020.01.17 09:00 댓글 0 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 비행기로 1시간이면 날아가는 제주도는 잘 갖춰진 해안도로를 따라 함덕 해수욕장, 김녕 해수욕장, 월정리 해수욕장 등 넓게 펼쳐진 아름답고 푸른 바다풍경을 감상할 수 있다. 특히 제주공항에서 약 15분거리의 제주 애월해안도로는 주변으로 다양한 제주도카페와 맛집은 물론 한담해변, 금능해수욕장, 곽지해수욕장, 한림공원, 새별 오름, 제주 불빛 정원 등 관광지와 호텔이 밀집돼 제주도 여행 필수코스로 꼽힌다. 또한 제주도는 섬 특성상 날씨의 변수가 많은데다 태풍도 잦아 제주도 2박3일코스혹은 당일치기 코스에도실내관광지를 꼭 계획하는 것이 좋다. 실내체험관광지 ‘제주이야기’는 날씨에 구애 받지 않고 언제나 쾌적한 체험이 가능한 제주도 체험형 관광지로, 제주도의 자연을 담은 천연향수와 천연 화장품을 만들어 볼 수 있다. 체험상품으로는 ‘천연꽃롤향수’와 천연오일 베이스와 천연왁스를 첨가한 ‘천연꽃립글로즈’를 선생님의 친절한 설명으로 쉽게 만들 수 있으며, 화산송이 현무암 속에 향기로운 꽃을 담아 은은한 향기를 내뿜는 ‘천연꽃 방향제’와 청정 제주산 화상송이와 감귤 추출물을 함유한 ‘화산송이 모공팩’도 체험할 수 있다. 특히 대부분의 실내 만들기 체험은 연령대 제한이 있는 반면 ‘제주이야기’는 5세 이상 미취학아동부터 체험이 가능해 어린 자녀를 둔 가족단위의 여행객들의 만족도가 높다. 그리고 ‘제주이야기’의 천연꽃롤향수는 보존제를 전혀 첨가하지 않고 자극적이지 않은 천연원료로 만들어 어린이도 부담 없이 사용할 수 있고 안심하고 체험할 수 있다. 뿐만 아니라 자신이 좋아하는 향을 고르고 냉동 건조된 천연꽃을 자신만의 스타일대로 골라 넣어 데코 할 수 있는 세상에 단 하나뿐인 나만의 향수로, 특별한 제주도 기념품이자 정성을 담은 선물로 좋은 반응을 얻고 있다. 현재 제주도 내 행원 본점과 애월점구 군데를 운영 중으로 제주도의 청정지역에서 직접 재배한 꽃과 한라봉 등 천연 재료를 가공한 액상차와 기능성 화장품, 예쁜 젤캔들 등 다양한 제주도 기념품까지 구매할 수 있다. 애월 해변 입구쪽에 자리잡아 바다가 보이는 ‘제주이야기’ 애월점은 포토존을 아기자기하게 꾸며놓은 예쁜 매장 인테리어가 SNS 인증샷 핫플레이스로 자리매김하고 있으며, ‘제주이야기’ 월정리점은 월정리 해변 바로 옆에 위치해 2층 체험장에서 탁 트인 바다조망을 누리며 체험할 수 있어 커플여행객들의 선호도가 높다. 업체 관계자는 “제주도 천연꽃으로 향수와 화장품을 만드는 체험은 제주도에서 할 수 있는 특별한 체험으로, 연인이나 가족단위 방문객은 물론 회사 워크숍 등 단체 체험도 이어지고 있다”며 ”최근 제주도에서 캔들 선물이 유행하며 제주도만의 개성이 살아있는 자체제작한 젤 캔들을 기념품으로 구매하러 오시는 관광객들이 늘고 있다”고 전했다. 한편, ‘제주이야기’ 브랜드를 만든 (주)제주사랑농수산(대표 양경월)은 제주 최초로 화산석 화장품을 개발해 국내 굴지의 화장품회사에 납품하고 한라봉을 원료로 하는 액상 차 및 꽃을 이용한 티백 및 향료개발 등 지역 고유의 자연 환경과 문화적인 특성을 활용한 제품을 개발하고 있다. 저작권자 © 월간원예 무단전재 및 재배포 금지 김영수 기자 다른기사 보기 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 월간원예 소개 지난호보기 정기구독안내 광고안내 전문가상담코너 우리농촌책보내기운동 개인정보취급방침 청소년보호정책 이메일무단수집거부 서울특별시 금천구 디지털로9길 33 (IT미래TOWER) 1305호 대표전화 : 02-3474-7063~6 팩스 : 02-3471-7067 청소년보호책임자 : 이주상 법인명 : 월간원예 제호 : 월간원예 등록번호 : 서초 라 00086 등록일 : 1983-10-20 발행일 : 1983-10-20 발행·편집인 : 이주상 월간원예 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 월간원예. All rights reserved. mail to wonye@nongup.net 위로</t>
+  </si>
+  <si>
+    <t>김영진 전 제주도관광협회장 "관광 현장 전문가 중앙 가서 역할해야" &lt; 선거 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 14:38 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 김영진 전 제주도관광협회장 "관광 현장 전문가 중앙 가서 역할해야" 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 선거 김영진 전 제주도관광협회장 "관광 현장 전문가 중앙 가서 역할해야" 기자명 이은지 기자 입력 2020.01.11 15:42 수정 2020.01.12 12:19 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 11일 출판기념 북콘서트 본격 총선 행보 무소속 김영진 전 제주도관광협회장(53·사진 왼쪽)이 11일 「김영진의 새로운 여행」 출판기념 북콘서트를 열고 고성국 정치평론가와 이야기를 나누고 있다.무소속 김영진 전 제주도관광협회장(53)이 11일 출판기념 북콘서트를 열고 본격적인 총선 행보에 돌입했다. 김 전 회장은 이날 오후 2시 한라대학교 컨벤션홀에서 「제주의 미래, 제주인의 꿈과 희망을 향한 김영진의 새로운 여행」 출판기념 북콘서트를 열고 "초심을 잃지 않고 김영진이 제주를 위해 무엇을 할 수 있을지 항상 고민하겠다"고 강조했다. 책에는 제주도 관광협회장으로 활동하며 느낀 제주 현안과 해법 등에 대한 생각을 담았다. 김 전 회장은 "현재 대한민국 국회에 관광 현장 전문가는 한 명도 없다"며 "관광 1번지 제주에서 관광 현장을 제대로 배운 사람이 중앙에 가서 역할을 해야 한다"고 피력했다. 김 전 회장은 제주시 한림읍 상명리 출신으로 제주도관광협회 국내여행업분과위원장 등을 거쳐 2011년 제31대 제주도관광협회장직에 선출됐고 제34대까지 4차례 회장직을 연임했다. 지난달 26일 기자회견을 열고 제21대 국회의원 선거 제주시갑 선거구 출마를 선언했다. 자유한국당 입당을 앞두고 있으며 오는 13일 제주시갑 선거구 예비후보로 등록할 예정이다. 이은지 기자 이은지 기자 ez1707@daum.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 제주대병원 권역정신응급의료센터 개소 [본사내방] 2022년 10월 11일 한경농협, 취약계층 주택용 소방시설 기증 제주, 서울대 지역균형전형 비율 2.4%...전국 최하위 제주타요렌터카, 매월 국·내외 아동에 정기 후원 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [제민포럼] 테슬라와 한라산소주 5 일본시장 활짝 제주관광 기대감속 우려도 6 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 7 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 8 장 발장 이야기 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 내국인 관광객 분석, 신용카드 사용액 제자리 &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 14:45 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 내국인 관광객 분석, 신용카드 사용액 제자리 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 제주도 내국인 관광객 분석, 신용카드 사용액 제자리 기자명 허태홍 기자 입력 2020.01.16 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 최근 제주지역 내국인 관광객 증가율은 상승 반전했으나, 신용카드 사용액 신장률은 낮은 수준에서 횡보하는 것으로 나타났다. 한국은행 제주본부는 이러한 내용을 담은 “내국인 관광객의 제주지역 소비행태 분석” 보고서를 지난 16일 발표했다. 보고서에 따르면 최근 주력 관광 연령대로 부상한 밀레니얼 세대(1981~2000년 출생자)가 ‘다니는 여행’보다 ‘머무는 여행’을 선호하고 가성비를 중시함에 따라 전체 관광객의 지출 증가가 제한적인 모습을 보였다. 이로인해 맛집여행, 문화관광을 중심으로 내국인 관광객의 식음료비는 늘고 있으나 숙박비, 쇼핑비 등의 지출경비는 감소세를 나타냈다. 특히 숙박업은 과당경쟁에 따른 가격하락에 더해 제주 한달살기 등 장기체류 관광객이 늘어나면서 숙박업에 대한 신용카드 지출이 정체한 것으로 분석됐다. 또한 밀레니얼 세대 부상, 장기체류 관광 확산 등으로 개별여행이 주류를 이루면서 상대적으로 놀이동산 등 레저업의 지출 부진이 심화된 것으로 집계됐다. 다만, 내국인 골프 관광객 수는 2018년중 전년대비 평균 20%대의 감소를 기록하다가 지난해에는 10%대의 증가로 반전하는데 성공했다. 특이한 부분은 젊은층의 모바일 구매선호 및 신속한 배송 시스템의 발달로 온라인 배송주문이 적극 활용됨에 따라 면세점, 대형할인점 등에서 농수산품 매출이 감소한 것으로 조사됐다. 또한 장기체류 관광객들에 의한 약국, 병원 등의 편의시설과 생활관리를 위한 미용실, 세탁소 이용은 증가했다. 허태홍 기자 black4t@jejumaeil.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 서귀포시, 사무관 8명 승진 임용 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 포토뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 4 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 갓성비로 알려진 효리의단골집 ‘이조은식당’ - 뉴스프리존 × 전체기사 기획 전체 특집 인터뷰 오피니언 전체 사설 칼럼 연재 기고 기자수첩 뉴스종합 전체 정치 사회 동영상뉴스 이달의이슈 인사 부고 경제 전체 종합 금융 유통·소비자 기업 IT 자동차 건설·부동산 제약·바이오 특집 지역 전체 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 전체 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 전체 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 전체 스포츠 연예 골프투데이 포토뉴스 전체 포토 프리존 만평 카드뉴스 지역포토 미분류 프리존 책방 UPDATED : 2022-10-11 14:22 (화) 다음카페 네이버TV 블로그 페이스북 트위터 로그인 회원가입 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 전체메뉴 버튼 기획 특집 인터뷰 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 포토 프리존 만평 지역포토 기획 뉴스프리존 기획 특집 인터뷰 오피니언 뉴스프리존 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 뉴스프리존 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 뉴스프리존 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 뉴스프리존 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 뉴스프리존 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 뉴스프리존 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 뉴스프리존 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 뉴스프리존 포토뉴스 포토 프리존 만평 지역포토 기사검색 검색 상세검색 이전 다음 제주도 중문 관광단지 맛집 갓성비로 알려진 효리의단골집 ‘이조은식당’ 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 상태바 HOME 오피니언 칼럼 제주도 중문 관광단지 맛집 갓성비로 알려진 효리의단골집 ‘이조은식당’ 곽종현 기자 승인 2020.01.12 10:00 댓글 0 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버포스트 URL복사 × 제주도 중문 관광단지는 아름다운 자연경관을 품고 있는 곳으로 유수호텔과 골프장, 천제연폭포, 주상절리대, 여미지식물원, 퍼시픽랜드, 테디베어뮤지엄 등 다양한 관광지가 있어 제주도필수여행지로 알려져있습니다. 수많은 관광지가 있는 만큼 인근에는 여러 맛집들이 즐비한데 그 중 제주도민들은 물론 여행객들 사이에서도 입소문난 제주도 중문 관광단지 맛집 ‘이조은식당’이 있다. 제주 중문 갈치조림 맛집 이조은식당은 갈치조림과 갈치 회를 비롯해 다양한 갈치 요리를 저렴하게 제공하고 있는데 이같은 합리적인 가격과 정성 담아 맛을 한껏 살린 요리들로 제주도민과 제주 중문관광단지를 찾는 관광객들로부터 입소문을 타 대표적인 제주 중문 맛집으로 자리잡았다. 제주도에 거주하는 연예인들도 즐겨찾을 만큼 유명한 이 곳은 2대째 이어온 서귀포 갈치조림과 함께 갈치 회, 갈치구이를 다루며, 이를 보다 합리적으로 맛볼 수 있는 정식 메뉴도 판매하고 있다. 제주도 맛집 베스트 10 대표 메뉴는 갈치 회, 갈치조림을 기본으로 제공하면서 갈치구이와 고등어구이 중 하나를 선택해 총 세가지 메뉴를 즐길 수 있게 한 갈치 정식으로, 이 밖에도 네가지 정식 메뉴와 스페셜 메뉴 한 가지를 선보이고 있다. 이 외에도 1인, 혹은 2인이서 주문할 수 있는 식사류를 다루고 있다. 갈치조림과 고등어조림은 2인이서 즐길 수 있는 대표 식사류로, 그 밖에 고등어구이, 전복뚝배기, 전복죽, 성게국, 갈치덮밥, 한치회덮밥 등 해산물을 주재료로 한 메뉴를 다양하게 판매한다. 본 업체의 영업시간은 오전8시30분부터 오후10시까지이며 가게 앞에 주차장이 준비되어있다. 을 응원해주세요. 기사 잘 보셨나요? 독자님의 응원이 기자에게 큰 힘이 됩니다. 후원회원이 되어주세요. 독자님의 후원금은 모두 기자에게 전달됩니다. 정기후원은 모든 기자들에게 전달됩니다. 정기후원 하기 저작권자 © 뉴스프리존 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 헤드라인 뉴스 정진석 "조선, 日 침략으로 망한 것 아냐"…민주당 "역대급 망언" 경남도 "부울경 초광역협력 전면 재검토 아냐" BTS콘서트 맞아 부산 밤하늘 보랏빛으로 물들다 최신기사 안윤모 작가의 '세상의 다리 ' 프로젝트 안윤모 작가의 '세상의 다리 ' 프로젝트 네이버, 직장내 괴롭힘 늦장 조사, '특별근로감독' 및 '국정감사' 회피 네이버, 직장내 괴롭힘 늦장 조사, '특별근로감독' 및 '국정감사' 회피 군포시, 동절기 코로나19 개량백신 추가접종 진행 군포시, 동절기 코로나19 개량백신 추가접종 진행 정진석 "조선, 日 침략으로 망한 것 아냐"…민주당 "역대급 망언" 정진석 "조선, 日 침략으로 망한 것 아냐"…민주당 "역대급 망언" 대전 대덕구, 환경오염물질 배출 감시 ‘드론’이 뜬다 대전 대덕구, 환경오염물질 배출 감시 ‘드론’이 뜬다 Tweets by newsfreezone1 하단영역 하단메뉴 매체소개 이용약관 기자윤리강령 뉴스프리존 윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리제도 NF통신 매체정보 NF 통신 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 문화 나 00037 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 편집국 : 02-2235-2114 이메일 : newsfreezone@naver.com 뉴스프리존 매체정보 뉴스프리존 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 서울, 아01001 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 청소년보호책임자 : 이혜진 이메일 : newsfreezone@naver.com Copyright © 2022 뉴스프리존. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사·배포 등을 금합니다. 위로 해당 언어로 번역 중 입니다.</t>
+  </si>
+  <si>
+    <t>설 연휴기간 제주도 입도 관광객 21만명 예상...전년비 9.6%↑ &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 14:48 (화) 실시간 뉴스 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 코웨이, 2022 한국산업의 고객만족도 조사 침대·정수기 2개 부문 1위 선정 긴급 안보대책회의 참석한 황인권 전 육군 제2작전사령관 긴급 안보대책회의 참석한 김준형 전 국립외교원장 긴급안보대책회의 참석하는 이재명 더불어민주당 대표 더불어민주당 긴급 안보대책회의 [속보] 경기남부경찰청 "화성서 윤숙자 씨 실종, 민트색스카프·갈색바지" 대화 나누는 더불어민주당 원내지도부 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 설 연휴기간 제주도 입도 관광객 21만명 예상...전년비 9.6%↑ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 설 연휴기간 제주도 입도 관광객 21만명 예상...전년비 9.6%↑ 기자명 김광수 기자 입력 2020.01.15 11:26 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [시사매거진/제주=김광수 기자] 경자년 설 연휴 기간(1월23~27일)동안 제주를 방문하는 관광객은 전년 대비 9.6% 증가한 22만여명으로 전망되고 있다. 14일 제주도관광협회가 지난 10일 기준으로 발표한 2020년 설 연휴기간 입도 동향자료에 따르면 설 연휴 전날인 오는 23일부터 27일까지 5일간 21만8462명의 내·외국인 관광객이 제주를 방문할 것으로 전망됐다. 이는 지난해 설 연휴 기간(2월 2~6일) 입도객 19만9285명과 비교하면 9.6%늘어난 수치다. 이번 설 연휴 기간 일일 예상 관광객은 23일 4만2332명, 24일 4만5123명, 25일 4만2808명, 26일 4만4416명, 27일 4만3783명 등이다. 설 명절 전날인 24일 입도객이 최대치를 기록할 것으로 예상되고 있다. 이에 추이를 맞춰 항공사들도 설 연휴 기간 귀성객과 관광객 편의를 위해 제주 노선에 국내선 41편, 국제선 37편을 증편 운항한다. 국내선은 특별기 41편을 포함해 1132편, 국제선은 부정기 1편을 포함해 140편이 운항된다. 같은 기간 제주와 목포, 우수영, 완도, 여수, 녹동, 부산 등을 오가는 선박편은 총 14편 운항한다. 김광수 기자 sipong666@naver.com 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 국회, 감사원 국감 날 선 공방 예고 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 포토뉴스 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 4 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 선우은숙 재혼, 유영재 아나운서와 혼인신고... 나이·프로필 눈길 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 빅데이터 기반 관광지 자동추천 플랫폼 개발 &lt; IT/과학 &lt; 뉴스 &lt; 기사본문 - 남도일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스종합 종합 정치/행정 경제 사회 교육 문화 스포츠 사람들 빛가람 혁신도시 전남뉴스 동부권 중서부권 목포 여수 순천 광양 나주 담양 장성 함평 영광 무안 영암 강진 장흥 해남 완도 진도 신안 화순 곡성 구례 보성 고흥 기획특집 핫이슈 뉴스분석 혁신도시 집중점검 우크라 난민 보고서 광주·전남 100년 학교를 찾아서 전남미래, 섬과 바다 광주전남 종가 재발견 청년 취업난 해결방안 없나 k-포럼 남도일보가 만난 사람 강형구 작가의 야설천하 이계홍 소설 붉은 파도 사회혁신 현장을 가다 광주형일자리 청정 전남, 블루이코노미 2022 지방선거 누가뛰나 자치분권 현장 힐링!남도 스페셜남도 주말N 맛집 멋집 자연이야기 남도여행 축제 오피니언 사설 칼럼 오피니언 칼럼 월요아침 화요세평 독자권익위원회 독자투고 기고문 기자현장 포토 포토뉴스 여행 이슈&amp;이슈 스포츠 그래픽 남도 라이프 창업/취업 생활법률 반려동물 취미 ITㆍVR 남도 플러스 박람회 보험 자동차 부동산 재테크 지역 브랜드 남도PICK 학동참사 광주형일자리 블루이코노미 AI중심도시 신재생에너지 지방선거 5·18진상규명 뉴스종합 광주·전남 뉴스의 중심 모바일웹 구독신청 로그인 회원가입 구독신청 로그인 기사검색 검색 상세검색 종합 정치/행정 경제 사회 교육 문화 스포츠 사람들 빛가람 혁신도시 + 본문영역 이전 기사보기 다음 기사보기 제주도, 빅데이터 기반 관광지 자동추천 플랫폼 개발 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 IT/과학 제주도, 빅데이터 기반 관광지 자동추천 플랫폼 개발 기자명 오승현 기자 입력 2020.01.08 17:33 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도, 빅데이터 기반 관광지 자동추천 플랫폼 개발연합뉴스 캡쳐제주도가 관광객의 계절별·연령별 이동 동선 등을 분석해 개개인에게 맞는 관광지를 추천해주는 서비스를 추진한다.제주도는 올해 관광객 이동 동선을 분석한 빅데이터 기반의 관광 서비스 플랫폼 구축과 마이스산업 육성 등에 513억원의 예산을 투입키로 했다고 8일 밝혔다.빅데이터 기반 관광 서비스 플랫폼은 관광객의 렌터카 내비게이션 검색 정보 및 위치 정보, 이동통신 접속 정보, 공공와이파이 접속 정보, 버스 카드 승·하차 정보 등의 여러 정보를 모아 개별 관광객의 이동 동선을 분석하는 방법으로 맞춤형 서비스를 제공하게된다.다양한 정보를 모은 관광 서비스 플랫폼을 구축하면 기후와 계절별 연령별 관광객의 선호 관광지를 자동으로 파악해 서비스를 이용하는 개별 관광객에게 상황에 맞는 관광지를 추천해 준다.관광 서비스 플랫폼은 모바일을 통해 이용할 수 있도록 스마트폰 애플리케이션으로 개발될 예정이다.도는 또 정보통신기술(ICT)에 기반한 관광산업으로 전환하기 위해 ICT 전문인력을 양성하고 영세 관광사업체에 대한 지원 등의 사업을 병행할 예정이다.이밖에 제주 마이스 산업 육성을 위한 마이스 다목적 복합시설 착공, 마이스 산업 대전 등도 추진한다. /오승현 기자 romi0328@namdonews.com 오승현 기자 romi0328@namdonews.com 다른기사 보기 "광주전남 지역민의 소중한 제보를 기다립니다"  기사제보 저작권자 © 남도일보 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 주요기사 목포시, 제1회 사회적경제 한마당 성료 무안군, 아침밥 먹기 캠페인 펼쳐 완도군, 고향사랑기부제 활성화 준비 분주 해남군, 농수산물 미국 수출상담회 취약계층 에너지바우처 가구당 1만3천원 추가 인상 전남교육청, 일자리와 교육 선순환 구조 만든다 최신뉴스 목포시, 제1회 사회적경제 한마당 성료 무안군, 아침밥 먹기 캠페인 펼쳐 완도군, 고향사랑기부제 활성화 준비 분주 해남군, 농수산물 미국 수출상담회 취약계층 에너지바우처 가구당 1만3천원 추가 인상 전남교육청, 일자리와 교육 선순환 구조 만든다 농업기상재해 조기경보시스템 농가 이용률 ‘저조’ 민주당 김경만 의원, 제2회 시민 소통의 날 성황…공익형 노인 일자리 예산 삭감 대책 요청 e-모빌리티 엑스포 3년만에 13일 영광서 개막 로드킬(동물 찻길 사고) 상위 80개 구간 선정 가장 많이 본 뉴스 오늘 주간 월간 1 12일부터 우회전 일시정지 단속… ‘혼선’ 여전 2 [2tv 생생정보 1655회]갈비곱창구이…갈비, 막창, 곱창 환상의궁합 군산, 고수의 부엌 3 한전, 3년만에 현장 국감…‘긴장감’ 팽배 4 경찰관 음주사고·추락·영아 사망…광주·전남, 한글날 연휴 사건·사고 속출 5 순천 낙안읍성 3년 만에 민속축제 열린다 6 KIA타이거즈, 4년 만에 가을야구 진출 7 광주·전남 국회의원들, 행안부 ‘특별교부세’ 결실 8 국감 2주차, 유병호 문자·尹순방·文조사 등 핫이슈…주도권 쟁탈전 9 법원 경매시장서도 아파트 ‘거래절벽’ 10 [남도일보 기고]한·미·일 해상훈련 방해한 김정은의 모험 1 12일부터 우회전 일시정지 단속… ‘혼선’ 여전 2 [2tv 생생정보 1654회]족발 무한리필, 불족발, 보쌈, 감자탕, 인천 남동구 맛집, 가격파괴Why 3 여수 앞바다서 기름 유출하고 도주한 컨테이너 선장 붙잡혀 4 광주지역도 역전세난에 집주인 ‘골머리’ 5 [2tv 생생정보 1655회]갈비곱창구이…갈비, 막창, 곱창 환상의궁합 군산, 고수의 부엌 6 [2tv 생생정보 1653회]지금이 딱! 낙지탕탕이 연포탕 호롱구이 목포 맛집 씹을수록 고소한 가을낙지 7 서창들녘 억새 은빛물결 장관 8 [2tv 생생정보 1652회]간장 코다리조림…25년 전통 독박골 전설의 맛집 9 광주 아파트 단지서 어린 아이 들이받은 운전자 입건 10 부풀린 감정평가액…전세보증보험 피해 급증 1 영유아 노리는 수족구병 확산세 거세다 2 ‘조정지역 해제 소용없는 전남 동부권... 아파트값 ‘뚝뚝’ 3 ‘하세월’ 이던 호남고속도로 첨단방면 연결로 개통 임박 4 철 모르는 모기…가을 불청객 된 이유는? 5 '집값 반등할까'... 조정대상 해제에 광주 부동산 매물 무더기 회수 6 순천고 총동문회 행사 중 60대 남성 사망 7 전남도립대 보직교수, 영산강서 숨진 채 발견 8 성범죄 피의자 붙잡고 경찰서 앞에서 놓친 여수경찰 9 [스페셜남도 주말N]다시 찾아온 가을축제, 남도의 맛과 멋을 함께 10 여수 4층 상가 화재…18명 전원 구조 인기뉴스 1 전남도립대 보직교수, 영산강서 숨진 채 발견 2 [스페셜남도 주말N]다시 찾아온 가을축제, 남도의 맛과 멋을 함께 3 광주·전남서 독버섯처럼 퍼진 ‘마약 중독’ 4 12일부터 우회전 일시정지 단속… ‘혼선’ 여전 5 100년 역사 ‘화순 탄광’ 조기 폐광 대비책 마련된다 6 [프로야구 주간 전망] KIA타이거즈 가을야구 매직넘버 ‘3’ 7 광주-대구파크골프연맹 ‘달빛동맹’ 친선교류 8 광주 중앙공원1지구 개발사업 내분 ‘일단락’ 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 top 매체정보 광주광역시 북구 무등로 204 중흥건설 2층/남도일보사 사업자번호 : 408-81-70427 대표전화 : 062-670-1000 청소년보호책임자 : 박재일 제호 : 남도일보 등록번호 : 광주 아-00189 등록일 : 2015-01-07 회장 : 정창선 사장·발행·편집인 : 박준일 주필 : 오치남 편집국장 : 박재일 남도일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 남도일보. All rights reserved. mail to namdoilbo@namdonews.com 위로 전체메뉴 전체기사 뉴스 전체 종합 정치/행정 경제 사회 교육 문화 스포츠 사람들 빛가람 혁신도시 IT/과학 기획 특집 국제 오피니언 연예 동부취재본부 전국 HOT 뉴스 613 지방선거 TV 따라잡기 전남뉴스 전체 동부권 중서부권 목포 여수 순천 광양 나주 담양 장성 함평 영광 무안 영암 강진 장흥 해남 완도 진도 신안 화순 곡성 구례 보성 고흥 기획특집 힐링!남도 전체 스페셜남도 주말N 맛집 멋집 자연이야기 남도여행 축제 문화해설사와 함께 전통시장 그곳에 가면 힐링 오피니언 전체 사설 칼럼 오피니언 칼럼 월요아침 화요세평 지자체장 칼럼 독자권익위원회 독자투고 기고문 기자현장 릴레이인터뷰 초대석 알림 포토 전체 포토뉴스 여행 이슈&amp;이슈 연예/방송 레이싱/자동차 스포츠 TOP 그래픽 동영상뉴스 전체 동영상뉴스 UCC동영상 남도특집 남도라이프 HOT이슈 유튜브남도일보 커뮤니티 전체 알림 인사 부고 사고 인기 쇼핑정보 보도자료 캠페인 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>중문관광단지 맛집 '색달식당 중문 본점' 제주도의 특색있는 맛을 살린 갈치 조림으로 인기 &lt; 생활/문화 &lt; 라이프 &lt; 기사본문 - 한국목재신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 생활/문화 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 중문관광단지 맛집 '색달식당 중문 본점' 제주도의 특색있는 맛을 살린 갈치 조림으로 인기 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프 생활/문화 중문관광단지 맛집 '색달식당 중문 본점' 제주도의 특색있는 맛을 살린 갈치 조림으로 인기 기자명 이지민 기자 입력 2020.01.13 11:00 글자크기 본문 글씨 키우기 본문 글씨 줄이기 바로가기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사저장 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [한국목재신문=이지민 기자] 제주도는 시기를 불문하고 관광객들로 북적대는 곳이다. 서울에서 비행기를 타고 약 40분 거리로 접근하기 편리할 뿐더러, 내륙 지방 사람들에게는 색다른 풍경을 가지고 있기 때문이다. 최근에는 카멜리아힐의 동백꽃을 보기 위해서, 산방산에 오르기 위해서 등, 다양한 목적으로 찾는 이들이 많은데, 이처럼 유명한 관광지에는 반드시 연관 검색어로 '맛집'이 뒤따르기 마련인데, 최근에는 중문관광단지와 인접한 '색달식당 중문본점'이 소문난 맛집으로 떠오르고 있다. 색달식당 중문 본점은 중문관광단지에서 1분 거리에 위치하고 있어, 오랫동안 중문관광단지를 방문하는 사람들의 식사를 책임지고 있다. 또한 숙소까지 픽업 서비스도 제공하고 있는데, 그래서 꼭 방문하는 것이 아니더라도, 소문난 맛집이란 입소문을 듣고 일부러 찾는 사람들도 많다. 색달식당의 대표 메뉴는 통갈치조림이다. 제주도에 온 만큼, 관광객들은 해산물을 사용한 요리를 찾기 마련인데, 색달식당의 통갈치조림은 생물 갈치를 사용하는 것과 더불어, 제주도에서 민간에 전해져 내려오는 방식으로 만들기 때문에, 내륙 지방에서 찾는 손님들에게는 아주 독특한 인상을 준다. 갈치의 특성상 생물 갈치는 수산지와 인접한 곳이 아니고서는 쉽게 맛볼수 없다. 우리가 일반적으로 먹는 갈치는 모두 냉동이라고 보는 것이 맞는데, 그래서 생물 갈치의 맛 그 자체로도 상당한 메리트가 있다고 볼 수 있다. 생물 갈치는 냉동에 비해서 살이 훨씬 탱탱하고 쫄깃한 식감을 가지고 있으며, 그래서 조림으로 해먹으면 생물 갈치 본연의 특성을 그대로 살릴 수 있으며, 고급스러운 만찬용으로 내놓아도 손색이 없을 정도이다. 또한 색달식당에서는 손님들의 입맛에 맞추어 내륙 방식으로 조리하는 것이 아니라, 제주도 전통의 방식을 그대로 적용하여, 보다 색다른 맛을 선사하고 있다. 제주 지역에서 먹는 갈치조림은 달짝지근한 맛이 조금더 강하며, 양념장의 풍미가 깊고 진한 것이 특징이다. 그래서 언뜻 보기에는 흔하디 흔한 갈치조림이라고 생각할 수 있으나, 그 맛을 보면, 내가 아는 요리가 맞나 싶을 정도로 이색적인 맛을 경험할 수 있다. 여기서 조금 더 진보된 맛을 원하는 손님들은 '문어통갈치세트'를 주문한다. 이는 말그대로 갈치 조림에 문어를 통으로 집어 넣은 것으로, 갈치살보다 쫄깃한 문어살의 맛을 더 선호하는 사람들도 있다. 이제 설이 2주 앞으로 다가왔다. 이 때를 틈타 가족들과 제주도 여행을 계획하는 사람들이 많은데, 제주도 여행에서 카멜리아힐, 산방산 같은 관광 키워드들도 필수적이지만, 식도락을 원한다면 제주도 전통의 맛을 느낄 수 있는 '색달식당 중문 본점' 또한 중요한 키워드로 여여겨 할 것이다. 색달식당 중문 본점은 오전 9시부터 오후 9시 30분까지 운영하고 있으며, 보다 자세한 문의는 대표 전화번호를 통해서 가능하다. 기자의 다른기사 보기 저작권자 © 한국목재신문 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 많이 본 뉴스 1 이찬일의 글로벌 경제 브리프 136 2 가스와 전기가격 인상으로 유럽 목재와 장작 가격 폭등 3 2022년 7월 원목 국별 수입실적 4 일본, 마루 및 합판 수입 증가 5 한국임업진흥원, 2022년 하반기 소나무재선충병 무인항공기(드론) 예찰 시행 오피니언 만평 2022년 10월 1일자 만평 사설 국산재 이용 진정성 있는 정책이 필요하다 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 경기도 성남시 분당구 운중로 115 판오션타워 903호 대표전화 : 031)8016-6024 팩스 : 031)8016-6028 청소년보호책임자 : 윤형운 법인명 : (주)미디어우드 제호 : 한국목재신문 등록번호 : 경기 아53148 등록일 : 2010-06-29 발행일 : 2000-08-01 발행·편집인 : (주)미디어우드 윤형운 한국목재신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 한국목재신문. All rights reserved. mail to kingwood22@naver.com 위로 전체메뉴 전체기사 뉴스 전체 목재산업 농림산림 건설건축 가구인테리어 경제경영 관세무역 해외목재 문화환경 기계공구 도료 라이프 전체 리빙·데코 생활/문화 DIY 생활경제 오피니언 전체 특집 사설 나이테 기자수첩 木소리 컬럼 만평 인터뷰 건축 전체 건축자재 하우징 인테리어 Space 가격 전체 국산재 국내가공방부목 몰딩 수입원목 수입제재목 천연데크재 목조주택자재 특수목 보드류 WPC 마루 집성판류 통계 전체 원목 합판 제재목 단판 MDF PB 및 OSB 목탄 성형목재 목재칩(펠릿) 목재류 수출실적 목재류 수입실적 마루판 목제틀 목제케이스 건축목공 목재류 총수입 판지류 펄프 정보 전체 공지사항 구인구직 급매급구 인사동정 일정 전시회일정 자료실 전체 목재과학 수종정보 국제 국내시황 문화 컨설팅 개업이전 목조포토 조경포토 자재포토 인물포토 가구/DIY포토 이벤트 공방찾기 건강한의학 목재여행 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[2020년 신년설계] 박홍배 제주도관광공사 사장 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 [2020년 신년설계] 박홍배 제주도관광공사 사장 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 [2020년 신년설계] 박홍배 제주도관광공사 사장 편집팀 iheadline@hanmail.net 승인 2020.01.03 14:44 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 박홍배 제주도관광공사 사장. ⓒ헤드라인제주 풍요와 희망, 기회의 해인 2020년 경자년 흰 쥐의 해가 밝았습니다. 새해 복 많이 받으시고, 올 한해도 도민 가정마다 건강을 기원하며, 소망하는 모든 일들이 이뤄지는 한 해가 되기를 진심으로 기원합니다. 아울러 지난 한 해 동안 제주관광공사에 보내주신 관심과 사랑에 깊은 감사를 드리며, 저희 공사 임직원 모두는 ‘관광으로 모든 도민이 행복한 제주’를 만들기 위해 더 노력하며 책임감 있는 도민의 공기업으로 거듭나겠습니다. 지난해를 돌이켜보면, 2017년 고고도미사일방어체계(사드)의 한반도 배치 이후 외국인 관광객 감소로 휘청거린 제주 관광시장이 3년 만에 다시 1500만 관광객 시대를 열면서 새로운 비상을 하는 한 해였습니다. 이러한 성과를 달성하는 데 있어 우리 제주관광공사는 ‘질적성장, 도민사회를 살찌우는 제주관광’을 위해 다양한 분야의 핵심사업을 추진하면서 관광 생태계의 진화를 선도하였습니다. 이에 따라 금년에도 우리 제주관광공사 임직원 모두는 제주관광의 경쟁력 강화를 통해 도민 행복지수를 보다 더 높일 수 있도록 뚜렷한 목표와 방향을 가지고 전력을 다해 노력할 것을 약속드립니다. 우선 우리공사는 올 한해 △지역관광의 가치 증대 △글로벌 휴양관광 마케팅 강화 △고품질의 관광 생태계 조성 등 관광진흥 3대 전략을 수립했습니다. 이를 바탕으로 우리공사는 관광의 파급 효과가 지역주민에게 더욱 도달될 수 있도록 혁신적인 지역관광 콘텐츠를 많이 발굴해 내는 한편, 지역경제에 힘이 될 수 있는 문화관광 콘텐츠 확대에 많은 노력을 기울이겠습니다. 이와 함께 지속가능한 제주관광 산업의 발전을 위해 고부가가치 관광 상품 개발과 함께 SIT 관광객 유치를 위한 맞춤형 타깃 마케팅을 적극적으로 전개해 나가겠습니다. 특히 마케팅 사업을 추진할 때마다 도내 관광업계의 경쟁력을 높일 수 있도록 협력체계를 더욱 더 강화하겠습니다. 최근 시진핑 중국주석의 방한이 예상되는 등 한중관계의 화해무드가 조금씩 조성되고 있는 시점에서 우리공사도 미래를 보는 혜안으로 중국 및 크루즈 마케팅에 대한 방향을 좀 더 세밀히 추진하는 한편, 착실한 전략 로드맵을 만들어 나가는 데 모든 역량을 집중하겠습니다. 아울러 우리공사는 맞춤형 스마트 관광 서비스 확대와 수요자 중심의 수용태세 혁신에 만전을 기하겠습니다. 전 세계에선 현재 4차 산업혁명 및 5G 시대가 도래하면서 관광객의 니즈 및 관광 정보를 얻는 방법들이 매우 다양하게 전개되고 있습니다. 따라서 우리공사 역시 국내·외 소비 트렌드를 주의 깊게 파악하고, 이에 대응하기 위한 색다른 스마트관광 서비스와 글로벌 수용태세 개선에 만전을 기울이겠습니다. 마지막으로 우리 제주관광공사에서는 관광 소비패턴을 분석하고, 이를 빅테이터화하여 활용하는 기반을 구축함으로써 관광진흥의 기능이 더욱 강화될 수 있도록 노력하겠습니다. 사람과 사물이 소통하는 새로운 시대에 우리 제주관광공사는 익숙함을 뛰어 넘어 새로운 꿈을 현실로 만들어 나가겠습니다. 이 아름다운 여정에 도민 여러분과 관광업계, 행정, 학계 등 모든 관계자 여러분의 동참을 부탁드립니다. 2020년에도 우리공사는 제주관광의 빛을 밝힐 수 있도록 노력하고, 관광객과 도민 여러분의 기대와 성원에 보답할 줄 아는 관광 전문 공기업이 될 것을 약속드립니다. 감사합니다. 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 여행코스 실내체험관광 '제주이야기' 천연 꽃 향수와 립글로스 만들기 - 데일리시큐 × 전체기사 산업 이슈 정책 해외 IT&amp;생활 전체 핫이슈 라이프 뉴스 경제일반 이슈 산업 정책 해외 IT&amp;생활 핫이슈 자료실 전체기사 기사검색 기사제보 뉴스레터신청 2022-10-11 14:45 (화) 처음으로 로그인 회원가입 이전 다음 제주도 여행코스 실내체험관광 '제주이야기' 천연 꽃 향수와 립글로스 만들기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME IT&amp;생활 제주도 여행코스 실내체험관광 '제주이야기' 천연 꽃 향수와 립글로스 만들기 우진영 기자 승인 2020.01.10 09:00 페이스북 트위터 카카오스토리 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주도는 국내 최대 섬으로 차로 이동시 동쪽에서 서쪽으로 1시간 30분이 소요되며 북쪽에서 남쪽으로 이동해도 1시간이 걸린다. 때문에 제주도 여행코스는 미리 권역을 정하고 최대한 동선을 짧게 잡아 이동시간을 줄이는 영리한 계획을 세워야 알차게 제주도를 즐길 수 있다. 제주도는 사계절 다른 풍경과 다양한 볼거리와 놀거리, 먹을거리로 몇 번을 와도 질리지 않아 재방문율이 높고 한 달 살기 붐이 일기도 했다. 실내체험관광지 ‘제주이야기’는 제주도의 자연을 담은 천연향수와 천연 화장품을 만들어 볼 수 있는 제주도 체험형 관광지로, 실내에 자리하고 있어 가능날씨에 구애 받지 않고 언제나 쾌적한 체험이 가능하다. 특히 대부분의 실내 만들기 체험은 연령대 제한이 있는 반면 ‘제주이야기’는 5세 이상 미취학아동부터 체험이 가능해 어린 자녀를 둔 가족단위의 여행객들에게 선호되고 있다. 체험상품으로는 ‘천연꽃 롤향수’와 천연오일 베이스와 천연왁스를 첨가한 ‘천연꽃 립글로즈’를 선생님의 친절한 설명으로 쉽게 만들 수 있으며, 화산송이 현무암 속에 향기로운 꽃을 담아 은은한 향기를 내뿜는 ‘천연꽃 방향제’와 청정 제주산 화상송이와 감귤 추출물을 함유한 ‘화산송이 모공팩’도 체험할 수 있다. ‘제주이야기’의 천연꽃 롤향수는 자신이 좋아하는 향을 고르고 냉동 건조된 천연꽃을 자신만의 스타일대로 골라 넣어 데코 할 수 있는 세상에 단 하나뿐인 나만의 향수로, 특별한 제주도 기념품이자 정성을 담은 선물로 좋은 반응을 얻고 있다. 또한 보존제를 전혀 첨가하지 않고 자극적이지 않은 천연원료로 만들어 어린이도 부담 없이 사용할 수 있고 안심하고 체험할 수 있어 가족단위의 여행객들에게 특히 선호되고 있다. 현재 제주도 내 행원본점과 애월점 두 군데를 운영 중으로 제주도의 청정지역에서 직접 재배한 꽃과 한라봉 등 천연 재료를 가공한 액상차와 기능성 화장품, 예쁜 젤캔들 등 다양한 제주도 기념품까지 구매할 수 있다. 애월 해변 입구쪽에 자리잡아 바다가 보이는 ‘제주이야기’ 애월점은 포토존을 아기자기하게 꾸며놓은 예쁜 매장인테리어가 SNS 인증샷 핫플레이스로 자리매김하고 있으며, ‘제주이야기’ 월정리점은 월정리 해변 바로 옆에 위치해 2층 체험장에서 탁 트인 바다조망을 누리며 체험할 수 있어 커플여행객들의 선호도가 높다. 업체 관계자는 “제주도 천연꽃으로 향수와 화장품을 만드는 체험은 제주도에서 할 수 있는 특별한 체험으로, 연인이나 가족단위 방문객은 물론 회사 워크숍 등 단체 체험도 이어지고 있다”며”최근 제주도에서 캔들 선물이 유행하며 제주도만의 개성이 살아있는 자체제작한 젤 캔들을 기념품으로 구매하러 오시는 관광객들이 늘고 있다”고 전했다. 한편, ‘제주이야기’브랜드를 만든 (주)제주사랑농수산(대표 양경월)은 제주 최초로 화산석 화장품을 개발해 국내 굴지의 화장품회사에 납품하고 한라봉을 원료로 하는 액상 차 및 꽃을 이용한 티백 및 향료개발 등 지역 고유의 자연 환경과 문화적인 특성을 활용한 제품을 개발하고 있다. 저작권자 © 데일리시큐 무단전재 및 재배포 금지 우진영 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 많이 본뉴스 1 국제사이버보안인증협회 창립총회 및 발대식 개최 국제사이버보안인증협회 창립총회 및 발대식 개최 2 [박나룡 보안칼럼] 국가의 개인정보 흐름도가 필요하다 [박나룡 보안칼럼] 국가의 개인정보 흐름도가 필요하다 3 한수원-한전KDN, 정규직 채용전환 인턴에 대한 미지급 퇴직금만 2억여 원 4 국회ICT융합포럼, ‘사이버보안 현황과 전략’ 세미나 개최 국회ICT융합포럼, ‘사이버보안 현황과 전략’ 세미나 개최 5 [3보] 스타벅스코리아, 보안문제 지적한 CISO·CPO에 직장내 괴롭힘으로 감봉 처분 [3보] 스타벅스코리아, 보안문제 지적한 CISO·CPO에 직장내 괴롭힘으로 감봉 처분 오늘이 주요뉴스 [정보보호 카드뉴스] 뒤로 정보가 술술...가상머신 백도어 인터뷰&amp;기고 [정보보호 카드뉴스] 뒤로 정보가 술술...가상머신 백도어 시스코 제품 보안취약점 주의...최신 버전 사용해야 주의 시스코 제품 보안취약점 주의...최신 버전 사용해야 IT 및 언론계 종사자 대상 해킹 공격 증가...채용 미끼로 접근 긴급속보 IT 및 언론계 종사자 대상 해킹 공격 증가...채용 미끼로 접근 [정보보호 카드뉴스] 뒤로 정보가 술술...가상머신 백도어 시스코 제품 보안취약점 주의...최신 버전 사용해야 IT 및 언론계 종사자 대상 해킹 공격 증가...채용 미끼로 접근 2022년 소프트웨어마이스터고 끝장 해커톤 대회 개최 [정보보호 카드뉴스] 뒤로 정보가 술술...가상머신 백도어 시스코 제품 보안취약점 주의...최신 버전 사용해야 IT 및 언론계 종사자 대상 해킹 공격 증가...채용 미끼로 접근 2022년 소프트웨어마이스터고 끝장 해커톤 대회 개최 보안자료 (22년) 개인정보보호 수준별 교육_ 초급과정 교육 교재- 3교시 개인정보 유·노출 예방 (22년) 개인정보보호 수준별 교육_ 초급과정 교육 교재- 2교시 개인정보의 안전한 관리 (22년) 개인정보보호 수준별 교육_ 초급과정 교육 교재-1교시 개인정보보호법 주요 내용 (22년) 개인정보보호 수준별 교육_ 공공기관 과정 교육 교재-3교시 공공기관 특화제도 (22년) 개인정보보호 수준별 교육_ 공공기관 과정 교육 교재-2교시 공공기관 관련 개인정보 유출사례분석 및 사후발생 대처 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 송파구 가락로 208, 402호(송파동, 일조빌딩) 대표전화 : 02-400-2908 팩스 : 02-400-2906 청소년보호책임자 : 길민권 법인명 : 제호 : 데일리시큐 등록번호 : 서울 아 02362 등록일 : 2011년 3월 28일 발행일 : 2017-05-01 발행·편집인 : 길민권 사업자 번호 : 301-87-02348 데일리시큐 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 데일리시큐. All rights reserved. mail to mkgil@dailysecu.com 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제주 첫 입도 관광객 대상 행사 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 14:20 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 제주 첫 입도 관광객 대상 행사 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도관광협회, 제주 첫 입도 관광객 대상 행사 기자명 문서현 기자 입력 2020.01.02 16:44 수정 2020.01.02 16:48 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도와 제주도관광협회(회장 부동석)는 2020년 경자년(庚子年) 새해 첫 날을 맞이해 제주국제공항 국내선과 국제선 도착대합실, 제주항에서 첫 입도 국내·외 관광객을 대상으로 건강과 행복을 기원하며, 제주방문 감사의 마음을 담은 환영행사를 진행했다.1일 제주국제공항 국내선을 이용 새해 첫 입도 관광객 환영기념 이벤트 주인공으로는 지재익씨(대구 달성군), 국제선 우초이춘씨(홍콩)와 제주항 첫 입항객 김무성씨(충청남도 논산시)에게 40만원 상당 제주여행상품권, 홍삼세트, 복주머니, 꽃다발 등의 푸짐한 기념품이 주어졌다.새해 첫 날 제주를 방문한 관광객과 도민들을 대상으로는 환영현수막 게첩, 삼다수, 기념품(복주머니)을 한복도우미와 함께 나눠주며 환영 메세지를 전달했다.특히, 제주국제공항 국내선 도착 게이트에서는 “2020 경자년 새해 첫 행운을 잡아라” 이벤트 존을 운영, 관광객들이 직접 참여하여 각종 게임 등을 즐기며 제주감귤 등 제주 특산품을 받아가는 즐거운 분위기가 이어졌다.한편 새해 첫 날에는 3만9천6백여명의 관광객이 제주를 찾았다. 이는 지난해 보다 27% 증가율을 보이고 있다.관광협회 관계자는 “관광객 1500만명 시대 재진입과 함께 제주도의 관광환경 변화에 선제적 대응정책에 맞춰 도민 체감도 증진 및 관광객 만족도 제고에 초점을 두어 2020년도 제주관광 경쟁력 강화에 박차를 가할 것” 이라고 말했다. 문서현 기자 start-to@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 투자유치 희망 기업 JDC 파트너스데이 개최 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 8 ‘경유·휘발유 값’ 전국서 가장 비싼 곳은 ‘제주도’ 1 조사 발표하면 싸집니까 ? 도 홈페이지를 방문해서 확인하는 사람이 몇명이나 있을까요 ? 2 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 3 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 4 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 5 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 6 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 7 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>경자년 새해 첫 제주도 입도 관광객에 '깜짝 환대' 이벤트 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 경자년 새해 첫 제주도 입도 관광객에 '깜짝 환대' 이벤트 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 경자년 새해 첫 제주도 입도 관광객에 '깜짝 환대' 이벤트 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2020.01.01 10:17 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 경자년(庚子年) 새해 첫날인 1일 아침, 제주국제공항 국내선과 국제선, 제주항여객터미널을 통해 입도한 2020년 첫 관광객들이 깜짝 환대를 받았다. 그 주인공은 항공편 국내선 입도1호인 지재익씨(대구 달성군), 국제선 입도1호 우초이춘씨(홍콩)와 제주항 첫 입항객 김무성씨(충청남도 논산시). 제주특별자치도와 제주도관광협회(회장 부동석)는 제주방문 감사의 마음을 담은 환영행사를 열고 이들에게 40만원 상당 제주여행상품권, 홍삼세트, 복주머니, 꽃다발 등을 전달했다. 또 새해 첫 날 제주를 방문한 관광객과 도민들을 대상으로는 환영현수막 게첩, 삼다수, 기념품(복주머니)을 한복도우미와 함께 나눠주며 환영 메세지를 전달했다. 국제선을 통한 입도1호 관광객. 제주항을 통한 입도1호 관광객. 제주공항 국내선 도착 게이트에서 '2020 경자년 새해 첫 행운을 잡아라' 이벤트 존을 운영하며 관광객들이 직접 참여해 각종 게임 등을 즐기며 제주감귤 등 제주 특산품을 제공했다. 관광협회 관계자는 "관광객 1500만명 시대 재진입과 함께 제주도의 관광환경 변화에 선제적 대응정책에 맞춰 도민 체감도 증진 및 관광객 만족도 제고에 초점을 두어 2020년도 제주관광 경쟁력 강화에 박차를 가할 것"이라고 말했다. 한편 새해 첫 날에는 3만96000여명의 관광객이 제주를 찾을 것으로 예상되고 있다. 이는 지난해 첫날보다 27% 많은 것이다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>신용카드 빅데이터를 통해 본 제주관광산업 동향..카드소비 제주도 읍 면 동으로 확산 - 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media × 블록체인&amp;정책 전체 블록체인&amp;정책 블록체인&amp;산업 전체 블록체인&amp;산업 블록체인 지식창고 블록체인&amp;마켓 전체 마켓인사이드 프로젝트 IT 게임 인베스트뉴스 코인코드 스팟 코인니스 스팟 E&amp;경제·산업 전체 증권·카드·투자 통신·IT·게임 자동차·유통·식품 건설·부동산·조선 제약·바이오·의료 은행·보험 E&amp;4차산업 전체 사물인터넷 자율주행 드론 5G·VR·메타버스 동향및전망 스마트팩토리 E&amp;AI인공지능 전체 동향및전망 자율주행&amp;빅데이터 AI 기술 AI 로봇 AI 쇼핑 AI 플랫폼 E&amp;핀테크·페이먼트 전체 동향및전망 스타트업·로보어드바이저 P2P·공유경제 O2O 인터넷은행·오픈뱅킹 크라우드펀딩 페이먼트 투데이단신 전체 투데이단신 정치&amp;정책 비즈&amp;컬쳐 오늘의 데이터 분석 UPDATED. 2022-10-11 14:40 (화) 로그인 회원가입 모바일웹 전체 블록체인&amp;정책 블록체인&amp;정책 블록체인&amp;산업 블록체인&amp;산업 블록체인 지식창고 블록체인&amp;마켓 마켓인사이드 프로젝트 IT 게임 인베스트뉴스 E&amp;경제·산업 증권·카드·투자 통신·IT·게임 자동차·유통·식품 건설·부동산·조선 제약·바이오·의료 은행·보험 E&amp;4차산업 사물인터넷 자율주행 드론 5G·VR·메타버스 동향및전망 스마트팩토리 E&amp;AI인공지능 동향및전망 자율주행&amp;빅데이터 AI 기술 AI 로봇 AI 쇼핑 AI 플랫폼 E&amp;핀테크·페이먼트 동향및전망 스타트업·로보어드바이저 P2P·공유경제 O2O 인터넷은행·오픈뱅킹 크라우드펀딩 페이먼트 기사검색 검색 이전 다음 신용카드 빅데이터를 통해 본 제주관광산업 동향..카드소비 제주도 읍 면 동으로 확산 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME E&amp;AI인공지능 자율주행&amp;빅데이터 신용카드 빅데이터를 통해 본 제주관광산업 동향..카드소비 제주도 읍 면 동으로 확산 김태연 기자/조해리 기자 승인 2020.01.02 14:56 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 신용카드 빅데이터를 통해 본 제주관광산업 동향..카드소비 제주도 읍 면 동으로 확산 2018년 제주관광산업 신용카드 매출은 3조 6,420억원으로 추계되었으며, 카드소비도 읍면 등 도 전역에 확산되고 있는 것으로 나타났다. 제주관광공사가 이번 분석에 사용한 신용카드 빅데이터는 국내 높은시장점유율을 차지하고 있는 S카드 매출데이터 자료로서, 2012년부터 2018년까지 제주지역 방문관광객의 신용카드 월간 거래정보이다. 이 자료는 연령, 거주지역(국적), 이용지역, 산업구분, 매출액, 이용회수 등의 정보를 포함하고 있다. 분석에 사용된 자료는 총 12,552,835개로서, 2018년 제주를 방문한 내·외국인 관광객의 카드소비액(매출액)을 국내 신용카드사와 협업해 신용카드 빅테이터를 분석한 결과다. 제주관광공사에 따르면 내국인 이용지역별 카드소비액은 제주시 도심에 집중돼 왔으나 점차 비중이 낮아지는 반면 동서부 등 도 전역으로 소비가 확산되고 있는 것으로 나타나 관광산업의 불균형이 점차 개선되고, 지역관광의 낙수효과가 읍면지역 주민으로 확대되면서 도민체감도가 점차 높아지고 있는 것으로 파악됐다. 제주시 도심 1조 240억원(50.5%), 서귀포시 도심 1,580억원(20.5%), 서귀포시 동부 1,790억원(8.8%), 제주시 서부 1,580억원(7.8%), 제주시 동부 1,480억원(7.3%), 서귀포시 서부 1,020억원(5.1%)의 순으로 나타났다.  제주시 도심은 2012년 56.8%에서 지속적으로 하락하여 2018년에 50.5%까지 낮아진 반면, 제주시 동부는 4.5%에 7.3%로, 제주시 서부는 5.1%에서 7.8%로 상승했다. 서귀포시 지역도 서부 비중이 2012년 3.3%에서 2018년 5.1%로 상승해 내국인 관광객 소비가 점차 도 전역으로 확산되고 있음을 보여주고 있다. 외국인 관광객 카드 소비는 중국이 6,320억원으로 전체의 79.2%를 차지하고 있다. 다음으로 유럽권 420억원(5.3%), 북미권 390억원(4.9%)이 소비를 했으며, 비중국 중화권(홍콩, 대만)은 330억(4.2%), 그리고 일본은 160억원(2.0%) 순으로 나타났다. 중국인 카드 소비액 비중은 2016년 9,840억원(91.1%)으로 정점을 찍은 후 2018년 6,320억원(79.2%)으로 비중이 감소했으며, 일본은 2012년 250억원(12.5%) 정점에서 2015년 90억원(1.2%)으로 최저점을 기록한 후 2018년에 160억원(2%)으로 조금씩 회복되고 있다. 홍콩 대만 등 비중국 중화권과 동남아시아권도 2012년 각각 80억원, 30억원에서 2018년 330억원, 170억원으로 4~5배 성장했다. 특히 유럽권과 북미권은 2012년 각각 50억원(2.3%), 60억원(2.7%)에서 2018년 420억원(5.3%), 390억원(4.9%)으로 2배 이상 지속적인 성장을 보이고 있다. 이는 제주특별자치도가 지속적으로 추진 해 온 제주관광산업의 해외 시장다변화가 구체적인 성과를 보이고 있다는 것으로 나타났다. GIS(지리정보시스템, Geographic Information System)을 이용해 지역별 카드매출을 분석한 결과, 카드 소비액 500억원 이상을 기록한 지역이 2012년 5개 읍면동에서 2018년에는 13개 읍면동으로 꾸준히 늘었다. 관광편의시설이 밀집돼 있는 제주시 연동(6,890억원)과 제주공항이 있는 용담2동(4,713억원), 중문관광단지가 있는 서귀포시 색달동(1,475억원) 등 3개 지역은 카드 소비액이 여전히 높기는 하나, 노형(1,087억원) 성산(912억원) 조천(890억원) 애월(877억원) 서귀동(876억원) 표선면(793억원) 안덕면(723억원) 중문동(651억원) 한림읍(606억원) 구좌읍(511억원)등으로 카드 소비가 도 전역으로 확산되고 있는 것으로 나타났다. 이는 제주관관산업의 규모가 갈수록 커지면서 연동 용담2동 색달동 등 전통적인 관광중심지 뿐 아니라 내국인 위주의 식도락 여행과 지역관광이 활성화 되면서 자연경관이 좋은 읍면지역 매출이 증가하고, 수요증가를 반영한 창업 증가로 매출액이 더욱 확대되는 승수효과가 발생하고 있는 것으로 분석됐다. 업종별 신용카드 매출액은 소매업이 1조 5,070억원(41.4%)으로 가장 많고 운수업 8,970억원(24.6%), 음식점업 7,600억원(20.9%), 숙박업 2,880억원(8.0%), 여가스포츠레저업 1,130억원(3.1%) 순으로 나타났다. 매출액 분석 시작 년도인 2012년 대비 소매업 매출액은 2.3배, 숙박업은 2.5배, 음식점업은 2.7배 성장했다. 운수업은 1.8배, 여가 스포츠레저업도 1.3배 성장했다. 제주관광공사 관계자(연구조사센터)는 이번 제주관광산업 신용카드 매출액 빅데이터 분석을 매년 실시하고 있으며, 내년에는 제주관광 현안에 대한 심층 분석을 다루는「제주관광 이슈포커스」와 빅데이터 분석보고서를 주기적으로 발간할 계획이라고 전했다. FINTECHPOST 저작권자 © 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media 무단전재 및 재배포 금지 김태연 기자/조해리 기자 다른기사 보기 [관련기사] 국내 렌터카보험 전문연구소 공식 출범..자신만만 렌터카보험연구소, "똑똑한 렌터카보험 시대 선도" 맵퍼스, 교통약자를 위한 최적의 경로 데이터를 구축하다 LG CNS, 실거래 데이터 검증으로 장애 없는 IT 시스템 구축 가이온, 해외 수출입데이터로 데이터 분석 서비스 확장 메디치소프트, ‘인공지능 빅데이터 분석 추천 방법 최우수 사례상 수상’ SK텔레콤, 통계청과 모바일 빅데이터 기반 유동인구 지도 공개 한국데이터산업진흥원, 마이데이터 총망라한 '마이데이터 컨퍼런스' 성료..마이데이터 개념부터 개인데이터 플랫폼, 정책 및 혁신 사례 등 총망라 맵퍼스, 2020년 대졸 신입사원 공개 채용..자율주행 기술 강소 기업 만들 인재 발굴 출퇴근 관리 테크 기업 푸른밤, 업계 최초로 API 전면 공개 많이 본 뉴스 1해시드, 블록체인 인재 양성소 커뮤니티 ‘프로토콜 캠프’ 3기 활동 시작 2MNB글로벌-KDE, 팝 아티스트 찰스장과 NFT 발행 3온더(Onther), 전체 인력 중 46% 이더리움 콘퍼런스 Devcon 참석 4보라네트워크, 합작 P2E 프로젝트 '보라배틀' 온보딩 발표 5오지스, BPMG와 공식 파트너십 체결하며 시너지 강화 6메타마인 재단, 글로벌 거래소 디지 파이넥스에 'MTMN' 상장 7LiveArt, 첫 NFT 시리즈 작품 ‘메타모픽 요변의 스톤 genesis’ 출시 발표 8Crurated, NFT 기술이 지원하는 배럴 조각 판매를 제공 9비피엠지, 오지스와 기술 및 사업 협력 파트너십 10글로벌 토털 골프서비스 플랫폼, ‘메타 브릿지 월렛(MetaBridge)’ 출시 최신기사 펜타브리드, 멤버십 유틸리티 NFT 프로젝트 Royal NFT Club 출범 펜타브리드, 멤버십 유틸리티 NFT 프로젝트 Royal NFT Club 출범 공일이티씨(01etc)-서울디자인재단, 2차 NFT 공모전 시작 공일이티씨(01etc)-서울디자인재단, 2차 NFT 공모전 시작 해시드 이머전트- 인도 나스콤,“인도 웹3.0 인재 규모 전세계 3위 수준” 네스트리미디어그룹, 브이티지엠피와 NFT 개발 및 컨설팅 업무협약 체결 네스트리미디어그룹, 브이티지엠피와 NFT 개발 및 컨설팅 업무협약 체결 체인저, 스위프트(Swift) 주관 글로벌 금융권 최대 축제 'Sibos(사이보스) 2022' 참가 체인저, 스위프트(Swift) 주관 글로벌 금융권 최대 축제 'Sibos(사이보스) 2022' 참가 아시아 지역 디지털 기업 연합체 DPA 출범, 2030년 한국 디지털 경제 규모 약 520억 달러 전망 아시아 지역 디지털 기업 연합체 DPA 출범, 2030년 한국 디지털 경제 규모 약 520억 달러 전망 미스블록, 메디포레치과의원과 MOU 체결 미스블록, 메디포레치과의원과 MOU 체결 EU 경제위원회, 암호화폐 법안 MiCA 승인 신문사소개 기사제보 광고문의 정정보도 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 영등포구 선유로47길 19 기사정정요청: press88only@daum.net 애드버토리얼 아티클 : 광고문의 클릭 및 작성 대표전화 : 010-3219-7524 (문자 수신용) 편집부장 조해리 제호 : 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media 등록번호 : 서울 아 04281 등록일 : 2016-12-15 발행일 : 2016-12-15 발행인·편집인 : 조흥훈(Harry_cho) 청소년보호책임자 : 강민 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2016-2022 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media. All rights reserved. mail to ajuaju123@naver.com(business proposal) / 보도자료는 press88only@daum.net 위로</t>
+  </si>
+  <si>
+    <t>[2020년 신년설계] 부동석 제주도관광협회장 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 [2020년 신년설계] 부동석 제주도관광협회장 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 [2020년 신년설계] 부동석 제주도관광협회장 편집팀 iheadline@hanmail.net 승인 2020.01.05 10:33 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 부동석 제주도관광협회장. ⓒ헤드라인제주 2020년 경자년 새해가 밝았습니다. 먼저 지난해 어려운 여건 속에서도 제주관광을 위해 치열한 한 해를 보낸 관광인 여러분께 깊은 존경과 감사의 말씀을 드리며 올해는 백색(흰 쥐)과 함께 백의의 민족임을 이어오며 다시 회복(‘子(자)’)한다는 의미의 ‘경자년’으로 새로운 하늘이 열리는 대운세가 찾아오는 희망의 해가 되길 바랍니다. 지난 한 해 제주관광은 우리나라와 타 국가의 정치적 상황, 해외 관광시장의 가격경쟁력 확보, 내국인의 소비트렌드와 여행패턴의 변화, 국내 타 지방자치단체와의 경쟁심화 등 어려운 여건 속에서도 제주관광을 위해 치열한 한 해를 보낸 관광인 여러분께 깊은 존경과 감사의 말씀을 드립니다. 올해에도 제주관광은 어려운 해가 이어질 것이라는 전망이 나오고 있습니다. 올해 우리 협회는 경영난을 겪고 있는 업계의 경쟁력 강화와 관광객 만족도 향상을 최우선 목표로 삼고 모든 역량을 집중하여 사업을 추진해 나가겠습니다. 먼저 제주관광시장의 대 내·외 환경변화에 적절한 대응과 건강한 관광생태계 조성을 위하여 핵심 사업들을 차질 없이 수행하겠습니다. 우선 ‘지역경제 활성화 및 융복합 전략’을 통해 4차 산업혁명 시대에 맞는 지역맞춤형 융복합 관광 확장 및 지역사회 환원을 위해 지역경제에 일조할 수 있도록 하겠습니다. 다음으로 ‘국내외 잠재수요 확충을 위한 다변화 마케팅 전략’을 통해 단체관광 홍보 및 관광 업체 간 네트워크 강화를 도모하여 국내외 잠재수요를 확충하도록 하겠습니다. 또한, ‘관광사업체 대외 경쟁력 지원체계 강화’를 위해 관광사업체 경쟁력 강화 및 관광관련 스포츠 및 유사업종 간 네트워크를 구축해 나가겠습니다. 더불어 양질의 관광산업 정보제공을 위한 사업에도 심혈을 기울여 나가겠습니다. 항상 관광협회에 관심을 가지고 보내주신 변함없는 사랑과 뜨거운 성원에 진심으로 감사를 드리며, 경자년 새해에도 지속적인 관심과 성원을 부탁드립니다. 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 빅데이터 기반 플랫폼 구축 등으로 관광 활성화 도모 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:45 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 제주도 빅데이터 기반 플랫폼 구축 등으로 관광 활성화 도모 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도 빅데이터 기반 플랫폼 구축 등으로 관광 활성화 도모 부남철 기자 승인 2020.01.07 16:10 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도가 지난해 회복세를 보이기 시작한 제주관광의 질적 성장 등 체질 개선을 위한 5대 핵심과제를 선정하고 지역경제 활성화 도모에 나섰다. 제주도는 이를 위해 올해 관광분야 정책목표를 ‘도민과 관광객 모두를 위한 질적관광 실현’으로 정하고 ▲빅데이터 기반 관광서비스 플랫폼 구축 ▲관광객 낙수효과를 높이는 지역관광 활성화 ▲관광산업 체질개선을 통한 질적성장 기반 조성 ▲경쟁력 있는 제주 MICE산업 생태계 조성 ▲글로벌 관광트렌드에 대응하는 국내시장 활성화 및 해외시장 다변화 등 5대 핵심과제를 추진키로 하고 513억원의 예산을 투입할 계획이라고 7일 밝혔다. 제주도는 우선 빅데이터 기반의 관광서비스 플랫폼 개발에 주력할 계획이다. 플랫폼 구축을 통해 빅데이터 분석결과를 도민과 관광사업체와 공유해 창업, 업종전환, 마케팅 등에 활용할 수 있도록 하고 개별관광객도 기후, 계절, 연령 등의 빅데이터를 기초로 관광지 추천 등을 받을 수 있도록 할 계획이다. 제주도는 이와 함께 지역관광 활성화를 위한 공공기관과 민간 네트워크를 구축하고 스토리텔러 양성 등을 통하여 20개 마을을 목표로 지역관광 프로그램을 운영함으로써 관광 활성화로 인한 낙수효과가 지역전반에 확대될 수 있도록 할 방침이다. 제주도는 또 올해로 3년차를 맞는 관광스타트업 육성을 통해 관광산업 체질개선과 트렌드에 맞는 생태계 조성을 위한 관광사업 모델을 발굴하고 창업지원과 일자리창출을 유도함으로써 관광산업의 체질개선을 통한 지속적인 질적성장 기반을 다져나갈 계획이다. 제주도는 MICE산업 생태계 조성과 해외시장 다변화를 위한 온라인 마케팅에도 주력할 방침이다. 특히 주력시장인 중국지역 고부가가치 특수목적관광객(SIT) 유치를 위한 마케팅과 함께 일본시장 활성화를 위해 직항운항 항공사 공동 마케팅 등을 전략적으로 추진한다. 제주도는 올해 정부 차원에서 동남아 3개국 환승 무사증 제도가 시행됨에 따라 베트남, 필리핀, 인도네시아 등 시장다변화 마케팅에 적극 활용하는 한편, 싱가포르 등 동남아지역 직항노선 확대 및 인도 등 신흥시장 개척도 지속 추진해 나갈 계획이다. 강영돈 제주도 관광국장은 “관광업계 및 유관기관과 긴밀하게 협업해 관광산업이 지역경제를 견인하고 도민체감도를 높일 수 있도록 올 한 해도 다각적인 정책노력을 기울여 나가겠다”라며 “정책효과가 가시적인 성과를 낼 수 있도록 재정 신속집행에도 우선순위를 두고 추진하겠다”라고 밝혔다. 부남철 기자  bunch@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 부남철 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 1월 새해 해돋이 감상하며 맛보기 좋은 식당 - 농업정보신문 × 전체기사 기획/특집 뉴스 전체 농정 행사 카드뉴스 포토뉴스 지식정보 전체 도시농업/귀농 축산 지역 비즈 오피니언 전체 현장 인터뷰 기고 기자수첩 인사/동정 동영상 일반 2022-10-06 10:55 (목) 기사검색 검색 전체 기획/특집 뉴스 농정 카드뉴스 포토뉴스 지식정보 축산 지역 비즈 오피니언 처음으로 로그인 회원가입 전체기사 이전 다음 제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 1월 새해 해돋이 감상하며 맛보기 좋은 식당 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 일반 제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 1월 새해 해돋이 감상하며 맛보기 좋은 식당 김영수 기자 승인 2020.01.04 11:00 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 한 해를 마무리하고 또 한해가 시작되면서 새로운 마음을 갖고자 여행을 준비하는 사람들이 늘고 있다. 아이들의 겨울방학을 맞이해 가족여행을 준비하는 사람들부터, 데이트하는 커플들, 친구들과 함께하는 우정여행도 계획해본다. 제주도는 메밀꽃축제 서귀포 제주감귤박람회 산방산이 보이는 마노르블랑 핑크뮬리축제, 모슬포 마라도 최남단 방어축제 아트제주 2019등 서귀포 한림 애월 월정리 함덕 성산 중문을 비롯한 유명한 명소들이 관광객들에게 12월 제주도 가볼만한 곳으로 손꼽히고 있다. 이중 중문관광단지 인근에는 관광하며 허기진 배를 채울 수 있는 음식점도 즐비한데 그중 제주 중문 맛집 ‘색달식당 중문본점’이 영양소가 풍부함은 물론 최근 제철을 맞아 살찌고 맛도 좋아진 갈치를 활용한 요리를 선보이며 눈길을 끌고 있다. 또한 12월에는 근처 카멜리아힐 동백꽃 측제를 즐기고 가기에 완성 맞춤이다. 중문관광단지에서 차로 1분 거리에 위치해 있는데 주차장도 넓게 구비되어 있어 부담없이 세울 수 있다. 생물갈치를 사용하는 식당으로 방문객의 만족도가 높은 편이다. 공항에서 45분 거리, 서귀포 시내에서 20분 거리고 신라호텔, 롯데호텔을 비롯한 다양한 편의시설과 더불어 산방산, 중문색달해변 해수욕장, 카멜리아힐 등 주요 관광지를 한 눈에 돌아볼 수 있다. 서귀포 맛집 색달식당은 중문본점으로 다양한 메뉴를 제공한다. 단품도 있지만 세트메뉴가 인상적이다. 통갈치조림을 비롯해 갈치구이, 돌솥밥, 성게미역국 등 가성비 좋은 세트를 통해서 포만감과 만족감을 한번에 잡을 수 있는 장점이 존재한다. 중문관광단지 맛집 색달식당 중문본점에서는 오랫동안 운영해온 노하우가 베어 있는 통갈치조림을 자랑으로 내세우고 있다. 냉동이 아닌 싱싱한 생물갈치를 사용하는데 식감은 물론 맛에서도 비교우위에 있어 제주 중문맛집의 면모를 보이고 있다. 또한 조림은 직원이 손질을 해줘서 편하게 먹을 수 있다. 중문맛집 색달식당 중문본점의 영업시간은 오전 9시부터 오후 9시 30분까지며 오후 8시 30분까지 주문하면된다. 픽업서비스도 제공하고 있으니 자세한 내용은 홈페이지를 참고하면 된다. 저작권자 © 농업정보신문 무단전재 및 재배포 금지 김영수 기자 다른기사 보기 인기기사 1'그린시스' 달콤함은 기본, 톡톡 튀는 색이 매력 ‘초록색 배’ 22022 대한민국 과일산업대전 전시회 개최! 32022 대한민국 정원식물 전시·품평회 개막 4유기농‘들깨’ 수확 막바지 해충방제 신경 써야 5나주 샤인머스켓 베트남 첫 수출 62022 대한민국국제농기계자재박람회, 한 달 앞으로… 7자연에너지 활용 난방시스템, 난방비 34% 절감 8미국 수출 배 검역조건 개선 협상 타결 9아프리카돼지열병 방역, 확산 방지에 총력 10농진청, 농식품 산업의 미래 ‘푸드테크’ 발전 방향 논의 최신기사 ‘종자, 세계를 움직이다’ 2022 국제종자박람회 개최! ‘종자, 세계를 움직이다’ 2022 국제종자박람회 개최! 2022 대한민국 과일산업대전 전시회 개최! 2022 대한민국 과일산업대전 전시회 개최! '그린시스' 달콤함은 기본, 톡톡 튀는 색이 매력 ‘초록색 배’ '그린시스' 달콤함은 기본, 톡톡 튀는 색이 매력 ‘초록색 배’ 2022 대한민국 정원식물 전시·품평회 개막 2022 대한민국 정원식물 전시·품평회 개막 한국농수산식품유통공사, 청렴 생태계 구축 앞장선다 한국농수산식품유통공사, 청렴 생태계 구축 앞장선다 양파 육묘기, 건전한 묘 생산을 위한 중요한 단계 양파 육묘기, 건전한 묘 생산을 위한 중요한 단계 나주 샤인머스켓 베트남 첫 수출 나주 샤인머스켓 베트남 첫 수출 신문사소개 신문윤리강령 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 금천구 디지털로9길 33 (IT미래TOWER) 1305호 대표전화 : 02-3474-7063~6 팩스 : 02-3471-7067 청소년보호책임자 : 이주상 법인명 : 농업정보신문 제호 : 농업정보신문 등록번호 : 서울 다 01010호 등록일 : 1995년 7월 10일 발행일 : 1995년 7월 10일 발행인 : 이주상 편집인 : 이혁희 농업정보신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 농업정보신문. All rights reserved. mail to wonye@nongup.net 위로</t>
+  </si>
+  <si>
+    <t>김영진 전 제주도관광협회장, 4·15 총선 제주시갑 예비후보 등록 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:45 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 김영진 전 제주도관광협회장, 4·15 총선 제주시갑 예비후보 등록 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 후보자 김영진 전 제주도관광협회장, 4·15 총선 제주시갑 예비후보 등록 현대성 기자 승인 2020.01.13 14:49 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 김영진 전 제주특별자치도관광협회장(52·무소속)이 13일 제21대 국회의원선거 제주시갑 선거구 예비후보로 등록하고 본격적인 선거전에 나섰다. 김영진 예비후보는 제주특별자치도 관광협회 제31대~34대 회장과 제주지역 경제단체 협의회 부회장을 역임했다. 김 예비후보는 “제주지역 경제 성장률이 IMF 이후 처음으로 마이너스를 기록하는 등 경제가 매우 어려운 상황이고, 올해에도 경제 전망이 밝지 않다”라며 “특정 산업에 편중된 경제 산업 생태계를 바꾸겠다”라고 강조했다. 이어 “현재 국회에는 관광 전문가가 한 명도 없다”라며 “당선된다면 관광 전문가로서 관광 혁신에 힘을 보탬은 물론, 4·3 특별법 국회 통과에도 역할을 다할 것”이라고 피력했다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>김영진 전 제주도관광협회장 출판 기념회 열고 총선 행보 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:45 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 김영진 전 제주도관광협회장 출판 기념회 열고 총선 행보 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 후보자 김영진 전 제주도관광협회장 출판 기념회 열고 총선 행보 현대성 기자 승인 2020.01.09 14:15 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제21대 국회의원선거 제주시갑 선거구 출마를 준비하고 있는 김영진 전 제주특별자치도관광협회장이 출판기념회를 열고 총선 행보에 박차를 가한다. 김 전 회장은 오는 11일 오후 2시 제주한라대학교 컨벤션홀에서 ‘제주의 미래, 제주인의 꿈과 희망을 향한 새로운 여행’ 북콘서트를 개최한다고 지난 8일 밝혔다. 이번 북콘서트는 김 전 회장이 책의 주요 내용을 소개하고, 정치평론가이자 대학교수인 고성국 박사와 대담을 나누는 형식으로 진행된다. 책에는 김영진 전 회장의 어린 시절 얘기와 성공담, 김 전 회장이 생각하는 제주의 현안과 과제 및 해법이 담겼다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
   </si>
 </sst>
 </file>
@@ -431,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,7 +657,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -464,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -475,7 +679,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -486,7 +690,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -494,7 +698,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -502,10 +709,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -513,10 +720,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -524,10 +731,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -535,10 +742,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -546,10 +753,444 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
